--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE87B2-25FB-4CEA-A72F-83A5A3675EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90EE2E-3D52-426B-8954-3863BE2DFC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>1000,1001,1002,2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trees</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000,1001,1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rocks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000,1001,1002,1003,1004,1005</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -154,7 +170,13 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -180,9 +202,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:L2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:L2" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:N2" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -194,7 +216,9 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -512,9 +536,11 @@
     <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,8 +577,14 @@
       <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -589,8 +621,14 @@
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -604,7 +642,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L9" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90EE2E-3D52-426B-8954-3863BE2DFC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4D8E6-FFC0-4D4B-A0D4-3F1730C2D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>map100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SizeX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,6 +106,42 @@
   </si>
   <si>
     <t>1000,1001,1002,1003,1004,1005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TransferGateID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map1002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,11 +198,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -202,9 +240,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:N2" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:O5" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:O5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -216,9 +254,10 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -535,12 +574,13 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,102 +588,247 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1003</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1001</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F4">
+        <v>1003</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1004</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1002</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>1004</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>1001</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1002</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>1003</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L9" s="1"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4D8E6-FFC0-4D4B-A0D4-3F1730C2D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B93538-C185-48E0-90AD-D85116AD2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="3435" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>map1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerPosX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerPosZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,7 +217,13 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -240,9 +258,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:O5" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:O5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:Q5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -254,10 +272,12 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -580,7 +600,7 @@
     <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,8 +646,14 @@
       <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -671,8 +697,14 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -718,8 +750,10 @@
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -765,8 +799,10 @@
       <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -812,8 +848,10 @@
       <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -827,7 +865,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B93538-C185-48E0-90AD-D85116AD2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32459EA1-0712-4763-8776-554F68BE87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreatePosOffset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -217,7 +225,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -258,9 +269,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:Q5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R5" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -272,12 +283,13 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -600,7 +612,7 @@
     <col min="15" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,8 +664,11 @@
       <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -703,8 +718,11 @@
       <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -752,8 +770,11 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -801,8 +822,11 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -850,8 +874,11 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -865,7 +892,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32459EA1-0712-4763-8776-554F68BE87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E969B6-E06A-4ADD-90BC-D25B05988F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -730,13 +730,13 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>1002</v>
@@ -782,13 +782,13 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1003</v>
@@ -834,13 +834,13 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>1004</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E969B6-E06A-4ADD-90BC-D25B05988F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20306A-C012-4353-9F1C-73737CB24704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4470" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buildings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -225,7 +233,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -269,9 +280,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R5" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S5" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:S5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -283,13 +294,14 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -609,10 +621,10 @@
     <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="15" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,16 +671,19 @@
         <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -713,16 +728,19 @@
         <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -770,11 +788,12 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -822,11 +841,12 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -874,11 +894,12 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -892,7 +913,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB20306A-C012-4353-9F1C-73737CB24704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4987FF-790A-4ACD-83A6-A404546248C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -110,10 +101,6 @@
   </si>
   <si>
     <t>TransferGateID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -298,10 +285,10 @@
     <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="6"/>
     <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,25 +593,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="16" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,24 +658,24 @@
         <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -706,46 +693,40 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="2">
         <v>5</v>
       </c>
       <c r="J2" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K2" s="2">
         <v>5</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -784,21 +765,21 @@
         <v>16</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -837,21 +818,21 @@
         <v>16</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -890,16 +871,16 @@
         <v>16</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -913,7 +894,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4987FF-790A-4ACD-83A6-A404546248C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9417C-B3B0-4FFC-A278-9753A5E75A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -84,22 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Trees</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000,1001,1002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rocks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000,1001,1002,1003,1004,1005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TransferGateID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,6 +141,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resources</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -220,10 +212,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -267,9 +256,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S5" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:S5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R5" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
@@ -281,9 +270,8 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Trees" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{B07691C4-84C8-4205-86DE-57C65B59C8DD}" name="Rocks" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
     <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
@@ -591,27 +579,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="14.19921875" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" customWidth="1"/>
+    <col min="14" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,33 +636,30 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -706,27 +690,26 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -759,27 +742,24 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>29</v>
+      <c r="R3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -812,27 +792,24 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -865,22 +842,19 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
+      <c r="R5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -894,7 +868,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9417C-B3B0-4FFC-A278-9753A5E75A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AEA2E-CB85-47E7-886A-B8416954F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="228" yWindow="876" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
+    <t>104,202,303</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -581,24 +581,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.75" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -704,7 +704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -804,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -868,7 +868,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L10" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AEA2E-CB85-47E7-886A-B8416954F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E890E-8443-4487-99FA-687BBEC2FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="876" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -104,18 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>map1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map1001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map1002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PlayerPosX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,7 +136,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>104,202,303</t>
+    <t>1F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>104,203,303,501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>104,203,303,502,601</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R5" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R9" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R9" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -579,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -636,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -692,16 +740,16 @@
       <c r="M2" s="1"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -709,16 +757,16 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1002</v>
@@ -733,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -742,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>14</v>
@@ -751,7 +799,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -759,16 +807,16 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>1003</v>
@@ -783,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -792,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
@@ -801,7 +849,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -809,16 +857,16 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>1004</v>
@@ -833,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -842,34 +890,226 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>1004</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1001</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1008</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>1004</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1001</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1008</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>1004</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1001</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1008</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>1004</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1001</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1006</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="L10" s="1"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9417C-B3B0-4FFC-A278-9753A5E75A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E890E-8443-4487-99FA-687BBEC2FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -104,18 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>map1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map1001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>map1002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PlayerPosX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,7 +136,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
+    <t>1F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>104,203,303,501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>104,203,303,502,601</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R5" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R5" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R9" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R9" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -579,26 +627,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.75" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,25 +684,25 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -692,33 +740,33 @@
       <c r="M2" s="1"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1002</v>
@@ -733,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -742,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>14</v>
@@ -751,24 +799,24 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>1003</v>
@@ -783,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -792,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
@@ -801,24 +849,24 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>1004</v>
@@ -833,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -842,34 +890,226 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>1004</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1001</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1008</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="L10" s="1"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>1004</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1001</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1008</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>1004</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1001</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1008</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>1004</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1001</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1006</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E890E-8443-4487-99FA-687BBEC2FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B235462-75BE-4F5B-B9B6-72BAFAF62AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>110,210,310,510,608,708,805,902</t>
+    <t>110,210,310,510,608,708,805,901</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E890E-8443-4487-99FA-687BBEC2FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914ACB7-73D3-4C5F-AF45-A7685106D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Resources</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>110,210,310,510,608,708,805,902</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000,1001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -630,23 +630,23 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.69921875" customWidth="1"/>
+    <col min="14" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -737,11 +737,11 @@
         <v>5</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
@@ -752,12 +752,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>14</v>
@@ -802,12 +802,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
@@ -852,12 +852,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -890,10 +890,10 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -902,12 +902,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>65</v>
@@ -940,22 +940,22 @@
         <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -988,22 +988,22 @@
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>17</v>
@@ -1094,7 +1094,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1108,7 +1108,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="L14" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914ACB7-73D3-4C5F-AF45-A7685106D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E890E-8443-4487-99FA-687BBEC2FAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,6 +128,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Resources</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,10 +197,6 @@
   </si>
   <si>
     <t>110,210,310,510,608,708,805,902</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000,1001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -630,23 +630,23 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.75" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -737,11 +737,11 @@
         <v>5</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
@@ -752,12 +752,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>14</v>
@@ -802,12 +802,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
@@ -852,12 +852,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -890,10 +890,10 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -902,12 +902,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>65</v>
@@ -940,22 +940,22 @@
         <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -988,22 +988,22 @@
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>17</v>
@@ -1094,7 +1094,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1108,7 +1108,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L14" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914ACB7-73D3-4C5F-AF45-A7685106D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33121E-6551-440C-8F13-FE5BD160F1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -197,6 +206,10 @@
   </si>
   <si>
     <t>1000,1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -629,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -741,7 +754,9 @@
         <v>43</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33121E-6551-440C-8F13-FE5BD160F1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE236921-82B4-4140-8CCB-DFFA2605D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>1000,1001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,24 +638,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.75" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -749,14 +745,14 @@
       <c r="K2" s="2">
         <v>5</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
@@ -767,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -817,7 +813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -867,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -917,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -965,7 +961,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1013,7 +1009,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1061,7 +1057,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1109,7 +1105,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1123,7 +1119,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L14" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE236921-82B4-4140-8CCB-DFFA2605D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85416CF-5FB7-45E5-B673-F0026CCFAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -61,34 +61,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Block01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mountains</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Block02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Block03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Block01Height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Block02Height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Block03Height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1000,1001,1002,2000</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,6 +182,33 @@
   </si>
   <si>
     <t>1000,1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Entity01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity01Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity02Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity03Height</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -313,20 +316,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R9" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R9" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R10" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R10" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
     <tableColumn id="4" xr3:uid="{10B34334-DFA2-4EF4-B360-1FB80B249E4F}" name="SizeY"/>
     <tableColumn id="5" xr3:uid="{27CA9EE1-576D-4C6A-8E04-8EE2359393FA}" name="SizeZ"/>
-    <tableColumn id="6" xr3:uid="{94B66BB9-9B68-4FBF-AE7E-5E67C002A962}" name="Block01"/>
-    <tableColumn id="7" xr3:uid="{82DDE661-0FCC-4212-944C-7F3924B1BDEF}" name="Block01Height"/>
-    <tableColumn id="8" xr3:uid="{149947B5-3E52-4B96-838E-F4C5FD4F5C3C}" name="Block02"/>
-    <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Block02Height"/>
-    <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Block03"/>
-    <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Block03Height"/>
+    <tableColumn id="6" xr3:uid="{94B66BB9-9B68-4FBF-AE7E-5E67C002A962}" name="Entity01"/>
+    <tableColumn id="7" xr3:uid="{82DDE661-0FCC-4212-944C-7F3924B1BDEF}" name="Entity01Height"/>
+    <tableColumn id="8" xr3:uid="{149947B5-3E52-4B96-838E-F4C5FD4F5C3C}" name="Entity02"/>
+    <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Entity02Height"/>
+    <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Entity03"/>
+    <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Entity03Height"/>
     <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
     <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
@@ -636,26 +639,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.69921875" customWidth="1"/>
+    <col min="14" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,153 +675,129 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>1002</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1003</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>1005</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -830,13 +809,13 @@
         <v>50</v>
       </c>
       <c r="F4">
+        <v>1002</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>1003</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1004</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -848,45 +827,45 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5">
+        <v>1003</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>1004</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1001</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -898,36 +877,36 @@
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>1004</v>
@@ -942,40 +921,42 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>1004</v>
@@ -996,34 +977,34 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>1004</v>
@@ -1044,34 +1025,34 @@
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>1004</v>
@@ -1086,41 +1067,89 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>1004</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1001</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1006</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="L14" s="1"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85416CF-5FB7-45E5-B673-F0026CCFAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF897814-3A5D-45C4-B0DB-5FB53964BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -209,6 +209,28 @@
   </si>
   <si>
     <t>Entity03Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝マップ</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2100,2101,2102</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -316,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R10" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R10" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R11" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:R11" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -642,7 +664,10 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -716,33 +741,43 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -988,7 +1023,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -1036,7 +1073,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -1084,7 +1123,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -1132,7 +1173,57 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>5000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>1004</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1001</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1006</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF897814-3A5D-45C4-B0DB-5FB53964BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F22185-8E03-49F2-A376-65FAFE9FA3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F22185-8E03-49F2-A376-65FAFE9FA3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864FC96D-7A1E-4C10-8033-85B88F1813B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -231,6 +232,148 @@
   </si>
   <si>
     <t>2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全マップの設定です。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SizeX、Ｙ、Ｚ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity01～03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity01～03Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerPosX、Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの名前</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトのブロック（Entity設定ファイルID、ブロックだけ）</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトのブロックの高さ</t>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成される山（MapMountain設定ファイルID）</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成されるEnityty（Entity設定ファイルのID)</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送門、次のマップに遷移（TransferGate設定ファイルのID）</t>
+    <rPh sb="0" eb="3">
+      <t>テンソウモン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成される建物、固定の設計図を利用（Building設定ファイルのID)</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが生成される座標</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ以外に生成されないようにする為のオフセット</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +397,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -277,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +483,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,11 +867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1250,4 +1454,139 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C5DC7-E109-4FC5-AC23-D649780C9481}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864FC96D-7A1E-4C10-8033-85B88F1813B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56571698-68DC-4557-8F23-8B873B3AD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1515" yWindow="1920" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -374,6 +374,18 @@
     <rPh sb="17" eb="18">
       <t>タメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MapType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,11 +554,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:R11" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:R11" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S12" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:S12" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
+    <tableColumn id="14" xr3:uid="{3E44D551-1567-4BFD-B6E3-A709F57C18B3}" name="MapType"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
     <tableColumn id="4" xr3:uid="{10B34334-DFA2-4EF4-B360-1FB80B249E4F}" name="SizeY"/>
     <tableColumn id="5" xr3:uid="{27CA9EE1-576D-4C6A-8E04-8EE2359393FA}" name="SizeZ"/>
@@ -865,29 +878,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="15" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,55 +908,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -951,35 +967,38 @@
         <v>38</v>
       </c>
       <c r="C2" s="2">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2">
         <v>30</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -987,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>100</v>
@@ -996,455 +1015,526 @@
         <v>100</v>
       </c>
       <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
         <v>1001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1005</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1006</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
         <v>1002</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>1003</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>1005</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>1003</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1004</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>1005</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
       <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1003</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1004</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1001</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>1005</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
       <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
         <v>1004</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1001</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7">
-        <v>1008</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>65</v>
+      </c>
+      <c r="G8">
         <v>1004</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <v>1004</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>1001</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>1008</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>80</v>
-      </c>
       <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
         <v>1004</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>1001</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>1008</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>90</v>
-      </c>
       <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
         <v>1004</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1001</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10">
-        <v>1006</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>5000</v>
+        <v>1006</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
       <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
         <v>1004</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1001</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
       <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>1006</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1"/>
+      <c r="L11">
+        <v>3</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="L15" s="1"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>1004</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1001</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1006</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1460,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C5DC7-E109-4FC5-AC23-D649780C9481}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56571698-68DC-4557-8F23-8B873B3AD0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D67401-674A-4823-A002-E0763C9E74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1920" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -378,10 +378,6 @@
   </si>
   <si>
     <t>ガイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -884,7 +880,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -908,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1079,12 +1075,8 @@
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
         <v>14</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D67401-674A-4823-A002-E0763C9E74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268D950-F3FF-4158-AD1D-FF7A88EF3039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -382,6 +373,10 @@
   </si>
   <si>
     <t>MapType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -880,23 +875,23 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.09765625" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="16" width="15.75" customWidth="1"/>
+    <col min="15" max="16" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -994,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1077,7 +1072,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1459,7 +1456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5000</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1525,7 +1522,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="M16" s="1"/>
     </row>
   </sheetData>
@@ -1546,122 +1543,122 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>65</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268D950-F3FF-4158-AD1D-FF7A88EF3039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116E46D-B88C-47F2-9140-F6C89A7E5132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -875,23 +875,23 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.09765625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="16" width="15.69921875" customWidth="1"/>
+    <col min="15" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1055,13 +1055,13 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
       <c r="F4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1006</v>
@@ -1085,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>5000</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1522,7 +1522,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="M16" s="1"/>
     </row>
   </sheetData>
@@ -1543,122 +1543,122 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>65</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116E46D-B88C-47F2-9140-F6C89A7E5132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6DAAC-4AC9-4F74-88EA-A2307878D372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -545,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S12" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S12" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S13" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:S13" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -869,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1087,63 +1087,65 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>1002</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1003</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
         <v>1005</v>
       </c>
-      <c r="L5">
-        <v>3</v>
+      <c r="L5" s="2">
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1158,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="G6">
+        <v>1002</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1003</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1004</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1179,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1193,31 +1195,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7">
+        <v>1003</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1004</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1001</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1232,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1246,22 +1248,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>1004</v>
@@ -1276,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1285,36 +1287,36 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>1004</v>
@@ -1338,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1352,22 +1354,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1004</v>
@@ -1391,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1405,22 +1407,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <v>1004</v>
@@ -1435,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1444,10 +1446,10 @@
         <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1458,22 +1460,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>5000</v>
+        <v>1006</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>1004</v>
@@ -1493,12 +1495,14 @@
       <c r="L12">
         <v>3</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N12" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1507,23 +1511,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1004</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1001</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1006</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="M16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6DAAC-4AC9-4F74-88EA-A2307878D372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA374E-E8AF-4208-961A-796A446D3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000,1001,10000,10001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,7 +879,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1030,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA374E-E8AF-4208-961A-796A446D3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C34FD5-19F6-4850-8519-4B64A5FA04E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1000,1001,10000,10001</t>
+    <t>11500,1000,1001,10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,7 +879,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C34FD5-19F6-4850-8519-4B64A5FA04E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C2F82-7701-406F-B7FA-0C94638E5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1019,16 +1019,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="J3" s="2">
         <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="L3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>6</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C2F82-7701-406F-B7FA-0C94638E5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A517A-C260-4288-B169-8E50512AF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -380,7 +380,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11500,1000,1001,10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11000</t>
+    <t>1000,1001,10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000,1001,1002,2000,2001,2002,2003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,7 +883,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1031,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>69</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A517A-C260-4288-B169-8E50512AF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E21DD-6C64-48DC-B454-83BB148B8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="22320" yWindow="-7820" windowWidth="20290" windowHeight="13610" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -384,7 +384,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1000,1001,1002,2000,2001,2002,2003</t>
+    <t>2,3,4,5,6,7,8,9,10,11,12,13,14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -880,10 +880,10 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1034,14 +1034,14 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,33 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E21DD-6C64-48DC-B454-83BB148B8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8AED3-F9FA-4DAD-A45C-B35AC7681231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="-7820" windowWidth="20290" windowHeight="13610" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -385,6 +395,44 @@
   </si>
   <si>
     <t>2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <rPh sb="0" eb="2">
+      <t>イチバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6001,6002,6003,6004,6005</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S13" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S13" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S14" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:S14" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -877,13 +925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1098,7 +1146,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1150,63 +1198,55 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>1002</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1003</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1005</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1006</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1221,13 +1261,13 @@
         <v>50</v>
       </c>
       <c r="G7">
+        <v>1002</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1003</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1004</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1242,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1256,31 +1296,31 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G8">
+        <v>1003</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>1004</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1001</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1295,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1309,22 +1349,22 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>1004</v>
@@ -1339,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1348,36 +1388,36 @@
         <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>1004</v>
@@ -1401,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1415,22 +1455,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>1004</v>
@@ -1454,10 +1494,10 @@
         <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1468,22 +1508,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>1004</v>
@@ -1498,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1507,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1521,22 +1561,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>5000</v>
+        <v>1006</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>1004</v>
@@ -1556,12 +1596,14 @@
       <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N13" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1570,23 +1612,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.4">
-      <c r="M17" s="1"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>1004</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1001</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1006</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1602,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C5DC7-E109-4FC5-AC23-D649780C9481}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1731,4 +1824,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47310B-9803-49F4-9FFA-CC1E88415CEA}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8AED3-F9FA-4DAD-A45C-B35AC7681231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E3CCA-F2DB-4C91-9596-051FCD496CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1830" yWindow="2775" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -433,6 +433,13 @@
   </si>
   <si>
     <t>6001,6002,6003,6004,6005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場ガイド</t>
+    <rPh sb="0" eb="2">
+      <t>イチバ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S14" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S14" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S15" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:S15" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -925,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1243,63 +1250,55 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>1002</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1003</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>1005</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1314,13 +1313,13 @@
         <v>50</v>
       </c>
       <c r="G8">
+        <v>1002</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>1003</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1004</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1335,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1349,31 +1348,31 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G9">
+        <v>1003</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>1004</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1001</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1388,10 +1387,10 @@
         <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1402,22 +1401,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1004</v>
@@ -1432,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1441,36 +1440,36 @@
         <v>6</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <v>1004</v>
@@ -1494,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1508,22 +1507,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>1004</v>
@@ -1547,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1561,22 +1560,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>1004</v>
@@ -1591,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1600,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1614,22 +1613,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>5000</v>
+        <v>1006</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <v>1004</v>
@@ -1649,12 +1648,14 @@
       <c r="L14">
         <v>3</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N14" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1663,23 +1664,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>5000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>1004</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1001</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1006</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E3CCA-F2DB-4C91-9596-051FCD496CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE2C91-ADF1-49B4-B206-6792B1F64E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="2775" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="3570" yWindow="2130" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -439,6 +439,13 @@
     <t>市場ガイド</t>
     <rPh sb="0" eb="2">
       <t>イチバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界マップ</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -608,8 +615,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S15" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S15" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S69" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:S69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -932,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1666,13 +1673,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
+        <v>3001</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1684,54 +1691,1944 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>1001</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>1006</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3002</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>1006</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3003</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>1006</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3004</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>1006</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3005</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>1006</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3006</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>1006</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3007</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>1006</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3008</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>1006</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3009</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>1006</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3010</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>1006</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3011</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>1006</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3012</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>1006</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>3013</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>1006</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3014</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>1006</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3015</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>1006</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>3016</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>1006</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>3017</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>1006</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>3018</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>1006</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>3019</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>1006</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>3020</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>1006</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>3021</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>1006</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>3022</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>1006</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3023</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>1006</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3024</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>1006</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>3025</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>1006</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>3026</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>1006</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>3027</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>1006</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3028</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>1006</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>3029</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>1006</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>3030</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>1006</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>3031</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>1006</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>3032</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>1006</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3033</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>1006</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3034</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>1006</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>3035</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>1006</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>3036</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>1006</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>3037</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>1006</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3038</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>1006</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>3039</v>
+      </c>
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>1006</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3040</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>1006</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>3041</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>1006</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>3042</v>
+      </c>
+      <c r="B56">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>1006</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>3043</v>
+      </c>
+      <c r="B57">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>1006</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3044</v>
+      </c>
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>1006</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3045</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>1006</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3046</v>
+      </c>
+      <c r="B60">
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>1006</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3047</v>
+      </c>
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>1006</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3048</v>
+      </c>
+      <c r="B62">
+        <v>48</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>1006</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3049</v>
+      </c>
+      <c r="B63">
+        <v>49</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>1006</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3050</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>1006</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>3051</v>
+      </c>
+      <c r="B65">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>1006</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3052</v>
+      </c>
+      <c r="B66">
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>1006</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3053</v>
+      </c>
+      <c r="B67">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>1006</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>3054</v>
+      </c>
+      <c r="B68">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>1006</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>5000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>1004</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1001</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>1006</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1880,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47310B-9803-49F4-9FFA-CC1E88415CEA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1931,6 +3828,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE2C91-ADF1-49B4-B206-6792B1F64E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A94E0-5675-4EB0-87B6-AE8C0A63A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2130" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -432,21 +432,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6001,6002,6003,6004,6005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市場ガイド</t>
-    <rPh sb="0" eb="2">
-      <t>イチバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>世界マップ</t>
     <rPh sb="0" eb="2">
       <t>セカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6001,6002,6003,6004,6005,7001,7002,7003,7004,7005,11100,11101,11102,11103,11104,11105,11106,11107,11108,11109,11110,11111,11112,11113,11114,11115,11116,11117,11118,11119,11120,11121,11122,11123,11124,11125,11126,11127,11128,11129,11130,11131,11132,11133,11134,11135,11136,11137,11138,11139,11140,11141,11142,11143,11144,11145,11146,11147,11148,11149,11150,11151,11152,11153,11154,11155,11156,11157,11158,11159,11160,11161,11162,11163,11164,11165</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Marketガイド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -942,10 +951,10 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1221,13 +1230,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>1006</v>
@@ -1241,18 +1250,20 @@
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="Q6" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -1260,19 +1271,19 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>1006</v>
@@ -1286,18 +1297,20 @@
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="Q7" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -3645,7 +3658,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3833,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE2C91-ADF1-49B4-B206-6792B1F64E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6CA66-BE1D-4B45-8B73-7898A7E12ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2130" windowWidth="24525" windowHeight="12975" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -447,6 +447,18 @@
     <rPh sb="0" eb="2">
       <t>セカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterGenerated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,4,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,7 +583,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -615,9 +630,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S69" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:T69" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:T69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="14" xr3:uid="{3E44D551-1567-4BFD-B6E3-A709F57C18B3}" name="MapType"/>
@@ -630,10 +645,11 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Entity02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Entity03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Entity03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{FD408196-0AD2-43BE-BD06-455EEC18C6C7}" name="CharacterGenerated" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
     <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
@@ -939,13 +955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -958,10 +974,10 @@
     <col min="12" max="12" width="16.25" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="16" width="15.75" customWidth="1"/>
+    <col min="15" max="17" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,16 +1027,19 @@
         <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1031,13 +1050,13 @@
         <v>99</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>1001</v>
@@ -1050,16 +1069,19 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1104,17 +1126,18 @@
       <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1145,17 +1168,18 @@
       <c r="P4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1200,17 +1224,18 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1245,17 +1270,18 @@
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1290,17 +1316,18 @@
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1347,13 +1374,16 @@
         <v>8</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1402,11 +1432,12 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1455,11 +1486,12 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1508,11 +1540,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -1561,11 +1594,12 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -1614,11 +1648,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -1667,11 +1702,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3001</v>
       </c>
@@ -1702,11 +1738,12 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3002</v>
       </c>
@@ -1737,11 +1774,12 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3003</v>
       </c>
@@ -1772,11 +1810,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3004</v>
       </c>
@@ -1807,11 +1846,12 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3005</v>
       </c>
@@ -1842,11 +1882,12 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3006</v>
       </c>
@@ -1877,11 +1918,12 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3007</v>
       </c>
@@ -1912,11 +1954,12 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3008</v>
       </c>
@@ -1947,11 +1990,12 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3009</v>
       </c>
@@ -1982,11 +2026,12 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3010</v>
       </c>
@@ -2017,11 +2062,12 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>3011</v>
       </c>
@@ -2052,11 +2098,12 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>3012</v>
       </c>
@@ -2087,11 +2134,12 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>3013</v>
       </c>
@@ -2122,11 +2170,12 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3014</v>
       </c>
@@ -2157,11 +2206,12 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3015</v>
       </c>
@@ -2192,11 +2242,12 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3016</v>
       </c>
@@ -2227,11 +2278,12 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3017</v>
       </c>
@@ -2262,11 +2314,12 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3018</v>
       </c>
@@ -2297,11 +2350,12 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3019</v>
       </c>
@@ -2332,11 +2386,12 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3020</v>
       </c>
@@ -2367,11 +2422,12 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3021</v>
       </c>
@@ -2402,11 +2458,12 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3022</v>
       </c>
@@ -2437,11 +2494,12 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3023</v>
       </c>
@@ -2472,11 +2530,12 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3024</v>
       </c>
@@ -2507,11 +2566,12 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3025</v>
       </c>
@@ -2542,11 +2602,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3026</v>
       </c>
@@ -2577,11 +2638,12 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3027</v>
       </c>
@@ -2612,11 +2674,12 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3028</v>
       </c>
@@ -2647,11 +2710,12 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3029</v>
       </c>
@@ -2682,11 +2746,12 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3030</v>
       </c>
@@ -2717,11 +2782,12 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S44" s="1"/>
+      <c r="T44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3031</v>
       </c>
@@ -2752,11 +2818,12 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3032</v>
       </c>
@@ -2787,11 +2854,12 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3033</v>
       </c>
@@ -2822,11 +2890,12 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3034</v>
       </c>
@@ -2857,11 +2926,12 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3035</v>
       </c>
@@ -2892,11 +2962,12 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3036</v>
       </c>
@@ -2927,11 +2998,12 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3037</v>
       </c>
@@ -2962,11 +3034,12 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S51" s="1"/>
+      <c r="T51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3038</v>
       </c>
@@ -2997,11 +3070,12 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3039</v>
       </c>
@@ -3032,11 +3106,12 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S53" s="1"/>
+      <c r="T53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3040</v>
       </c>
@@ -3067,11 +3142,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3041</v>
       </c>
@@ -3102,11 +3178,12 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S55" s="1"/>
+      <c r="T55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3042</v>
       </c>
@@ -3137,11 +3214,12 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S56" s="1"/>
+      <c r="T56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3043</v>
       </c>
@@ -3172,11 +3250,12 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S57" s="1"/>
+      <c r="T57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3044</v>
       </c>
@@ -3207,11 +3286,12 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3045</v>
       </c>
@@ -3242,11 +3322,12 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3046</v>
       </c>
@@ -3277,11 +3358,12 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3047</v>
       </c>
@@ -3312,11 +3394,12 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3048</v>
       </c>
@@ -3347,11 +3430,12 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3049</v>
       </c>
@@ -3382,11 +3466,12 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3050</v>
       </c>
@@ -3417,11 +3502,12 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S64" s="1"/>
+      <c r="T64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3051</v>
       </c>
@@ -3452,11 +3538,12 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S65" s="1"/>
+      <c r="T65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3052</v>
       </c>
@@ -3487,11 +3574,12 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S66" s="1"/>
+      <c r="T66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3053</v>
       </c>
@@ -3522,11 +3610,12 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S67" s="1"/>
+      <c r="T67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3054</v>
       </c>
@@ -3557,11 +3646,12 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S68" s="1"/>
+      <c r="T68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5000</v>
       </c>
@@ -3608,11 +3698,12 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3627,7 +3718,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M73" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A94E0-5675-4EB0-87B6-AE8C0A63A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216063D3-ED81-49E6-B416-4D66E0A3384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>Marketガイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterGenerated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,4,4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,7 +592,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -624,9 +639,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:S69" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:S69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:T69" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:T69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
     <tableColumn id="14" xr3:uid="{3E44D551-1567-4BFD-B6E3-A709F57C18B3}" name="MapType"/>
@@ -639,13 +654,14 @@
     <tableColumn id="9" xr3:uid="{19343299-E5D9-4D5A-9FA1-46F5B3AC5A1A}" name="Entity02Height"/>
     <tableColumn id="10" xr3:uid="{17C640B5-74F2-4C8B-8D92-5EEA8F63D406}" name="Entity03"/>
     <tableColumn id="11" xr3:uid="{26869DF9-277C-41E0-B80C-478A045AA5C8}" name="Entity03Height"/>
-    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{5DD6760B-151C-4CAF-AF05-35AD848396AE}" name="Mountains" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{9625B214-411D-409B-BE64-F68814255F49}" name="CharacterGenerated" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:S7"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -967,10 +983,10 @@
     <col min="12" max="12" width="16.25" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="16" width="15.75" customWidth="1"/>
+    <col min="15" max="17" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,17 +1035,20 @@
       <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1058,17 +1077,20 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
+      <c r="Q2" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1113,17 +1135,18 @@
       <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1154,17 +1177,18 @@
       <c r="P4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1209,17 +1233,18 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1256,17 +1281,18 @@
       <c r="P6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1303,17 +1329,18 @@
       <c r="P7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1360,13 +1387,16 @@
         <v>8</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1415,11 +1445,12 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1468,11 +1499,12 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1521,11 +1553,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -1574,11 +1607,12 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -1627,11 +1661,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -1680,11 +1715,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3001</v>
       </c>
@@ -1715,11 +1751,12 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3002</v>
       </c>
@@ -1750,11 +1787,12 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3003</v>
       </c>
@@ -1785,11 +1823,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3004</v>
       </c>
@@ -1820,11 +1859,12 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3005</v>
       </c>
@@ -1855,11 +1895,12 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3006</v>
       </c>
@@ -1890,11 +1931,12 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3007</v>
       </c>
@@ -1925,11 +1967,12 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3008</v>
       </c>
@@ -1960,11 +2003,12 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3009</v>
       </c>
@@ -1995,11 +2039,12 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3010</v>
       </c>
@@ -2030,11 +2075,12 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>3011</v>
       </c>
@@ -2065,11 +2111,12 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>3012</v>
       </c>
@@ -2100,11 +2147,12 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>3013</v>
       </c>
@@ -2135,11 +2183,12 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3014</v>
       </c>
@@ -2170,11 +2219,12 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3015</v>
       </c>
@@ -2205,11 +2255,12 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3016</v>
       </c>
@@ -2240,11 +2291,12 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3017</v>
       </c>
@@ -2275,11 +2327,12 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3018</v>
       </c>
@@ -2310,11 +2363,12 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3019</v>
       </c>
@@ -2345,11 +2399,12 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3020</v>
       </c>
@@ -2380,11 +2435,12 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3021</v>
       </c>
@@ -2415,11 +2471,12 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3022</v>
       </c>
@@ -2450,11 +2507,12 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3023</v>
       </c>
@@ -2485,11 +2543,12 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3024</v>
       </c>
@@ -2520,11 +2579,12 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3025</v>
       </c>
@@ -2555,11 +2615,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3026</v>
       </c>
@@ -2590,11 +2651,12 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3027</v>
       </c>
@@ -2625,11 +2687,12 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3028</v>
       </c>
@@ -2660,11 +2723,12 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3029</v>
       </c>
@@ -2695,11 +2759,12 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3030</v>
       </c>
@@ -2730,11 +2795,12 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S44" s="1"/>
+      <c r="T44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3031</v>
       </c>
@@ -2765,11 +2831,12 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3032</v>
       </c>
@@ -2800,11 +2867,12 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3033</v>
       </c>
@@ -2835,11 +2903,12 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3034</v>
       </c>
@@ -2870,11 +2939,12 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3035</v>
       </c>
@@ -2905,11 +2975,12 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3036</v>
       </c>
@@ -2940,11 +3011,12 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3037</v>
       </c>
@@ -2975,11 +3047,12 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S51" s="1"/>
+      <c r="T51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3038</v>
       </c>
@@ -3010,11 +3083,12 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3039</v>
       </c>
@@ -3045,11 +3119,12 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S53" s="1"/>
+      <c r="T53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3040</v>
       </c>
@@ -3080,11 +3155,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3041</v>
       </c>
@@ -3115,11 +3191,12 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S55" s="1"/>
+      <c r="T55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3042</v>
       </c>
@@ -3150,11 +3227,12 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S56" s="1"/>
+      <c r="T56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3043</v>
       </c>
@@ -3185,11 +3263,12 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S57" s="1"/>
+      <c r="T57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3044</v>
       </c>
@@ -3220,11 +3299,12 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3045</v>
       </c>
@@ -3255,11 +3335,12 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3046</v>
       </c>
@@ -3290,11 +3371,12 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3047</v>
       </c>
@@ -3325,11 +3407,12 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3048</v>
       </c>
@@ -3360,11 +3443,12 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3049</v>
       </c>
@@ -3395,11 +3479,12 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3050</v>
       </c>
@@ -3430,11 +3515,12 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S64" s="1"/>
+      <c r="T64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3051</v>
       </c>
@@ -3465,11 +3551,12 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S65" s="1"/>
+      <c r="T65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3052</v>
       </c>
@@ -3500,11 +3587,12 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S66" s="1"/>
+      <c r="T66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3053</v>
       </c>
@@ -3535,11 +3623,12 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S67" s="1"/>
+      <c r="T67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3054</v>
       </c>
@@ -3570,11 +3659,12 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S68" s="1"/>
+      <c r="T68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5000</v>
       </c>
@@ -3621,11 +3711,12 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3640,7 +3731,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M73" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216063D3-ED81-49E6-B416-4D66E0A3384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AA0BE-A7CA-4968-92E7-C0FB930CDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -460,10 +460,6 @@
   </si>
   <si>
     <t>CharacterGenerated</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,3,3,3,3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -658,10 +654,10 @@
     <tableColumn id="13" xr3:uid="{0D496E78-9C44-4807-B6BE-1E56F82D43B3}" name="Resources" dataDxfId="6"/>
     <tableColumn id="15" xr3:uid="{A92726D5-29DA-41C0-8089-2E1D92B1F41F}" name="TransferGateID" dataDxfId="5"/>
     <tableColumn id="19" xr3:uid="{D0CA6E6D-5066-4703-ADE7-F6D42A90B0A3}" name="Buildings" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{9625B214-411D-409B-BE64-F68814255F49}" name="CharacterGenerated" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{9625B214-411D-409B-BE64-F68814255F49}" name="CharacterGenerated" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{3DBAD7D3-33D9-4283-8657-0A1FC48A040C}" name="PlayerPosX" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{16F01B58-A6D0-4542-A230-C27F8ADA4E17}" name="PlayerPosZ" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{B01F2368-9BDE-4D2C-8DA4-D077C3659A39}" name="CreatePosOffset" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -970,7 +966,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1078,7 +1074,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>
@@ -1388,7 +1384,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AA0BE-A7CA-4968-92E7-C0FB930CDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110FC4DC-8358-4508-82A2-DDC6333A56F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t>3,3,4,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,6,7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,7 +970,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1074,7 +1078,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110FC4DC-8358-4508-82A2-DDC6333A56F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CCD5A4-8537-40B3-85B1-EB56F63A53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -463,11 +463,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3,3,4,4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5,6,7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -970,7 +970,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1078,7 +1078,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>45</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CCD5A4-8537-40B3-85B1-EB56F63A53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96E72C-9679-4BC3-80E6-8D86E527CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -468,6 +468,10 @@
   </si>
   <si>
     <t>5,5,5,5,5,5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,11 +643,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:T69" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:T69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U69" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
+    <tableColumn id="21" xr3:uid="{B6171571-238C-4901-8C87-C0964D433A27}" name="Floor"/>
     <tableColumn id="14" xr3:uid="{3E44D551-1567-4BFD-B6E3-A709F57C18B3}" name="MapType"/>
     <tableColumn id="3" xr3:uid="{8686583F-208A-42DF-AEE9-B41C519102D0}" name="SizeX"/>
     <tableColumn id="4" xr3:uid="{10B34334-DFA2-4EF4-B360-1FB80B249E4F}" name="SizeY"/>
@@ -964,29 +969,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="17" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -994,114 +999,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>99</v>
       </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
       <c r="E2" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
       <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
         <v>1001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -1110,96 +1115,97 @@
         <v>100</v>
       </c>
       <c r="G3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2">
         <v>1001</v>
       </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
       <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
         <v>1005</v>
       </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
       <c r="K3" s="2">
-        <v>1006</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
       <c r="E4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H4">
+        <v>1006</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2"/>
+      <c r="D5">
         <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -1208,139 +1214,144 @@
         <v>100</v>
       </c>
       <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
         <v>1001</v>
       </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
       <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
         <v>1001</v>
       </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
       <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
         <v>1005</v>
       </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
+      <c r="M5" s="2">
+        <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>60</v>
       </c>
-      <c r="E6" s="2">
-        <v>30</v>
-      </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
+        <v>1006</v>
+      </c>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2"/>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>60</v>
       </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1348,55 +1359,58 @@
         <v>19</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
       <c r="E8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
         <v>1002</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1003</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1005</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1404,53 +1418,56 @@
         <v>20</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
       <c r="E9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
         <v>1003</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1004</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1005</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1461,50 +1478,53 @@
         <v>3</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
       <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
         <v>60</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1004</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1005</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1512,53 +1532,56 @@
         <v>22</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>65</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
       <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
         <v>65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1004</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1008</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -1566,53 +1589,56 @@
         <v>23</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>60</v>
       </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
       <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
         <v>60</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1004</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1008</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -1620,53 +1646,56 @@
         <v>24</v>
       </c>
       <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>80</v>
       </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
       <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
         <v>80</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1004</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1008</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -1674,2049 +1703,2052 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>90</v>
       </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
       <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
         <v>90</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1004</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>1006</v>
-      </c>
       <c r="L14">
+        <v>1006</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3001</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
       <c r="D15">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3002</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
       <c r="D16">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3003</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
       <c r="D17">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3004</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
       <c r="D18">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3005</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
       <c r="D19">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3006</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
       <c r="D20">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3007</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
       <c r="D21">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="M21" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3008</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
       <c r="D22">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="M22" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3009</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
       <c r="D23">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3010</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
       <c r="D24">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>3011</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
       <c r="D25">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>3012</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
       <c r="D26">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>3013</v>
       </c>
       <c r="B27">
         <v>13</v>
       </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
       <c r="D27">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3014</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
       <c r="D28">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="M28" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3015</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
       <c r="D29">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="M29" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T29" s="1"/>
+      <c r="U29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3016</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
       <c r="D30">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="M30" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T30" s="1"/>
+      <c r="U30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3017</v>
       </c>
       <c r="B31">
         <v>17</v>
       </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
       <c r="D31">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="M31" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3018</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
       <c r="D32">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="M32" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3019</v>
       </c>
       <c r="B33">
         <v>19</v>
       </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
       <c r="D33">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="M33" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3020</v>
       </c>
       <c r="B34">
         <v>20</v>
       </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
       <c r="D34">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3021</v>
       </c>
       <c r="B35">
         <v>21</v>
       </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
       <c r="D35">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G35">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3022</v>
       </c>
       <c r="B36">
         <v>22</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
       <c r="D36">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="M36" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3023</v>
       </c>
       <c r="B37">
         <v>23</v>
       </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
       <c r="D37">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="M37" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3024</v>
       </c>
       <c r="B38">
         <v>24</v>
       </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
       <c r="D38">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="M38" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3025</v>
       </c>
       <c r="B39">
         <v>25</v>
       </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
       <c r="D39">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3026</v>
       </c>
       <c r="B40">
         <v>26</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
       <c r="D40">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="M40" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T40" s="1"/>
+      <c r="U40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3027</v>
       </c>
       <c r="B41">
         <v>27</v>
       </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
       <c r="D41">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="M41" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3028</v>
       </c>
       <c r="B42">
         <v>28</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
       <c r="D42">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="M42" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3029</v>
       </c>
       <c r="B43">
         <v>29</v>
       </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
       <c r="D43">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="M43" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3030</v>
       </c>
       <c r="B44">
         <v>30</v>
       </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
       <c r="D44">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3031</v>
       </c>
       <c r="B45">
         <v>31</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
       <c r="D45">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G45">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="M45" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T45" s="1"/>
+      <c r="U45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3032</v>
       </c>
       <c r="B46">
         <v>32</v>
       </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
       <c r="D46">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="M46" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3033</v>
       </c>
       <c r="B47">
         <v>33</v>
       </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
       <c r="D47">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="M47" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3034</v>
       </c>
       <c r="B48">
         <v>34</v>
       </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
       <c r="D48">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="M48" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3035</v>
       </c>
       <c r="B49">
         <v>35</v>
       </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
       <c r="D49">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="M49" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T49" s="1"/>
+      <c r="U49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3036</v>
       </c>
       <c r="B50">
         <v>36</v>
       </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
       <c r="D50">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G50">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="M50" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3037</v>
       </c>
       <c r="B51">
         <v>37</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
       <c r="D51">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="M51" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3038</v>
       </c>
       <c r="B52">
         <v>38</v>
       </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
       <c r="D52">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="M52" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3039</v>
       </c>
       <c r="B53">
         <v>39</v>
       </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
       <c r="D53">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T53" s="1"/>
+      <c r="U53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3040</v>
       </c>
       <c r="B54">
         <v>40</v>
       </c>
-      <c r="C54">
-        <v>6</v>
-      </c>
       <c r="D54">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="M54" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T54" s="1"/>
+      <c r="U54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3041</v>
       </c>
       <c r="B55">
         <v>41</v>
       </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
       <c r="D55">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="M55" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T55" s="1"/>
+      <c r="U55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3042</v>
       </c>
       <c r="B56">
         <v>42</v>
       </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
       <c r="D56">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="M56" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T56" s="1"/>
+      <c r="U56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3043</v>
       </c>
       <c r="B57">
         <v>43</v>
       </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
       <c r="D57">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="M57" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3044</v>
       </c>
       <c r="B58">
         <v>44</v>
       </c>
-      <c r="C58">
-        <v>6</v>
-      </c>
       <c r="D58">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="M58" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3045</v>
       </c>
       <c r="B59">
         <v>45</v>
       </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
       <c r="D59">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G59">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="M59" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3046</v>
       </c>
       <c r="B60">
         <v>46</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
       <c r="D60">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="M60" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3047</v>
       </c>
       <c r="B61">
         <v>47</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
       <c r="D61">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G61">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="M61" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3048</v>
       </c>
       <c r="B62">
         <v>48</v>
       </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
       <c r="D62">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="M62" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T62" s="1"/>
+      <c r="U62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3049</v>
       </c>
       <c r="B63">
         <v>49</v>
       </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
       <c r="D63">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="M63" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T63" s="1"/>
+      <c r="U63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3050</v>
       </c>
       <c r="B64">
         <v>50</v>
       </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
       <c r="D64">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="M64" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T64" s="1"/>
+      <c r="U64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3051</v>
       </c>
       <c r="B65">
         <v>51</v>
       </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
       <c r="D65">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G65">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="M65" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T65" s="1"/>
+      <c r="U65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3052</v>
       </c>
       <c r="B66">
         <v>52</v>
       </c>
-      <c r="C66">
-        <v>6</v>
-      </c>
       <c r="D66">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G66">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="M66" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T66" s="1"/>
+      <c r="U66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3053</v>
       </c>
       <c r="B67">
         <v>53</v>
       </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
       <c r="D67">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G67">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H67">
-        <v>5</v>
-      </c>
-      <c r="M67" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T67" s="1"/>
+      <c r="U67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3054</v>
       </c>
       <c r="B68">
         <v>54</v>
       </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
       <c r="D68">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>1006</v>
+        <v>50</v>
       </c>
       <c r="H68">
-        <v>5</v>
-      </c>
-      <c r="M68" s="1"/>
+        <v>1006</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T68" s="1"/>
+      <c r="U68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5000</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69">
-        <v>50</v>
-      </c>
       <c r="E69">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G69">
+        <v>50</v>
+      </c>
+      <c r="H69">
         <v>1004</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>3</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1001</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>3</v>
       </c>
-      <c r="K69">
-        <v>1006</v>
-      </c>
       <c r="L69">
+        <v>1006</v>
+      </c>
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1" t="s">
+      <c r="N69" s="1"/>
+      <c r="O69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T69" s="1"/>
+      <c r="U69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3730,9 +3762,10 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="M73" s="1"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="N73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96E72C-9679-4BC3-80E6-8D86E527CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27AD4C-11B3-4ABB-BDCB-D3B2B742E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -151,9 +149,6 @@
   </si>
   <si>
     <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
   </si>
   <si>
     <t>1006</t>
@@ -467,11 +462,461 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5,5,5,5,5,5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>11F</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>14F</t>
+  </si>
+  <si>
+    <t>15F</t>
+  </si>
+  <si>
+    <t>16F</t>
+  </si>
+  <si>
+    <t>17F</t>
+  </si>
+  <si>
+    <t>18F</t>
+  </si>
+  <si>
+    <t>19F</t>
+  </si>
+  <si>
+    <t>20F</t>
+  </si>
+  <si>
+    <t>21F</t>
+  </si>
+  <si>
+    <t>22F</t>
+  </si>
+  <si>
+    <t>23F</t>
+  </si>
+  <si>
+    <t>24F</t>
+  </si>
+  <si>
+    <t>25F</t>
+  </si>
+  <si>
+    <t>26F</t>
+  </si>
+  <si>
+    <t>27F</t>
+  </si>
+  <si>
+    <t>28F</t>
+  </si>
+  <si>
+    <t>29F</t>
+  </si>
+  <si>
+    <t>30F</t>
+  </si>
+  <si>
+    <t>31F</t>
+  </si>
+  <si>
+    <t>32F</t>
+  </si>
+  <si>
+    <t>33F</t>
+  </si>
+  <si>
+    <t>34F</t>
+  </si>
+  <si>
+    <t>35F</t>
+  </si>
+  <si>
+    <t>36F</t>
+  </si>
+  <si>
+    <t>37F</t>
+  </si>
+  <si>
+    <t>38F</t>
+  </si>
+  <si>
+    <t>39F</t>
+  </si>
+  <si>
+    <t>40F</t>
+  </si>
+  <si>
+    <t>41F</t>
+  </si>
+  <si>
+    <t>42F</t>
+  </si>
+  <si>
+    <t>43F</t>
+  </si>
+  <si>
+    <t>44F</t>
+  </si>
+  <si>
+    <t>45F</t>
+  </si>
+  <si>
+    <t>46F</t>
+  </si>
+  <si>
+    <t>47F</t>
+  </si>
+  <si>
+    <t>48F</t>
+  </si>
+  <si>
+    <t>49F</t>
+  </si>
+  <si>
+    <t>50F</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>2,2,2,200,200,200,200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,3,201,201,201,201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,5,5,203,203,203,10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,100,100,209,209,209,209,309</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>218,218,218,312</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>414,414,414,315</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512,512,512,512,512</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20,119,218,317,416,515</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23,23,23,23,23,23,23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25,25,25,223,223,223,223</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27,27,27,225,225,225,225</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29,29,29,231,231,231,33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33,33,33,33,33,33,33,33,33,33,33,33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>133,133,133,233,233,233,233,333</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>233,233,233,333</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>429,429,429,329</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>630,630,630,630,630</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40,40,40,40,40,40,40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139,139,139,139,139,139,139</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>238,238,238,238,238,238,238</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>337,337,337,337,337,337,337</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>436,436,436,436,436,436,436</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>535,535,535,535,535,535,535</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>41,140,239,338,437,536</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42,42,42,240,240,240,240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>537,537,537,537,537,537,537,537</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50,50,50,50,50,50,50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>149,149,149,149,149,149,149</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>248,248,248,248,248,248,248</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>347,347,347,347,347,347,347</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>446,446,446,446,446,446,446</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>545,545,545,545,545,545,545</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51,150,249,348,447,546</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52,52,52,250,250,250,250</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>547,547,547,547,547,547,547,547</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70,70,70,70,70,70,70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>169,169,169,169,169,169,169</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>268,268,268,268,268,268,268</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>367,367,367,367,367,367,367</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>466,466,466,466,466,466,466</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>565,565,565,565,565,565,565</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>71,170,269,368,467,566</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>72,72,72,270,270,270,270</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>567,567,567,567,567,567,567,567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,7 +950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +961,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -570,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +1041,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,8 +1097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U69" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U69" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U112" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U112" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -969,29 +1423,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.75" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -999,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1014,22 +1468,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
@@ -1044,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -1056,12 +1510,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
         <v>99</v>
@@ -1086,19 +1540,19 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1137,11 +1591,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
@@ -1154,12 +1608,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1183,7 +1637,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1196,12 +1650,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
@@ -1238,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1253,12 +1707,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
@@ -1285,29 +1739,29 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -1334,24 +1788,24 @@
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1410,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1454,20 +1908,22 @@
         <v>6</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1511,20 +1967,22 @@
         <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1568,20 +2026,22 @@
         <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -1625,20 +2085,22 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -1682,20 +2144,22 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -1739,28 +2203,33 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3001</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>1007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1772,31 +2241,54 @@
         <v>50</v>
       </c>
       <c r="H15">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1003</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1005</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3002</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+        <v>1008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1808,211 +2300,349 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1004</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1005</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3003</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+        <v>1009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>30</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1001</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1005</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3004</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
+        <v>1010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>30</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1001</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1008</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3005</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
+        <v>1011</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>30</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>1001</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1008</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>3006</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
+        <v>1012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>30</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H20">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1001</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1008</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3007</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
+        <v>1013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21">
+        <v>1004</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1001</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
         <v>1006</v>
       </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>3008</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
+        <v>1014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -2024,31 +2654,54 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>1003</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1005</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3009</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
+        <v>1015</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -2060,211 +2713,349 @@
         <v>50</v>
       </c>
       <c r="H23">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>1004</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1005</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3010</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
+        <v>1016</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>30</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1001</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1005</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3011</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
+        <v>1017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H25">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>1001</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1008</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3012</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
+        <v>1018</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1001</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1008</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3013</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
+        <v>1019</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H27">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>1001</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1008</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3014</v>
-      </c>
-      <c r="B28">
-        <v>14</v>
+        <v>1020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H28">
+        <v>1004</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1001</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
         <v>1006</v>
       </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3015</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
+        <v>1021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -2276,31 +3067,54 @@
         <v>50</v>
       </c>
       <c r="H29">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1003</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1005</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3016</v>
-      </c>
-      <c r="B30">
-        <v>16</v>
+        <v>1022</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -2312,211 +3126,349 @@
         <v>50</v>
       </c>
       <c r="H30">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1004</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1005</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3017</v>
-      </c>
-      <c r="B31">
-        <v>17</v>
+        <v>1023</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H31">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1001</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1005</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3018</v>
-      </c>
-      <c r="B32">
-        <v>18</v>
+        <v>1024</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>30</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H32">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1001</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1008</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3019</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
+        <v>1025</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <v>30</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>1001</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1008</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3020</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
+        <v>1026</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>30</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H34">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>1001</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1008</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3021</v>
-      </c>
-      <c r="B35">
-        <v>21</v>
+        <v>1027</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H35">
+        <v>1004</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>1001</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
         <v>1006</v>
       </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>3022</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
+        <v>1028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2528,31 +3480,54 @@
         <v>50</v>
       </c>
       <c r="H36">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>1003</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1005</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>3023</v>
-      </c>
-      <c r="B37">
-        <v>23</v>
+        <v>1029</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -2564,211 +3539,349 @@
         <v>50</v>
       </c>
       <c r="H37">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1004</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1005</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3024</v>
-      </c>
-      <c r="B38">
-        <v>24</v>
+        <v>1030</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>30</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H38">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1001</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>1005</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3025</v>
-      </c>
-      <c r="B39">
-        <v>25</v>
+        <v>1031</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>30</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H39">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1001</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>1008</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>3026</v>
-      </c>
-      <c r="B40">
-        <v>26</v>
+        <v>1032</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>30</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H40">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I40">
-        <v>5</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>1001</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>1008</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>3027</v>
-      </c>
-      <c r="B41">
-        <v>27</v>
+        <v>1033</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F41">
         <v>30</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H41">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>1001</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>1008</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3028</v>
-      </c>
-      <c r="B42">
-        <v>28</v>
+        <v>1034</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H42">
+        <v>1004</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>1001</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
         <v>1006</v>
       </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="R42" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3029</v>
-      </c>
-      <c r="B43">
-        <v>29</v>
+        <v>1035</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43">
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>50</v>
@@ -2780,31 +3893,54 @@
         <v>50</v>
       </c>
       <c r="H43">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>1003</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>1005</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3030</v>
-      </c>
-      <c r="B44">
-        <v>30</v>
+        <v>1036</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44">
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>50</v>
@@ -2816,211 +3952,349 @@
         <v>50</v>
       </c>
       <c r="H44">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>1004</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>1005</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>3031</v>
-      </c>
-      <c r="B45">
+        <v>1037</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <v>1004</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>1001</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>1005</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>30</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45">
-        <v>1006</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3032</v>
-      </c>
-      <c r="B46">
+        <v>1038</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>65</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+      <c r="H46">
+        <v>1004</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1001</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>1008</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>30</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46">
-        <v>1006</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3033</v>
-      </c>
-      <c r="B47">
+        <v>1039</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>1004</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>1001</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>1008</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>50</v>
-      </c>
-      <c r="F47">
-        <v>30</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47">
-        <v>1006</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="R47" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3034</v>
-      </c>
-      <c r="B48">
+        <v>1040</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="H48">
+        <v>1004</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>1001</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>1008</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>50</v>
-      </c>
-      <c r="F48">
-        <v>30</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48">
-        <v>1006</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>3035</v>
-      </c>
-      <c r="B49">
+        <v>1041</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49">
+        <v>1004</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>1001</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>1006</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>50</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-      <c r="G49">
-        <v>50</v>
-      </c>
-      <c r="H49">
-        <v>1006</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3036</v>
-      </c>
-      <c r="B50">
-        <v>36</v>
+        <v>1042</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50">
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -3032,31 +4306,54 @@
         <v>50</v>
       </c>
       <c r="H50">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>1003</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>1005</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>3037</v>
-      </c>
-      <c r="B51">
-        <v>37</v>
+        <v>1043</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51">
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -3068,244 +4365,402 @@
         <v>50</v>
       </c>
       <c r="H51">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>1004</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>1005</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>3038</v>
-      </c>
-      <c r="B52">
-        <v>38</v>
+        <v>1044</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>30</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H52">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I52">
-        <v>5</v>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>1001</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>1005</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="R52" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3039</v>
-      </c>
-      <c r="B53">
-        <v>39</v>
+        <v>1045</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F53">
         <v>30</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H53">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>1001</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>1008</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>1046</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>3040</v>
-      </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
       <c r="D54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>30</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>1001</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>1008</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3041</v>
-      </c>
-      <c r="B55">
-        <v>41</v>
+        <v>1047</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55">
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F55">
         <v>30</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H55">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I55">
-        <v>5</v>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>1001</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>1008</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3042</v>
-      </c>
-      <c r="B56">
-        <v>42</v>
+        <v>1048</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F56">
         <v>30</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H56">
+        <v>1004</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>1001</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
         <v>1006</v>
       </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="R56" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3043</v>
-      </c>
-      <c r="B57">
-        <v>43</v>
+        <v>1049</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F57">
         <v>30</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H57">
+        <v>1004</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>1001</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
         <v>1006</v>
       </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="R57" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3044</v>
+        <v>3001</v>
       </c>
       <c r="B58">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -3333,15 +4788,15 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3045</v>
+        <v>3002</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -3369,15 +4824,15 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>3046</v>
+        <v>3003</v>
       </c>
       <c r="B60">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -3405,15 +4860,15 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>3047</v>
+        <v>3004</v>
       </c>
       <c r="B61">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -3441,15 +4896,15 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>3048</v>
+        <v>3005</v>
       </c>
       <c r="B62">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -3477,15 +4932,15 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>3049</v>
+        <v>3006</v>
       </c>
       <c r="B63">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -3513,15 +4968,15 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>3050</v>
+        <v>3007</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -3549,15 +5004,15 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>3051</v>
+        <v>3008</v>
       </c>
       <c r="B65">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -3585,15 +5040,15 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3052</v>
+        <v>3009</v>
       </c>
       <c r="B66">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -3621,15 +5076,15 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3053</v>
+        <v>3010</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -3657,15 +5112,15 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3054</v>
+        <v>3011</v>
       </c>
       <c r="B68">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -3693,18 +5148,18 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>5000</v>
-      </c>
-      <c r="B69" t="s">
-        <v>46</v>
+        <v>3012</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>50</v>
@@ -3716,56 +5171,1604 @@
         <v>50</v>
       </c>
       <c r="H69">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69">
-        <v>1001</v>
-      </c>
-      <c r="K69">
-        <v>3</v>
-      </c>
-      <c r="L69">
-        <v>1006</v>
-      </c>
-      <c r="M69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N69" s="1"/>
-      <c r="O69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>3013</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>50</v>
+      </c>
+      <c r="H70">
+        <v>1006</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>3014</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>50</v>
+      </c>
+      <c r="H71">
+        <v>1006</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>3015</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>50</v>
+      </c>
+      <c r="H72">
+        <v>1006</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>3016</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>50</v>
+      </c>
+      <c r="H73">
+        <v>1006</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>3017</v>
+      </c>
+      <c r="B74">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>50</v>
+      </c>
+      <c r="H74">
+        <v>1006</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3018</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="H75">
+        <v>1006</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>3019</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>50</v>
+      </c>
+      <c r="H76">
+        <v>1006</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>3020</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77">
+        <v>50</v>
+      </c>
+      <c r="H77">
+        <v>1006</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>3021</v>
+      </c>
+      <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <v>1006</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>3022</v>
+      </c>
+      <c r="B79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <v>1006</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>3023</v>
+      </c>
+      <c r="B80">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>1006</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>3024</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="H81">
+        <v>1006</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>3025</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82">
+        <v>50</v>
+      </c>
+      <c r="H82">
+        <v>1006</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>3026</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>30</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <v>1006</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>3027</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1006</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>3028</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>50</v>
+      </c>
+      <c r="H85">
+        <v>1006</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>3029</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+      <c r="H86">
+        <v>1006</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>3030</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+      <c r="H87">
+        <v>1006</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>3031</v>
+      </c>
+      <c r="B88">
+        <v>31</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>1006</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>3032</v>
+      </c>
+      <c r="B89">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>1006</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>3033</v>
+      </c>
+      <c r="B90">
+        <v>33</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+      <c r="F90">
+        <v>30</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>1006</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>3034</v>
+      </c>
+      <c r="B91">
+        <v>34</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>1006</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>3035</v>
+      </c>
+      <c r="B92">
+        <v>35</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>1006</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>3036</v>
+      </c>
+      <c r="B93">
+        <v>36</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
+      </c>
+      <c r="F93">
+        <v>30</v>
+      </c>
+      <c r="G93">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>1006</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>3037</v>
+      </c>
+      <c r="B94">
+        <v>37</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>1006</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>3038</v>
+      </c>
+      <c r="B95">
+        <v>38</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>1006</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>3039</v>
+      </c>
+      <c r="B96">
+        <v>39</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="G96">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>1006</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>3040</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F97">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>1006</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>3041</v>
+      </c>
+      <c r="B98">
+        <v>41</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <v>1006</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>3042</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>50</v>
+      </c>
+      <c r="H99">
+        <v>1006</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>3043</v>
+      </c>
+      <c r="B100">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+      <c r="H100">
+        <v>1006</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>3044</v>
+      </c>
+      <c r="B101">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>1006</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>3045</v>
+      </c>
+      <c r="B102">
+        <v>45</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+      <c r="F102">
+        <v>30</v>
+      </c>
+      <c r="G102">
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <v>1006</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>3046</v>
+      </c>
+      <c r="B103">
+        <v>46</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>50</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103">
+        <v>50</v>
+      </c>
+      <c r="H103">
+        <v>1006</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>3047</v>
+      </c>
+      <c r="B104">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="N73" s="1"/>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <v>1006</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>3048</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>50</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>1006</v>
+      </c>
+      <c r="I105">
+        <v>5</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>3049</v>
+      </c>
+      <c r="B106">
+        <v>49</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+      <c r="F106">
+        <v>30</v>
+      </c>
+      <c r="G106">
+        <v>50</v>
+      </c>
+      <c r="H106">
+        <v>1006</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>3050</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>50</v>
+      </c>
+      <c r="H107">
+        <v>1006</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>3051</v>
+      </c>
+      <c r="B108">
+        <v>51</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>50</v>
+      </c>
+      <c r="H108">
+        <v>1006</v>
+      </c>
+      <c r="I108">
+        <v>5</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>3052</v>
+      </c>
+      <c r="B109">
+        <v>52</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>50</v>
+      </c>
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <v>1006</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>3053</v>
+      </c>
+      <c r="B110">
+        <v>53</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
+      </c>
+      <c r="F110">
+        <v>30</v>
+      </c>
+      <c r="G110">
+        <v>50</v>
+      </c>
+      <c r="H110">
+        <v>1006</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>3054</v>
+      </c>
+      <c r="B111">
+        <v>54</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>50</v>
+      </c>
+      <c r="F111">
+        <v>30</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111">
+        <v>1006</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>5000</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>50</v>
+      </c>
+      <c r="F112">
+        <v>30</v>
+      </c>
+      <c r="G112">
+        <v>50</v>
+      </c>
+      <c r="H112">
+        <v>1004</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>1001</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>1006</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3785,124 +6788,124 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3920,57 +6923,57 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27AD4C-11B3-4ABB-BDCB-D3B2B742E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31E49F-19B4-48C0-87C1-027BD28232D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5,6,7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Floor</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,6 +913,10 @@
   </si>
   <si>
     <t>100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>323,323</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,23 +1429,23 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>66</v>
@@ -1510,7 +1510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>44</v>
@@ -1552,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1923,7 +1923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1982,7 +1982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2041,7 +2041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -2088,11 +2088,11 @@
         <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2100,7 +2100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -2206,11 +2206,11 @@
         <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2218,12 +2218,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1007</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -2265,11 +2265,11 @@
         <v>26</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2277,12 +2277,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1008</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -2324,11 +2324,11 @@
         <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2336,12 +2336,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1009</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2383,11 +2383,11 @@
         <v>31</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2395,12 +2395,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1010</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -2442,11 +2442,11 @@
         <v>32</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2454,12 +2454,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1011</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -2501,11 +2501,11 @@
         <v>33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2513,12 +2513,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -2560,11 +2560,11 @@
         <v>34</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2572,12 +2572,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1013</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -2619,11 +2619,11 @@
         <v>35</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2631,12 +2631,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1014</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -2678,11 +2678,11 @@
         <v>26</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2690,12 +2690,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1015</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2737,11 +2737,11 @@
         <v>30</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2749,12 +2749,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1016</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -2796,11 +2796,11 @@
         <v>31</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2808,12 +2808,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1017</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -2855,11 +2855,11 @@
         <v>32</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2867,12 +2867,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1018</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>19</v>
@@ -2914,11 +2914,11 @@
         <v>33</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2926,12 +2926,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1019</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -2973,11 +2973,11 @@
         <v>34</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2985,12 +2985,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1020</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>21</v>
@@ -3032,11 +3032,11 @@
         <v>35</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3044,12 +3044,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1021</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29">
         <v>22</v>
@@ -3091,11 +3091,11 @@
         <v>26</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3103,12 +3103,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1022</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -3150,11 +3150,11 @@
         <v>30</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3162,12 +3162,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1023</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <v>24</v>
@@ -3209,11 +3209,11 @@
         <v>31</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3221,12 +3221,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1024</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -3268,11 +3268,11 @@
         <v>32</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3280,12 +3280,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1025</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>26</v>
@@ -3327,11 +3327,11 @@
         <v>33</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3339,12 +3339,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1026</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34">
         <v>27</v>
@@ -3386,11 +3386,11 @@
         <v>34</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3398,12 +3398,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1027</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -3445,11 +3445,11 @@
         <v>35</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3457,12 +3457,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1028</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36">
         <v>29</v>
@@ -3504,11 +3504,11 @@
         <v>26</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3516,12 +3516,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1029</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -3563,11 +3563,11 @@
         <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3575,12 +3575,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1030</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -3622,11 +3622,11 @@
         <v>31</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3634,12 +3634,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1031</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -3681,11 +3681,11 @@
         <v>32</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3693,12 +3693,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1032</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -3740,11 +3740,11 @@
         <v>33</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3752,12 +3752,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1033</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -3799,11 +3799,11 @@
         <v>34</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3811,12 +3811,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1034</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -3858,11 +3858,11 @@
         <v>35</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3870,12 +3870,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1035</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
         <v>36</v>
@@ -3917,11 +3917,11 @@
         <v>26</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3929,12 +3929,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1036</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44">
         <v>37</v>
@@ -3976,11 +3976,11 @@
         <v>30</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3988,12 +3988,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1037</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45">
         <v>38</v>
@@ -4035,11 +4035,11 @@
         <v>31</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4047,12 +4047,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1038</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>39</v>
@@ -4094,11 +4094,11 @@
         <v>32</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4106,12 +4106,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47">
         <v>40</v>
@@ -4153,11 +4153,11 @@
         <v>33</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4165,12 +4165,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1040</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>41</v>
@@ -4212,11 +4212,11 @@
         <v>34</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4224,12 +4224,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1041</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49">
         <v>42</v>
@@ -4271,11 +4271,11 @@
         <v>35</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4283,12 +4283,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1042</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -4330,11 +4330,11 @@
         <v>26</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4342,12 +4342,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1043</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51">
         <v>44</v>
@@ -4389,11 +4389,11 @@
         <v>30</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4401,12 +4401,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1044</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -4448,11 +4448,11 @@
         <v>31</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4460,12 +4460,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1045</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53">
         <v>46</v>
@@ -4507,11 +4507,11 @@
         <v>32</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4519,12 +4519,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1046</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54">
         <v>47</v>
@@ -4566,11 +4566,11 @@
         <v>33</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4578,12 +4578,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1047</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55">
         <v>48</v>
@@ -4625,11 +4625,11 @@
         <v>34</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4637,12 +4637,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1048</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56">
         <v>49</v>
@@ -4684,11 +4684,11 @@
         <v>35</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4696,12 +4696,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1049</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4755,7 +4755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3001</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3002</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3003</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3004</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3005</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3006</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3007</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3008</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3009</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3010</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3011</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3012</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3013</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3014</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3015</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3016</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3017</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3018</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3019</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3020</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3021</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3022</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3023</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3024</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3025</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3026</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3027</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3028</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3029</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3030</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3031</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3032</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3033</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3034</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3035</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3036</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>3037</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>3038</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3039</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>3040</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>3041</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>3042</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>3043</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>3044</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>3045</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>3046</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>3047</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>3048</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>3049</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>3050</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>3051</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>3052</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>3053</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>3054</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>5000</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6767,7 +6767,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N116" s="1"/>
     </row>
   </sheetData>
@@ -6788,122 +6788,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -6923,12 +6923,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31E49F-19B4-48C0-87C1-027BD28232D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B0A41-63F0-4075-8591-258917747D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -1426,10 +1426,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1722,7 +1722,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>50</v>
@@ -1771,7 +1771,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>50</v>
@@ -1821,8 +1821,8 @@
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>30</v>
+      <c r="F8" s="2">
+        <v>50</v>
       </c>
       <c r="G8">
         <v>50</v>
@@ -1880,8 +1880,8 @@
       <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>30</v>
+      <c r="F9" s="2">
+        <v>50</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1939,8 +1939,8 @@
       <c r="E10">
         <v>60</v>
       </c>
-      <c r="F10">
-        <v>30</v>
+      <c r="F10" s="2">
+        <v>50</v>
       </c>
       <c r="G10">
         <v>60</v>
@@ -1998,8 +1998,8 @@
       <c r="E11">
         <v>65</v>
       </c>
-      <c r="F11">
-        <v>30</v>
+      <c r="F11" s="2">
+        <v>50</v>
       </c>
       <c r="G11">
         <v>65</v>
@@ -2057,8 +2057,8 @@
       <c r="E12">
         <v>60</v>
       </c>
-      <c r="F12">
-        <v>30</v>
+      <c r="F12" s="2">
+        <v>50</v>
       </c>
       <c r="G12">
         <v>60</v>
@@ -2116,8 +2116,8 @@
       <c r="E13">
         <v>80</v>
       </c>
-      <c r="F13">
-        <v>30</v>
+      <c r="F13" s="2">
+        <v>50</v>
       </c>
       <c r="G13">
         <v>80</v>
@@ -2175,8 +2175,8 @@
       <c r="E14">
         <v>90</v>
       </c>
-      <c r="F14">
-        <v>30</v>
+      <c r="F14" s="2">
+        <v>50</v>
       </c>
       <c r="G14">
         <v>90</v>
@@ -2234,8 +2234,8 @@
       <c r="E15">
         <v>50</v>
       </c>
-      <c r="F15">
-        <v>30</v>
+      <c r="F15" s="2">
+        <v>50</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -2293,8 +2293,8 @@
       <c r="E16">
         <v>50</v>
       </c>
-      <c r="F16">
-        <v>30</v>
+      <c r="F16" s="2">
+        <v>50</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -2352,8 +2352,8 @@
       <c r="E17">
         <v>60</v>
       </c>
-      <c r="F17">
-        <v>30</v>
+      <c r="F17" s="2">
+        <v>50</v>
       </c>
       <c r="G17">
         <v>60</v>
@@ -2411,8 +2411,8 @@
       <c r="E18">
         <v>65</v>
       </c>
-      <c r="F18">
-        <v>30</v>
+      <c r="F18" s="2">
+        <v>50</v>
       </c>
       <c r="G18">
         <v>65</v>
@@ -2470,8 +2470,8 @@
       <c r="E19">
         <v>60</v>
       </c>
-      <c r="F19">
-        <v>30</v>
+      <c r="F19" s="2">
+        <v>50</v>
       </c>
       <c r="G19">
         <v>60</v>
@@ -2529,8 +2529,8 @@
       <c r="E20">
         <v>80</v>
       </c>
-      <c r="F20">
-        <v>30</v>
+      <c r="F20" s="2">
+        <v>50</v>
       </c>
       <c r="G20">
         <v>80</v>
@@ -2588,8 +2588,8 @@
       <c r="E21">
         <v>90</v>
       </c>
-      <c r="F21">
-        <v>30</v>
+      <c r="F21" s="2">
+        <v>50</v>
       </c>
       <c r="G21">
         <v>90</v>
@@ -2647,8 +2647,8 @@
       <c r="E22">
         <v>50</v>
       </c>
-      <c r="F22">
-        <v>30</v>
+      <c r="F22" s="2">
+        <v>50</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -2706,8 +2706,8 @@
       <c r="E23">
         <v>50</v>
       </c>
-      <c r="F23">
-        <v>30</v>
+      <c r="F23" s="2">
+        <v>50</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -2765,8 +2765,8 @@
       <c r="E24">
         <v>60</v>
       </c>
-      <c r="F24">
-        <v>30</v>
+      <c r="F24" s="2">
+        <v>50</v>
       </c>
       <c r="G24">
         <v>60</v>
@@ -2824,8 +2824,8 @@
       <c r="E25">
         <v>65</v>
       </c>
-      <c r="F25">
-        <v>30</v>
+      <c r="F25" s="2">
+        <v>50</v>
       </c>
       <c r="G25">
         <v>65</v>
@@ -2883,8 +2883,8 @@
       <c r="E26">
         <v>60</v>
       </c>
-      <c r="F26">
-        <v>30</v>
+      <c r="F26" s="2">
+        <v>50</v>
       </c>
       <c r="G26">
         <v>60</v>
@@ -2942,8 +2942,8 @@
       <c r="E27">
         <v>80</v>
       </c>
-      <c r="F27">
-        <v>30</v>
+      <c r="F27" s="2">
+        <v>50</v>
       </c>
       <c r="G27">
         <v>80</v>
@@ -3001,8 +3001,8 @@
       <c r="E28">
         <v>90</v>
       </c>
-      <c r="F28">
-        <v>30</v>
+      <c r="F28" s="2">
+        <v>50</v>
       </c>
       <c r="G28">
         <v>90</v>
@@ -3060,8 +3060,8 @@
       <c r="E29">
         <v>50</v>
       </c>
-      <c r="F29">
-        <v>30</v>
+      <c r="F29" s="2">
+        <v>50</v>
       </c>
       <c r="G29">
         <v>50</v>
@@ -3119,8 +3119,8 @@
       <c r="E30">
         <v>50</v>
       </c>
-      <c r="F30">
-        <v>30</v>
+      <c r="F30" s="2">
+        <v>50</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -3178,8 +3178,8 @@
       <c r="E31">
         <v>60</v>
       </c>
-      <c r="F31">
-        <v>30</v>
+      <c r="F31" s="2">
+        <v>50</v>
       </c>
       <c r="G31">
         <v>60</v>
@@ -3237,8 +3237,8 @@
       <c r="E32">
         <v>65</v>
       </c>
-      <c r="F32">
-        <v>30</v>
+      <c r="F32" s="2">
+        <v>50</v>
       </c>
       <c r="G32">
         <v>65</v>
@@ -3296,8 +3296,8 @@
       <c r="E33">
         <v>60</v>
       </c>
-      <c r="F33">
-        <v>30</v>
+      <c r="F33" s="2">
+        <v>50</v>
       </c>
       <c r="G33">
         <v>60</v>
@@ -3355,8 +3355,8 @@
       <c r="E34">
         <v>80</v>
       </c>
-      <c r="F34">
-        <v>30</v>
+      <c r="F34" s="2">
+        <v>50</v>
       </c>
       <c r="G34">
         <v>80</v>
@@ -3414,8 +3414,8 @@
       <c r="E35">
         <v>90</v>
       </c>
-      <c r="F35">
-        <v>30</v>
+      <c r="F35" s="2">
+        <v>50</v>
       </c>
       <c r="G35">
         <v>90</v>
@@ -3473,8 +3473,8 @@
       <c r="E36">
         <v>50</v>
       </c>
-      <c r="F36">
-        <v>30</v>
+      <c r="F36" s="2">
+        <v>50</v>
       </c>
       <c r="G36">
         <v>50</v>
@@ -3532,8 +3532,8 @@
       <c r="E37">
         <v>50</v>
       </c>
-      <c r="F37">
-        <v>30</v>
+      <c r="F37" s="2">
+        <v>50</v>
       </c>
       <c r="G37">
         <v>50</v>
@@ -3591,8 +3591,8 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="F38">
-        <v>30</v>
+      <c r="F38" s="2">
+        <v>50</v>
       </c>
       <c r="G38">
         <v>60</v>
@@ -3650,8 +3650,8 @@
       <c r="E39">
         <v>65</v>
       </c>
-      <c r="F39">
-        <v>30</v>
+      <c r="F39" s="2">
+        <v>50</v>
       </c>
       <c r="G39">
         <v>65</v>
@@ -3709,8 +3709,8 @@
       <c r="E40">
         <v>60</v>
       </c>
-      <c r="F40">
-        <v>30</v>
+      <c r="F40" s="2">
+        <v>50</v>
       </c>
       <c r="G40">
         <v>60</v>
@@ -3768,8 +3768,8 @@
       <c r="E41">
         <v>80</v>
       </c>
-      <c r="F41">
-        <v>30</v>
+      <c r="F41" s="2">
+        <v>50</v>
       </c>
       <c r="G41">
         <v>80</v>
@@ -3827,8 +3827,8 @@
       <c r="E42">
         <v>90</v>
       </c>
-      <c r="F42">
-        <v>30</v>
+      <c r="F42" s="2">
+        <v>50</v>
       </c>
       <c r="G42">
         <v>90</v>
@@ -3886,8 +3886,8 @@
       <c r="E43">
         <v>50</v>
       </c>
-      <c r="F43">
-        <v>30</v>
+      <c r="F43" s="2">
+        <v>50</v>
       </c>
       <c r="G43">
         <v>50</v>
@@ -3945,8 +3945,8 @@
       <c r="E44">
         <v>50</v>
       </c>
-      <c r="F44">
-        <v>30</v>
+      <c r="F44" s="2">
+        <v>50</v>
       </c>
       <c r="G44">
         <v>50</v>
@@ -4004,8 +4004,8 @@
       <c r="E45">
         <v>60</v>
       </c>
-      <c r="F45">
-        <v>30</v>
+      <c r="F45" s="2">
+        <v>50</v>
       </c>
       <c r="G45">
         <v>60</v>
@@ -4063,8 +4063,8 @@
       <c r="E46">
         <v>65</v>
       </c>
-      <c r="F46">
-        <v>30</v>
+      <c r="F46" s="2">
+        <v>50</v>
       </c>
       <c r="G46">
         <v>65</v>
@@ -4122,8 +4122,8 @@
       <c r="E47">
         <v>60</v>
       </c>
-      <c r="F47">
-        <v>30</v>
+      <c r="F47" s="2">
+        <v>50</v>
       </c>
       <c r="G47">
         <v>60</v>
@@ -4181,8 +4181,8 @@
       <c r="E48">
         <v>80</v>
       </c>
-      <c r="F48">
-        <v>30</v>
+      <c r="F48" s="2">
+        <v>50</v>
       </c>
       <c r="G48">
         <v>80</v>
@@ -4240,8 +4240,8 @@
       <c r="E49">
         <v>90</v>
       </c>
-      <c r="F49">
-        <v>30</v>
+      <c r="F49" s="2">
+        <v>50</v>
       </c>
       <c r="G49">
         <v>90</v>
@@ -4299,8 +4299,8 @@
       <c r="E50">
         <v>50</v>
       </c>
-      <c r="F50">
-        <v>30</v>
+      <c r="F50" s="2">
+        <v>50</v>
       </c>
       <c r="G50">
         <v>50</v>
@@ -4358,8 +4358,8 @@
       <c r="E51">
         <v>50</v>
       </c>
-      <c r="F51">
-        <v>30</v>
+      <c r="F51" s="2">
+        <v>50</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -4417,8 +4417,8 @@
       <c r="E52">
         <v>60</v>
       </c>
-      <c r="F52">
-        <v>30</v>
+      <c r="F52" s="2">
+        <v>50</v>
       </c>
       <c r="G52">
         <v>60</v>
@@ -4476,8 +4476,8 @@
       <c r="E53">
         <v>65</v>
       </c>
-      <c r="F53">
-        <v>30</v>
+      <c r="F53" s="2">
+        <v>50</v>
       </c>
       <c r="G53">
         <v>65</v>
@@ -4535,8 +4535,8 @@
       <c r="E54">
         <v>60</v>
       </c>
-      <c r="F54">
-        <v>30</v>
+      <c r="F54" s="2">
+        <v>50</v>
       </c>
       <c r="G54">
         <v>60</v>
@@ -4594,8 +4594,8 @@
       <c r="E55">
         <v>80</v>
       </c>
-      <c r="F55">
-        <v>30</v>
+      <c r="F55" s="2">
+        <v>50</v>
       </c>
       <c r="G55">
         <v>80</v>
@@ -4653,8 +4653,8 @@
       <c r="E56">
         <v>90</v>
       </c>
-      <c r="F56">
-        <v>30</v>
+      <c r="F56" s="2">
+        <v>50</v>
       </c>
       <c r="G56">
         <v>90</v>
@@ -4712,8 +4712,8 @@
       <c r="E57">
         <v>90</v>
       </c>
-      <c r="F57">
-        <v>30</v>
+      <c r="F57" s="2">
+        <v>50</v>
       </c>
       <c r="G57">
         <v>90</v>
@@ -4768,8 +4768,8 @@
       <c r="E58">
         <v>50</v>
       </c>
-      <c r="F58">
-        <v>30</v>
+      <c r="F58" s="2">
+        <v>50</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -4804,8 +4804,8 @@
       <c r="E59">
         <v>50</v>
       </c>
-      <c r="F59">
-        <v>30</v>
+      <c r="F59" s="2">
+        <v>50</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -4840,8 +4840,8 @@
       <c r="E60">
         <v>50</v>
       </c>
-      <c r="F60">
-        <v>30</v>
+      <c r="F60" s="2">
+        <v>50</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -4876,8 +4876,8 @@
       <c r="E61">
         <v>50</v>
       </c>
-      <c r="F61">
-        <v>30</v>
+      <c r="F61" s="2">
+        <v>50</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -4912,8 +4912,8 @@
       <c r="E62">
         <v>50</v>
       </c>
-      <c r="F62">
-        <v>30</v>
+      <c r="F62" s="2">
+        <v>50</v>
       </c>
       <c r="G62">
         <v>50</v>
@@ -4948,8 +4948,8 @@
       <c r="E63">
         <v>50</v>
       </c>
-      <c r="F63">
-        <v>30</v>
+      <c r="F63" s="2">
+        <v>50</v>
       </c>
       <c r="G63">
         <v>50</v>
@@ -4984,8 +4984,8 @@
       <c r="E64">
         <v>50</v>
       </c>
-      <c r="F64">
-        <v>30</v>
+      <c r="F64" s="2">
+        <v>50</v>
       </c>
       <c r="G64">
         <v>50</v>
@@ -5020,8 +5020,8 @@
       <c r="E65">
         <v>50</v>
       </c>
-      <c r="F65">
-        <v>30</v>
+      <c r="F65" s="2">
+        <v>50</v>
       </c>
       <c r="G65">
         <v>50</v>
@@ -5056,8 +5056,8 @@
       <c r="E66">
         <v>50</v>
       </c>
-      <c r="F66">
-        <v>30</v>
+      <c r="F66" s="2">
+        <v>50</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -5092,8 +5092,8 @@
       <c r="E67">
         <v>50</v>
       </c>
-      <c r="F67">
-        <v>30</v>
+      <c r="F67" s="2">
+        <v>50</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -5128,8 +5128,8 @@
       <c r="E68">
         <v>50</v>
       </c>
-      <c r="F68">
-        <v>30</v>
+      <c r="F68" s="2">
+        <v>50</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -5164,8 +5164,8 @@
       <c r="E69">
         <v>50</v>
       </c>
-      <c r="F69">
-        <v>30</v>
+      <c r="F69" s="2">
+        <v>50</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -5200,8 +5200,8 @@
       <c r="E70">
         <v>50</v>
       </c>
-      <c r="F70">
-        <v>30</v>
+      <c r="F70" s="2">
+        <v>50</v>
       </c>
       <c r="G70">
         <v>50</v>
@@ -5236,8 +5236,8 @@
       <c r="E71">
         <v>50</v>
       </c>
-      <c r="F71">
-        <v>30</v>
+      <c r="F71" s="2">
+        <v>50</v>
       </c>
       <c r="G71">
         <v>50</v>
@@ -5272,8 +5272,8 @@
       <c r="E72">
         <v>50</v>
       </c>
-      <c r="F72">
-        <v>30</v>
+      <c r="F72" s="2">
+        <v>50</v>
       </c>
       <c r="G72">
         <v>50</v>
@@ -5308,8 +5308,8 @@
       <c r="E73">
         <v>50</v>
       </c>
-      <c r="F73">
-        <v>30</v>
+      <c r="F73" s="2">
+        <v>50</v>
       </c>
       <c r="G73">
         <v>50</v>
@@ -5344,8 +5344,8 @@
       <c r="E74">
         <v>50</v>
       </c>
-      <c r="F74">
-        <v>30</v>
+      <c r="F74" s="2">
+        <v>50</v>
       </c>
       <c r="G74">
         <v>50</v>
@@ -5380,8 +5380,8 @@
       <c r="E75">
         <v>50</v>
       </c>
-      <c r="F75">
-        <v>30</v>
+      <c r="F75" s="2">
+        <v>50</v>
       </c>
       <c r="G75">
         <v>50</v>
@@ -5416,8 +5416,8 @@
       <c r="E76">
         <v>50</v>
       </c>
-      <c r="F76">
-        <v>30</v>
+      <c r="F76" s="2">
+        <v>50</v>
       </c>
       <c r="G76">
         <v>50</v>
@@ -5452,8 +5452,8 @@
       <c r="E77">
         <v>50</v>
       </c>
-      <c r="F77">
-        <v>30</v>
+      <c r="F77" s="2">
+        <v>50</v>
       </c>
       <c r="G77">
         <v>50</v>
@@ -5488,8 +5488,8 @@
       <c r="E78">
         <v>50</v>
       </c>
-      <c r="F78">
-        <v>30</v>
+      <c r="F78" s="2">
+        <v>50</v>
       </c>
       <c r="G78">
         <v>50</v>
@@ -5524,8 +5524,8 @@
       <c r="E79">
         <v>50</v>
       </c>
-      <c r="F79">
-        <v>30</v>
+      <c r="F79" s="2">
+        <v>50</v>
       </c>
       <c r="G79">
         <v>50</v>
@@ -5560,8 +5560,8 @@
       <c r="E80">
         <v>50</v>
       </c>
-      <c r="F80">
-        <v>30</v>
+      <c r="F80" s="2">
+        <v>50</v>
       </c>
       <c r="G80">
         <v>50</v>
@@ -5596,8 +5596,8 @@
       <c r="E81">
         <v>50</v>
       </c>
-      <c r="F81">
-        <v>30</v>
+      <c r="F81" s="2">
+        <v>50</v>
       </c>
       <c r="G81">
         <v>50</v>
@@ -5632,8 +5632,8 @@
       <c r="E82">
         <v>50</v>
       </c>
-      <c r="F82">
-        <v>30</v>
+      <c r="F82" s="2">
+        <v>50</v>
       </c>
       <c r="G82">
         <v>50</v>
@@ -5668,8 +5668,8 @@
       <c r="E83">
         <v>50</v>
       </c>
-      <c r="F83">
-        <v>30</v>
+      <c r="F83" s="2">
+        <v>50</v>
       </c>
       <c r="G83">
         <v>50</v>
@@ -5704,8 +5704,8 @@
       <c r="E84">
         <v>50</v>
       </c>
-      <c r="F84">
-        <v>30</v>
+      <c r="F84" s="2">
+        <v>50</v>
       </c>
       <c r="G84">
         <v>50</v>
@@ -5740,8 +5740,8 @@
       <c r="E85">
         <v>50</v>
       </c>
-      <c r="F85">
-        <v>30</v>
+      <c r="F85" s="2">
+        <v>50</v>
       </c>
       <c r="G85">
         <v>50</v>
@@ -5776,8 +5776,8 @@
       <c r="E86">
         <v>50</v>
       </c>
-      <c r="F86">
-        <v>30</v>
+      <c r="F86" s="2">
+        <v>50</v>
       </c>
       <c r="G86">
         <v>50</v>
@@ -5812,8 +5812,8 @@
       <c r="E87">
         <v>50</v>
       </c>
-      <c r="F87">
-        <v>30</v>
+      <c r="F87" s="2">
+        <v>50</v>
       </c>
       <c r="G87">
         <v>50</v>
@@ -5848,8 +5848,8 @@
       <c r="E88">
         <v>50</v>
       </c>
-      <c r="F88">
-        <v>30</v>
+      <c r="F88" s="2">
+        <v>50</v>
       </c>
       <c r="G88">
         <v>50</v>
@@ -5884,8 +5884,8 @@
       <c r="E89">
         <v>50</v>
       </c>
-      <c r="F89">
-        <v>30</v>
+      <c r="F89" s="2">
+        <v>50</v>
       </c>
       <c r="G89">
         <v>50</v>
@@ -5920,8 +5920,8 @@
       <c r="E90">
         <v>50</v>
       </c>
-      <c r="F90">
-        <v>30</v>
+      <c r="F90" s="2">
+        <v>50</v>
       </c>
       <c r="G90">
         <v>50</v>
@@ -5956,8 +5956,8 @@
       <c r="E91">
         <v>50</v>
       </c>
-      <c r="F91">
-        <v>30</v>
+      <c r="F91" s="2">
+        <v>50</v>
       </c>
       <c r="G91">
         <v>50</v>
@@ -5992,8 +5992,8 @@
       <c r="E92">
         <v>50</v>
       </c>
-      <c r="F92">
-        <v>30</v>
+      <c r="F92" s="2">
+        <v>50</v>
       </c>
       <c r="G92">
         <v>50</v>
@@ -6028,8 +6028,8 @@
       <c r="E93">
         <v>50</v>
       </c>
-      <c r="F93">
-        <v>30</v>
+      <c r="F93" s="2">
+        <v>50</v>
       </c>
       <c r="G93">
         <v>50</v>
@@ -6064,8 +6064,8 @@
       <c r="E94">
         <v>50</v>
       </c>
-      <c r="F94">
-        <v>30</v>
+      <c r="F94" s="2">
+        <v>50</v>
       </c>
       <c r="G94">
         <v>50</v>
@@ -6100,8 +6100,8 @@
       <c r="E95">
         <v>50</v>
       </c>
-      <c r="F95">
-        <v>30</v>
+      <c r="F95" s="2">
+        <v>50</v>
       </c>
       <c r="G95">
         <v>50</v>
@@ -6136,8 +6136,8 @@
       <c r="E96">
         <v>50</v>
       </c>
-      <c r="F96">
-        <v>30</v>
+      <c r="F96" s="2">
+        <v>50</v>
       </c>
       <c r="G96">
         <v>50</v>
@@ -6172,8 +6172,8 @@
       <c r="E97">
         <v>50</v>
       </c>
-      <c r="F97">
-        <v>30</v>
+      <c r="F97" s="2">
+        <v>50</v>
       </c>
       <c r="G97">
         <v>50</v>
@@ -6208,8 +6208,8 @@
       <c r="E98">
         <v>50</v>
       </c>
-      <c r="F98">
-        <v>30</v>
+      <c r="F98" s="2">
+        <v>50</v>
       </c>
       <c r="G98">
         <v>50</v>
@@ -6244,8 +6244,8 @@
       <c r="E99">
         <v>50</v>
       </c>
-      <c r="F99">
-        <v>30</v>
+      <c r="F99" s="2">
+        <v>50</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -6280,8 +6280,8 @@
       <c r="E100">
         <v>50</v>
       </c>
-      <c r="F100">
-        <v>30</v>
+      <c r="F100" s="2">
+        <v>50</v>
       </c>
       <c r="G100">
         <v>50</v>
@@ -6316,8 +6316,8 @@
       <c r="E101">
         <v>50</v>
       </c>
-      <c r="F101">
-        <v>30</v>
+      <c r="F101" s="2">
+        <v>50</v>
       </c>
       <c r="G101">
         <v>50</v>
@@ -6352,8 +6352,8 @@
       <c r="E102">
         <v>50</v>
       </c>
-      <c r="F102">
-        <v>30</v>
+      <c r="F102" s="2">
+        <v>50</v>
       </c>
       <c r="G102">
         <v>50</v>
@@ -6388,8 +6388,8 @@
       <c r="E103">
         <v>50</v>
       </c>
-      <c r="F103">
-        <v>30</v>
+      <c r="F103" s="2">
+        <v>50</v>
       </c>
       <c r="G103">
         <v>50</v>
@@ -6424,8 +6424,8 @@
       <c r="E104">
         <v>50</v>
       </c>
-      <c r="F104">
-        <v>30</v>
+      <c r="F104" s="2">
+        <v>50</v>
       </c>
       <c r="G104">
         <v>50</v>
@@ -6460,8 +6460,8 @@
       <c r="E105">
         <v>50</v>
       </c>
-      <c r="F105">
-        <v>30</v>
+      <c r="F105" s="2">
+        <v>50</v>
       </c>
       <c r="G105">
         <v>50</v>
@@ -6496,8 +6496,8 @@
       <c r="E106">
         <v>50</v>
       </c>
-      <c r="F106">
-        <v>30</v>
+      <c r="F106" s="2">
+        <v>50</v>
       </c>
       <c r="G106">
         <v>50</v>
@@ -6532,8 +6532,8 @@
       <c r="E107">
         <v>50</v>
       </c>
-      <c r="F107">
-        <v>30</v>
+      <c r="F107" s="2">
+        <v>50</v>
       </c>
       <c r="G107">
         <v>50</v>
@@ -6568,8 +6568,8 @@
       <c r="E108">
         <v>50</v>
       </c>
-      <c r="F108">
-        <v>30</v>
+      <c r="F108" s="2">
+        <v>50</v>
       </c>
       <c r="G108">
         <v>50</v>
@@ -6604,8 +6604,8 @@
       <c r="E109">
         <v>50</v>
       </c>
-      <c r="F109">
-        <v>30</v>
+      <c r="F109" s="2">
+        <v>50</v>
       </c>
       <c r="G109">
         <v>50</v>
@@ -6640,8 +6640,8 @@
       <c r="E110">
         <v>50</v>
       </c>
-      <c r="F110">
-        <v>30</v>
+      <c r="F110" s="2">
+        <v>50</v>
       </c>
       <c r="G110">
         <v>50</v>
@@ -6676,8 +6676,8 @@
       <c r="E111">
         <v>50</v>
       </c>
-      <c r="F111">
-        <v>30</v>
+      <c r="F111" s="2">
+        <v>50</v>
       </c>
       <c r="G111">
         <v>50</v>
@@ -6712,8 +6712,8 @@
       <c r="E112">
         <v>50</v>
       </c>
-      <c r="F112">
-        <v>30</v>
+      <c r="F112" s="2">
+        <v>50</v>
       </c>
       <c r="G112">
         <v>50</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B0A41-63F0-4075-8591-258917747D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E8973B-E4B1-4D23-B131-774ADD4104F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="219">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>Entity03Height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -913,10 +909,6 @@
   </si>
   <si>
     <t>100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100,100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>323,323</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1426,10 +1418,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1453,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1498,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -1521,33 +1513,33 @@
         <v>99</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>1001</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1002</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,11 +1583,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
@@ -1613,7 +1605,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1637,7 +1629,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1655,7 +1647,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
@@ -1712,7 +1704,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
@@ -1739,21 +1731,21 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -1761,7 +1753,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -1788,21 +1780,21 @@
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
@@ -1856,7 +1848,7 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1915,7 +1907,7 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1974,7 +1966,7 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2033,12 +2025,12 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
@@ -2088,16 +2080,16 @@
         <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
@@ -2151,12 +2143,12 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
@@ -2206,16 +2198,16 @@
         <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
@@ -2223,7 +2215,7 @@
         <v>1007</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -2265,16 +2257,16 @@
         <v>26</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
@@ -2282,7 +2274,7 @@
         <v>1008</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -2324,16 +2316,16 @@
         <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
@@ -2341,7 +2333,7 @@
         <v>1009</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2383,16 +2375,16 @@
         <v>31</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
@@ -2400,7 +2392,7 @@
         <v>1010</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -2442,16 +2434,16 @@
         <v>32</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
@@ -2459,7 +2451,7 @@
         <v>1011</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -2501,16 +2493,16 @@
         <v>33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
@@ -2518,7 +2510,7 @@
         <v>1012</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -2560,16 +2552,16 @@
         <v>34</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
@@ -2577,7 +2569,7 @@
         <v>1013</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -2619,16 +2611,16 @@
         <v>35</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
@@ -2636,7 +2628,7 @@
         <v>1014</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -2678,16 +2670,16 @@
         <v>26</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
@@ -2695,7 +2687,7 @@
         <v>1015</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2737,16 +2729,16 @@
         <v>30</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
@@ -2754,7 +2746,7 @@
         <v>1016</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -2796,16 +2788,16 @@
         <v>31</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
@@ -2813,7 +2805,7 @@
         <v>1017</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -2855,16 +2847,16 @@
         <v>32</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
@@ -2872,7 +2864,7 @@
         <v>1018</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>19</v>
@@ -2914,16 +2906,16 @@
         <v>33</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
@@ -2931,7 +2923,7 @@
         <v>1019</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -2973,16 +2965,16 @@
         <v>34</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
@@ -2990,7 +2982,7 @@
         <v>1020</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>21</v>
@@ -3032,16 +3024,16 @@
         <v>35</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
@@ -3049,7 +3041,7 @@
         <v>1021</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>22</v>
@@ -3091,16 +3083,16 @@
         <v>26</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
@@ -3108,7 +3100,7 @@
         <v>1022</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -3150,16 +3142,16 @@
         <v>30</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
@@ -3167,7 +3159,7 @@
         <v>1023</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>24</v>
@@ -3209,16 +3201,16 @@
         <v>31</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
@@ -3226,7 +3218,7 @@
         <v>1024</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -3268,16 +3260,16 @@
         <v>32</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
@@ -3285,7 +3277,7 @@
         <v>1025</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>26</v>
@@ -3327,16 +3319,16 @@
         <v>33</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
@@ -3344,7 +3336,7 @@
         <v>1026</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>27</v>
@@ -3386,16 +3378,16 @@
         <v>34</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
@@ -3403,7 +3395,7 @@
         <v>1027</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -3445,16 +3437,16 @@
         <v>35</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
@@ -3462,7 +3454,7 @@
         <v>1028</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>29</v>
@@ -3504,16 +3496,16 @@
         <v>26</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
@@ -3521,7 +3513,7 @@
         <v>1029</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -3563,16 +3555,16 @@
         <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
@@ -3580,7 +3572,7 @@
         <v>1030</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -3622,16 +3614,16 @@
         <v>31</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
@@ -3639,7 +3631,7 @@
         <v>1031</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -3681,16 +3673,16 @@
         <v>32</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
@@ -3698,7 +3690,7 @@
         <v>1032</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -3740,16 +3732,16 @@
         <v>33</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
@@ -3757,7 +3749,7 @@
         <v>1033</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -3799,16 +3791,16 @@
         <v>34</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
@@ -3816,7 +3808,7 @@
         <v>1034</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -3858,16 +3850,16 @@
         <v>35</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
@@ -3875,7 +3867,7 @@
         <v>1035</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>36</v>
@@ -3917,16 +3909,16 @@
         <v>26</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
@@ -3934,7 +3926,7 @@
         <v>1036</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>37</v>
@@ -3976,16 +3968,16 @@
         <v>30</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
@@ -3993,7 +3985,7 @@
         <v>1037</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>38</v>
@@ -4035,16 +4027,16 @@
         <v>31</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
@@ -4052,7 +4044,7 @@
         <v>1038</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>39</v>
@@ -4094,16 +4086,16 @@
         <v>32</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
@@ -4111,7 +4103,7 @@
         <v>1039</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>40</v>
@@ -4153,16 +4145,16 @@
         <v>33</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
@@ -4170,7 +4162,7 @@
         <v>1040</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>41</v>
@@ -4212,16 +4204,16 @@
         <v>34</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
@@ -4229,7 +4221,7 @@
         <v>1041</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>42</v>
@@ -4271,16 +4263,16 @@
         <v>35</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
@@ -4288,7 +4280,7 @@
         <v>1042</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50">
         <v>43</v>
@@ -4330,16 +4322,16 @@
         <v>26</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
@@ -4347,7 +4339,7 @@
         <v>1043</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51">
         <v>44</v>
@@ -4389,16 +4381,16 @@
         <v>30</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.4">
@@ -4406,7 +4398,7 @@
         <v>1044</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -4448,16 +4440,16 @@
         <v>31</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.4">
@@ -4465,7 +4457,7 @@
         <v>1045</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53">
         <v>46</v>
@@ -4507,16 +4499,16 @@
         <v>32</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
@@ -4524,7 +4516,7 @@
         <v>1046</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>47</v>
@@ -4566,16 +4558,16 @@
         <v>33</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.4">
@@ -4583,7 +4575,7 @@
         <v>1047</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55">
         <v>48</v>
@@ -4625,16 +4617,16 @@
         <v>34</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.4">
@@ -4642,7 +4634,7 @@
         <v>1048</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56">
         <v>49</v>
@@ -4684,16 +4676,16 @@
         <v>35</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.4">
@@ -4701,7 +4693,7 @@
         <v>1049</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -4747,12 +4739,12 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.4">
@@ -4860,7 +4852,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.4">
@@ -4896,7 +4888,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
@@ -4932,7 +4924,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
@@ -4968,7 +4960,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.4">
@@ -5004,7 +4996,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
@@ -5040,7 +5032,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.4">
@@ -5076,7 +5068,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.4">
@@ -5112,7 +5104,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.4">
@@ -5148,7 +5140,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
@@ -5184,7 +5176,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
@@ -5220,7 +5212,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
@@ -5256,7 +5248,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
@@ -5292,7 +5284,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
@@ -5328,7 +5320,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
@@ -5364,7 +5356,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
@@ -5400,7 +5392,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
@@ -5436,7 +5428,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.4">
@@ -5472,7 +5464,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.4">
@@ -5508,7 +5500,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.4">
@@ -5544,7 +5536,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.4">
@@ -5580,7 +5572,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.4">
@@ -5616,7 +5608,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.4">
@@ -5652,7 +5644,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.4">
@@ -5688,7 +5680,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.4">
@@ -5724,7 +5716,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.4">
@@ -5760,7 +5752,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.4">
@@ -5796,7 +5788,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.4">
@@ -5832,7 +5824,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.4">
@@ -5868,7 +5860,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
@@ -5904,7 +5896,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.4">
@@ -5940,7 +5932,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.4">
@@ -5976,7 +5968,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.4">
@@ -6012,7 +6004,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.4">
@@ -6048,7 +6040,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.4">
@@ -6084,7 +6076,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.4">
@@ -6120,7 +6112,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
@@ -6156,7 +6148,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.4">
@@ -6192,7 +6184,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
@@ -6228,7 +6220,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.4">
@@ -6264,7 +6256,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.4">
@@ -6300,7 +6292,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.4">
@@ -6336,7 +6328,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.4">
@@ -6372,7 +6364,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.4">
@@ -6408,7 +6400,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
@@ -6444,7 +6436,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
@@ -6480,7 +6472,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.4">
@@ -6516,7 +6508,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.4">
@@ -6552,7 +6544,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.4">
@@ -6588,7 +6580,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
@@ -6624,7 +6616,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.4">
@@ -6660,7 +6652,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.4">
@@ -6696,7 +6688,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.4">
@@ -6704,7 +6696,7 @@
         <v>5000</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -6738,17 +6730,17 @@
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.4">
@@ -6795,7 +6787,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -6805,7 +6797,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -6815,37 +6807,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -6855,7 +6847,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -6865,7 +6857,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -6875,7 +6867,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -6885,17 +6877,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
@@ -6905,7 +6897,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -6941,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -6949,7 +6941,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -6957,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -6965,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -6973,7 +6965,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E8973B-E4B1-4D23-B131-774ADD4104F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E42992-6BFF-410E-B4EC-CEAB7D3E67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4875" yWindow="1980" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1513,13 +1513,13 @@
         <v>99</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>1001</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B0A41-63F0-4075-8591-258917747D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5811B-FCB9-4A43-A096-81CD3707E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>323,323</t>
+    <t>10000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1426,10 +1426,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5811B-FCB9-4A43-A096-81CD3707E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F9992-34C8-4EE5-9896-586CD6E02BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="222">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -917,6 +917,10 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>99999</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1426,10 +1430,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1524,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -1536,8 +1540,12 @@
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
         <v>220</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F9992-34C8-4EE5-9896-586CD6E02BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181E172-4B3A-48CC-AA02-B1575AA5FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="221">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -917,10 +917,6 @@
   </si>
   <si>
     <t>10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>99999</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1433,7 +1429,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1540,9 +1536,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
         <v>11</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181E172-4B3A-48CC-AA02-B1575AA5FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C47C12-30CA-4449-8876-77A0CA9689DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,10 +1426,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C47C12-30CA-4449-8876-77A0CA9689DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326F37E-DD5A-4F08-ACE9-1550AEAEEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="223">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1000,1001,10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11000</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,6 +913,21 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図ガイド</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1021,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1055,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,8 +1111,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U112" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U112" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U113" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U113" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1426,10 +1440,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1453,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>66</v>
@@ -1498,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -1542,7 +1556,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>44</v>
@@ -1593,11 +1607,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
@@ -1611,7 +1625,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>101</v>
       </c>
       <c r="B4" t="s">
@@ -1639,7 +1653,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1657,7 +1671,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
@@ -1714,7 +1728,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
@@ -1741,21 +1755,21 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -1763,7 +1777,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -1790,91 +1804,74 @@
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1000</v>
+      <c r="A8" s="8">
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="2">
-        <v>50</v>
+      <c r="F8">
+        <v>30</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>1003</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1005</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="U8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1889,13 +1886,13 @@
         <v>50</v>
       </c>
       <c r="H9">
+        <v>1002</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>1003</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>1004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1910,14 +1907,14 @@
         <v>6</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1927,34 +1924,34 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H10">
+        <v>1003</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>1004</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>1001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1969,14 +1966,14 @@
         <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1986,25 +1983,25 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>1004</v>
@@ -2019,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -2028,42 +2025,42 @@
         <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2">
         <v>50</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>1004</v>
@@ -2087,14 +2084,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="7" t="s">
-        <v>176</v>
+      <c r="R12" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2104,25 +2101,25 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2">
         <v>50</v>
       </c>
       <c r="G13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>1004</v>
@@ -2146,14 +2143,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>177</v>
+      <c r="R13" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2163,25 +2160,25 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2">
         <v>50</v>
       </c>
       <c r="G14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1004</v>
@@ -2196,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -2205,14 +2202,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2222,40 +2219,40 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
         <v>50</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H15">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -2264,14 +2261,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2281,13 +2278,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2302,13 +2299,13 @@
         <v>50</v>
       </c>
       <c r="H16">
+        <v>1002</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
         <v>1003</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>1004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2323,14 +2320,14 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2340,34 +2337,34 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2">
         <v>50</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H17">
+        <v>1003</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>1004</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>1001</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2382,14 +2379,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="1"/>
-      <c r="R17" s="7" t="s">
-        <v>181</v>
+      <c r="R17" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2399,25 +2396,25 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2">
         <v>50</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H18">
         <v>1004</v>
@@ -2432,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -2441,14 +2438,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
-        <v>182</v>
+      <c r="R18" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2458,25 +2455,25 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2">
         <v>50</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>1004</v>
@@ -2500,14 +2497,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2517,25 +2514,25 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2">
         <v>50</v>
       </c>
       <c r="G20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H20">
         <v>1004</v>
@@ -2559,14 +2556,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2576,25 +2573,25 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>1004</v>
@@ -2609,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2618,14 +2615,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2635,40 +2632,40 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2">
         <v>50</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H22">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -2677,14 +2674,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="7" t="s">
-        <v>186</v>
+      <c r="R22" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2694,13 +2691,13 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2715,13 +2712,13 @@
         <v>50</v>
       </c>
       <c r="H23">
+        <v>1002</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
         <v>1003</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>1004</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2736,14 +2733,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>187</v>
+      <c r="R23" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2753,34 +2750,34 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2">
         <v>50</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H24">
+        <v>1003</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
         <v>1004</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>1001</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2795,14 +2792,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2812,25 +2809,25 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <v>50</v>
       </c>
       <c r="G25">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H25">
         <v>1004</v>
@@ -2845,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2854,14 +2851,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2871,25 +2868,25 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2">
         <v>50</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H26">
         <v>1004</v>
@@ -2913,14 +2910,14 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2930,25 +2927,25 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2">
         <v>50</v>
       </c>
       <c r="G27">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H27">
         <v>1004</v>
@@ -2972,14 +2969,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="7" t="s">
-        <v>191</v>
+      <c r="R27" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2989,25 +2986,25 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2">
         <v>50</v>
       </c>
       <c r="G28">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>1004</v>
@@ -3022,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -3031,14 +3028,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="s">
-        <v>192</v>
+      <c r="R28" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3048,40 +3045,40 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2">
         <v>50</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H29">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -3090,14 +3087,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3107,13 +3104,13 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3128,13 +3125,13 @@
         <v>50</v>
       </c>
       <c r="H30">
+        <v>1002</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
         <v>1003</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>1004</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3149,14 +3146,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3166,34 +3163,34 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
         <v>50</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H31">
+        <v>1003</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
         <v>1004</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>1001</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3208,14 +3205,14 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3225,25 +3222,25 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2">
         <v>50</v>
       </c>
       <c r="G32">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H32">
         <v>1004</v>
@@ -3258,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3267,14 +3264,14 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="7" t="s">
-        <v>196</v>
+      <c r="R32" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3284,25 +3281,25 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2">
         <v>50</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H33">
         <v>1004</v>
@@ -3326,14 +3323,14 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>197</v>
+      <c r="R33" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3343,25 +3340,25 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H34">
         <v>1004</v>
@@ -3385,14 +3382,14 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3402,25 +3399,25 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2">
         <v>50</v>
       </c>
       <c r="G35">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>1004</v>
@@ -3435,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3444,14 +3441,14 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3461,40 +3458,40 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2">
         <v>50</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H36">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M36">
         <v>3</v>
@@ -3503,14 +3500,14 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3520,13 +3517,13 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -3541,13 +3538,13 @@
         <v>50</v>
       </c>
       <c r="H37">
+        <v>1002</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
         <v>1003</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>1004</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3562,14 +3559,14 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="7" t="s">
-        <v>191</v>
+      <c r="R37" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3579,34 +3576,34 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2">
         <v>50</v>
       </c>
       <c r="G38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H38">
+        <v>1003</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
         <v>1004</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>1001</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3621,14 +3618,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>201</v>
+      <c r="R38" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3638,25 +3635,25 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2">
         <v>50</v>
       </c>
       <c r="G39">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H39">
         <v>1004</v>
@@ -3671,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="L39">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M39">
         <v>3</v>
@@ -3680,14 +3677,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3697,25 +3694,25 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2">
         <v>50</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H40">
         <v>1004</v>
@@ -3739,14 +3736,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3756,25 +3753,25 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F41" s="2">
         <v>50</v>
       </c>
       <c r="G41">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H41">
         <v>1004</v>
@@ -3798,14 +3795,14 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3815,25 +3812,25 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2">
         <v>50</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42">
         <v>1004</v>
@@ -3848,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M42">
         <v>3</v>
@@ -3857,14 +3854,14 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="7" t="s">
-        <v>205</v>
+      <c r="R42" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3874,40 +3871,40 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2">
         <v>50</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H43">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3916,14 +3913,14 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1" t="s">
-        <v>206</v>
+      <c r="R43" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3933,13 +3930,13 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3954,13 +3951,13 @@
         <v>50</v>
       </c>
       <c r="H44">
+        <v>1002</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
         <v>1003</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
-        <v>1004</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3975,14 +3972,14 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3992,34 +3989,34 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2">
         <v>50</v>
       </c>
       <c r="G45">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H45">
+        <v>1003</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
         <v>1004</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <v>1001</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4034,14 +4031,14 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4051,25 +4048,25 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2">
         <v>50</v>
       </c>
       <c r="G46">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H46">
         <v>1004</v>
@@ -4084,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M46">
         <v>3</v>
@@ -4093,14 +4090,14 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4110,25 +4107,25 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2">
         <v>50</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H47">
         <v>1004</v>
@@ -4152,14 +4149,14 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="1"/>
-      <c r="R47" s="7" t="s">
-        <v>191</v>
+      <c r="R47" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4169,25 +4166,25 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2">
         <v>50</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H48">
         <v>1004</v>
@@ -4211,14 +4208,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1" t="s">
-        <v>210</v>
+      <c r="R48" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4228,25 +4225,25 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F49" s="2">
         <v>50</v>
       </c>
       <c r="G49">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49">
         <v>1004</v>
@@ -4261,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="L49">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -4270,14 +4267,14 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4287,40 +4284,40 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2">
         <v>50</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H50">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M50">
         <v>3</v>
@@ -4329,14 +4326,14 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4346,13 +4343,13 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4367,13 +4364,13 @@
         <v>50</v>
       </c>
       <c r="H51">
+        <v>1002</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
         <v>1003</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>1004</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -4388,14 +4385,14 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4405,34 +4402,34 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2">
         <v>50</v>
       </c>
       <c r="G52">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H52">
+        <v>1003</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
         <v>1004</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>1001</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4447,14 +4444,14 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="7" t="s">
-        <v>214</v>
+      <c r="R52" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4464,25 +4461,25 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2">
         <v>50</v>
       </c>
       <c r="G53">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H53">
         <v>1004</v>
@@ -4497,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="L53">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -4506,14 +4503,14 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1" t="s">
-        <v>215</v>
+      <c r="R53" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4523,25 +4520,25 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2">
         <v>50</v>
       </c>
       <c r="G54">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H54">
         <v>1004</v>
@@ -4565,14 +4562,14 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4582,25 +4579,25 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2">
         <v>50</v>
       </c>
       <c r="G55">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H55">
         <v>1004</v>
@@ -4624,14 +4621,14 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4641,25 +4638,25 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2">
         <v>50</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56">
         <v>1004</v>
@@ -4674,7 +4671,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M56">
         <v>3</v>
@@ -4683,14 +4680,14 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4700,13 +4697,13 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -4745,11 +4742,11 @@
         <v>35</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="7" t="s">
-        <v>219</v>
+      <c r="R57" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4759,46 +4756,69 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>3001</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
+        <v>1049</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2">
         <v>50</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H58">
+        <v>1004</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>1001</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
         <v>1006</v>
       </c>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="R58" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -4831,10 +4851,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -4862,15 +4882,15 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -4903,10 +4923,10 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -4939,10 +4959,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -4975,10 +4995,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -5011,10 +5031,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -5047,10 +5067,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -5083,10 +5103,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -5119,10 +5139,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -5155,10 +5175,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -5191,10 +5211,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -5227,10 +5247,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -5263,10 +5283,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -5299,10 +5319,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -5335,10 +5355,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -5371,10 +5391,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -5407,10 +5427,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -5443,10 +5463,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -5479,10 +5499,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -5515,10 +5535,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -5551,10 +5571,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5587,10 +5607,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -5623,10 +5643,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -5659,10 +5679,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -5695,10 +5715,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -5731,10 +5751,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B85">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5767,10 +5787,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B86">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -5803,10 +5823,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -5839,10 +5859,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -5875,10 +5895,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -5911,10 +5931,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -5947,10 +5967,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -5983,10 +6003,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -6019,10 +6039,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -6055,10 +6075,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -6091,10 +6111,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -6127,10 +6147,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B96">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -6163,10 +6183,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B97">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -6199,10 +6219,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B98">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6235,10 +6255,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B99">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -6271,10 +6291,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -6307,10 +6327,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B101">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -6343,10 +6363,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B102">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -6379,10 +6399,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B103">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -6415,10 +6435,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B104">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6451,10 +6471,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B105">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -6487,10 +6507,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B106">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -6523,10 +6543,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -6559,10 +6579,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B108">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -6595,10 +6615,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B109">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -6631,10 +6651,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B110">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -6667,10 +6687,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B111">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -6703,13 +6723,13 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>5000</v>
-      </c>
-      <c r="B112" t="s">
-        <v>45</v>
+        <v>3054</v>
+      </c>
+      <c r="B112">
+        <v>54</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E112">
         <v>50</v>
@@ -6721,30 +6741,14 @@
         <v>50</v>
       </c>
       <c r="H112">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I112">
-        <v>3</v>
-      </c>
-      <c r="J112">
-        <v>1001</v>
-      </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-      <c r="L112">
-        <v>1006</v>
-      </c>
-      <c r="M112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N112" s="1"/>
-      <c r="O112" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -6753,7 +6757,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>5000</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>50</v>
+      </c>
+      <c r="F113" s="2">
+        <v>50</v>
+      </c>
+      <c r="G113">
+        <v>50</v>
+      </c>
+      <c r="H113">
+        <v>1004</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>1001</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>1006</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6769,7 +6825,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="N116" s="1"/>
     </row>
   </sheetData>
@@ -6935,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -6943,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -6951,7 +7007,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -6959,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -6967,7 +7023,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -6975,7 +7031,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326F37E-DD5A-4F08-ACE9-1550AEAEEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C048E96-6D0C-4DBB-8D6A-05E52B19A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>630,630,630,630,630</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -928,6 +924,10 @@
   </si>
   <si>
     <t>17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>530,530,530,530,530</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1440,26 +1440,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.75" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>44</v>
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1666,7 +1666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1821,12 +1821,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1850,7 +1850,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
@@ -1863,7 +1863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1001</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1002</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1004</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1005</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1006</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1007</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1008</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1009</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1010</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1011</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1012</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1013</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1014</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1015</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1016</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1017</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1018</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2984,7 +2984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1019</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3043,7 +3043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1020</v>
       </c>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3102,7 +3102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1021</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3161,7 +3161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1022</v>
       </c>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3220,7 +3220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1023</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3279,7 +3279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1024</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3338,7 +3338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1025</v>
       </c>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3397,7 +3397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1026</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3456,7 +3456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1027</v>
       </c>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3515,7 +3515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1028</v>
       </c>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3574,7 +3574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1029</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3633,7 +3633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1030</v>
       </c>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3692,7 +3692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1031</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3751,7 +3751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1032</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3810,7 +3810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1033</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3869,7 +3869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1034</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3928,7 +3928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1035</v>
       </c>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3987,7 +3987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1036</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4046,7 +4046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1037</v>
       </c>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4105,7 +4105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1038</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4164,7 +4164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1039</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4223,7 +4223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1040</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4282,7 +4282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1041</v>
       </c>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4341,7 +4341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1042</v>
       </c>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4400,7 +4400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1043</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4459,7 +4459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1044</v>
       </c>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1045</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4577,7 +4577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1046</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4636,7 +4636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1047</v>
       </c>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4695,7 +4695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1048</v>
       </c>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4754,7 +4754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1049</v>
       </c>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4813,7 +4813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3001</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3002</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3003</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3004</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3005</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3006</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>3007</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3008</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3009</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3010</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>3011</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>3012</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>3013</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3014</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3015</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3016</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3017</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3018</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3019</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3020</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3021</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3022</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3023</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3024</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3025</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3026</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3027</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3028</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3029</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3030</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3031</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3032</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3033</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3034</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3035</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3036</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3037</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3038</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3039</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3040</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3041</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>3042</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>3043</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3044</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3045</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3046</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3047</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3048</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>3049</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3050</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>3051</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3052</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3053</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3054</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5000</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6825,7 +6825,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N116" s="1"/>
     </row>
   </sheetData>
@@ -6846,122 +6846,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -6981,12 +6981,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C048E96-6D0C-4DBB-8D6A-05E52B19A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715CD18-88A8-44B9-AC46-8B0CF12F2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="224">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -928,6 +928,13 @@
   </si>
   <si>
     <t>530,530,530,530,530</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備ガイド</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1111,8 +1118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U113" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U113" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U114" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U114" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1440,26 +1447,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1666,7 +1673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1821,7 +1828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>105</v>
       </c>
@@ -1863,74 +1870,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1000</v>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="2">
-        <v>50</v>
+      <c r="F9">
+        <v>30</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>1003</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1005</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="U9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1945,13 +1933,13 @@
         <v>50</v>
       </c>
       <c r="H10">
+        <v>1002</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>1003</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>1004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1966,14 +1954,14 @@
         <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1981,36 +1969,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H11">
+        <v>1003</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>1004</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>1001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2025,14 +2013,14 @@
         <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2040,27 +2028,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2">
         <v>50</v>
       </c>
       <c r="G12">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>1004</v>
@@ -2075,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -2084,42 +2072,42 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2">
         <v>50</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>1004</v>
@@ -2143,14 +2131,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="7" t="s">
-        <v>175</v>
+      <c r="R13" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2158,27 +2146,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2">
         <v>50</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>1004</v>
@@ -2202,14 +2190,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>176</v>
+      <c r="R14" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2217,27 +2205,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2">
         <v>50</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>1004</v>
@@ -2252,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -2261,14 +2249,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2276,42 +2264,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
         <v>50</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -2320,14 +2308,14 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2335,15 +2323,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2358,13 +2346,13 @@
         <v>50</v>
       </c>
       <c r="H17">
+        <v>1002</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>1003</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>1004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2379,14 +2367,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2394,36 +2382,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2">
         <v>50</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H18">
+        <v>1003</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
         <v>1004</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>1001</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2438,14 +2426,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="7" t="s">
-        <v>180</v>
+      <c r="R18" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2453,27 +2441,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2">
         <v>50</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H19">
         <v>1004</v>
@@ -2488,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -2497,14 +2485,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
-        <v>181</v>
+      <c r="R19" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2512,27 +2500,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F20" s="2">
         <v>50</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>1004</v>
@@ -2556,14 +2544,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2571,27 +2559,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
         <v>50</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H21">
         <v>1004</v>
@@ -2615,14 +2603,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2630,27 +2618,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2">
         <v>50</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>1004</v>
@@ -2665,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="L22">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -2674,14 +2662,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2689,42 +2677,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2">
         <v>50</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H23">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -2733,14 +2721,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="7" t="s">
-        <v>185</v>
+      <c r="R23" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2748,15 +2736,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2771,13 +2759,13 @@
         <v>50</v>
       </c>
       <c r="H24">
+        <v>1002</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
         <v>1003</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>1004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2792,14 +2780,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
-        <v>186</v>
+      <c r="R24" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2807,36 +2795,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2">
         <v>50</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H25">
+        <v>1003</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
         <v>1004</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>1001</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2851,14 +2839,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2866,27 +2854,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2">
         <v>50</v>
       </c>
       <c r="G26">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <v>1004</v>
@@ -2901,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -2910,14 +2898,14 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2925,27 +2913,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2">
         <v>50</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>1004</v>
@@ -2969,14 +2957,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2984,27 +2972,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2">
         <v>50</v>
       </c>
       <c r="G28">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H28">
         <v>1004</v>
@@ -3028,14 +3016,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="7" t="s">
-        <v>189</v>
+      <c r="R28" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3043,27 +3031,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2">
         <v>50</v>
       </c>
       <c r="G29">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>1004</v>
@@ -3078,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -3087,14 +3075,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>190</v>
+      <c r="R29" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3102,42 +3090,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2">
         <v>50</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H30">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I30">
         <v>3</v>
       </c>
       <c r="J30">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -3146,14 +3134,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3161,15 +3149,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3184,13 +3172,13 @@
         <v>50</v>
       </c>
       <c r="H31">
+        <v>1002</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
         <v>1003</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>1004</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3205,14 +3193,14 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3220,36 +3208,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2">
         <v>50</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H32">
+        <v>1003</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
         <v>1004</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>1001</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3264,14 +3252,14 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3279,27 +3267,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2">
         <v>50</v>
       </c>
       <c r="G33">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H33">
         <v>1004</v>
@@ -3314,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M33">
         <v>3</v>
@@ -3323,14 +3311,14 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="7" t="s">
-        <v>194</v>
+      <c r="R33" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3338,27 +3326,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H34">
         <v>1004</v>
@@ -3382,14 +3370,14 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
-        <v>195</v>
+      <c r="R34" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3397,27 +3385,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2">
         <v>50</v>
       </c>
       <c r="G35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H35">
         <v>1004</v>
@@ -3441,14 +3429,14 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3456,27 +3444,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2">
         <v>50</v>
       </c>
       <c r="G36">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>1004</v>
@@ -3491,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M36">
         <v>3</v>
@@ -3500,14 +3488,14 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3515,42 +3503,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2">
         <v>50</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H37">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -3559,14 +3547,14 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3574,15 +3562,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -3597,13 +3585,13 @@
         <v>50</v>
       </c>
       <c r="H38">
+        <v>1002</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
         <v>1003</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>1004</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3618,14 +3606,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="7" t="s">
-        <v>189</v>
+      <c r="R38" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3633,36 +3621,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
         <v>50</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H39">
+        <v>1003</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
         <v>1004</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <v>1001</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -3677,14 +3665,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1" t="s">
-        <v>199</v>
+      <c r="R39" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3692,27 +3680,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F40" s="2">
         <v>50</v>
       </c>
       <c r="G40">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H40">
         <v>1004</v>
@@ -3727,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -3736,14 +3724,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3751,27 +3739,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2">
         <v>50</v>
       </c>
       <c r="G41">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H41">
         <v>1004</v>
@@ -3795,14 +3783,14 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3810,27 +3798,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F42" s="2">
         <v>50</v>
       </c>
       <c r="G42">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H42">
         <v>1004</v>
@@ -3854,14 +3842,14 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3869,27 +3857,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F43" s="2">
         <v>50</v>
       </c>
       <c r="G43">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43">
         <v>1004</v>
@@ -3904,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="L43">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3913,14 +3901,14 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="7" t="s">
-        <v>203</v>
+      <c r="R43" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3928,42 +3916,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2">
         <v>50</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H44">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -3972,14 +3960,14 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1" t="s">
-        <v>204</v>
+      <c r="R44" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3987,15 +3975,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4010,13 +3998,13 @@
         <v>50</v>
       </c>
       <c r="H45">
+        <v>1002</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
         <v>1003</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <v>1004</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4031,14 +4019,14 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4046,36 +4034,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2">
         <v>50</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H46">
+        <v>1003</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
         <v>1004</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <v>1001</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4090,14 +4078,14 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4105,27 +4093,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2">
         <v>50</v>
       </c>
       <c r="G47">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <v>1004</v>
@@ -4140,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="L47">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M47">
         <v>3</v>
@@ -4149,14 +4137,14 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4164,27 +4152,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2">
         <v>50</v>
       </c>
       <c r="G48">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H48">
         <v>1004</v>
@@ -4208,14 +4196,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="7" t="s">
-        <v>189</v>
+      <c r="R48" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4223,27 +4211,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2">
         <v>50</v>
       </c>
       <c r="G49">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H49">
         <v>1004</v>
@@ -4267,14 +4255,14 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1" t="s">
-        <v>208</v>
+      <c r="R49" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4282,27 +4270,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F50" s="2">
         <v>50</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50">
         <v>1004</v>
@@ -4317,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="L50">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M50">
         <v>3</v>
@@ -4326,14 +4314,14 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4341,42 +4329,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2">
         <v>50</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H51">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
       <c r="J51">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M51">
         <v>3</v>
@@ -4385,14 +4373,14 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4400,15 +4388,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -4423,13 +4411,13 @@
         <v>50</v>
       </c>
       <c r="H52">
+        <v>1002</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
         <v>1003</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>1004</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4444,14 +4432,14 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4459,36 +4447,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2">
         <v>50</v>
       </c>
       <c r="G53">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H53">
+        <v>1003</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <v>1004</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>1001</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -4503,14 +4491,14 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="7" t="s">
-        <v>212</v>
+      <c r="R53" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4518,27 +4506,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2">
         <v>50</v>
       </c>
       <c r="G54">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H54">
         <v>1004</v>
@@ -4553,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M54">
         <v>3</v>
@@ -4562,14 +4550,14 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1" t="s">
-        <v>213</v>
+      <c r="R54" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4577,27 +4565,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2">
         <v>50</v>
       </c>
       <c r="G55">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H55">
         <v>1004</v>
@@ -4621,14 +4609,14 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4636,27 +4624,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2">
         <v>50</v>
       </c>
       <c r="G56">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H56">
         <v>1004</v>
@@ -4680,14 +4668,14 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4695,27 +4683,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2">
         <v>50</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57">
         <v>1004</v>
@@ -4730,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -4739,14 +4727,14 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4754,15 +4742,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -4801,11 +4789,11 @@
         <v>35</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="7" t="s">
-        <v>217</v>
+      <c r="R58" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4813,48 +4801,71 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3001</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
+        <v>1049</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2">
         <v>50</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H59">
+        <v>1004</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>1001</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
         <v>1006</v>
       </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="R59" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -4885,12 +4896,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -4918,15 +4929,15 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -4957,12 +4968,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -4993,12 +5004,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -5029,12 +5040,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -5065,12 +5076,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -5101,12 +5112,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -5137,12 +5148,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -5173,12 +5184,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -5209,12 +5220,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -5245,12 +5256,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -5281,12 +5292,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -5317,12 +5328,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -5353,12 +5364,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -5389,12 +5400,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -5425,12 +5436,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -5461,12 +5472,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -5497,12 +5508,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -5533,12 +5544,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -5569,12 +5580,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5605,12 +5616,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -5641,12 +5652,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B82">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -5677,12 +5688,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -5713,12 +5724,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -5749,12 +5760,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5785,12 +5796,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -5821,12 +5832,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -5857,12 +5868,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -5893,12 +5904,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -5929,12 +5940,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -5965,12 +5976,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -6001,12 +6012,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -6037,12 +6048,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -6073,12 +6084,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B94">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -6109,12 +6120,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -6145,12 +6156,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -6181,12 +6192,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B97">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -6217,12 +6228,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B98">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6253,12 +6264,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B99">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -6289,12 +6300,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B100">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -6325,12 +6336,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B101">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -6361,12 +6372,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -6397,12 +6408,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B103">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -6433,12 +6444,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B104">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6469,12 +6480,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -6505,12 +6516,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B106">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -6541,12 +6552,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B107">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -6577,12 +6588,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B108">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -6613,12 +6624,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B109">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -6649,12 +6660,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B110">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -6685,12 +6696,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B111">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -6721,12 +6732,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B112">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -6757,15 +6768,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>5000</v>
-      </c>
-      <c r="B113" t="s">
-        <v>45</v>
+        <v>3054</v>
+      </c>
+      <c r="B113">
+        <v>54</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E113">
         <v>50</v>
@@ -6777,30 +6788,14 @@
         <v>50</v>
       </c>
       <c r="H113">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I113">
-        <v>3</v>
-      </c>
-      <c r="J113">
-        <v>1001</v>
-      </c>
-      <c r="K113">
-        <v>3</v>
-      </c>
-      <c r="L113">
-        <v>1006</v>
-      </c>
-      <c r="M113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N113" s="1"/>
-      <c r="O113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -6809,7 +6804,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>5000</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>50</v>
+      </c>
+      <c r="F114" s="2">
+        <v>50</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+      <c r="H114">
+        <v>1004</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>1001</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>1006</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6825,7 +6872,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="N116" s="1"/>
     </row>
   </sheetData>
@@ -6846,122 +6893,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -6981,12 +7028,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6994,7 +7041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7002,7 +7049,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7010,7 +7057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7018,7 +7065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7026,7 +7073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715CD18-88A8-44B9-AC46-8B0CF12F2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDDBFF-9842-4755-B91B-B43150E89735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="228">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -935,6 +935,25 @@
     <rPh sb="0" eb="2">
       <t>ソウビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険ガイド</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>151,351,551</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1084,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U114" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U114" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U116" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U116" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1447,10 +1469,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1911,153 +1933,119 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1000</v>
+      <c r="A10" s="8">
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10">
-        <v>1003</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1005</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>8</v>
+        <v>225</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="U10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1001</v>
+      <c r="A11" s="8">
+        <v>108</v>
       </c>
       <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
+      <c r="F11">
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>1004</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1005</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="U11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
         <v>1002</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>60</v>
-      </c>
-      <c r="H12">
-        <v>1004</v>
-      </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -2072,14 +2060,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2089,40 +2077,40 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
+        <v>1001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
         <v>1003</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>65</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
         <v>1004</v>
       </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>1001</v>
-      </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -2131,30 +2119,30 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2181,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -2190,42 +2178,42 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="7" t="s">
-        <v>175</v>
+      <c r="R14" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>50</v>
       </c>
       <c r="G15">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>1004</v>
@@ -2249,14 +2237,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2266,25 +2254,25 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2">
         <v>50</v>
       </c>
       <c r="G16">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>1004</v>
@@ -2299,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -2308,14 +2296,14 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
-        <v>177</v>
+      <c r="R16" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2325,40 +2313,40 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2">
         <v>50</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H17">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -2367,14 +2355,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2384,40 +2372,40 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2">
         <v>50</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H18">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -2426,14 +2414,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2443,34 +2431,34 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
         <v>50</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2485,14 +2473,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="7" t="s">
-        <v>180</v>
+      <c r="R19" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2502,40 +2490,40 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
         <v>50</v>
       </c>
       <c r="G20">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H20">
+        <v>1003</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
         <v>1004</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>1001</v>
-      </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M20">
         <v>3</v>
@@ -2544,14 +2532,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2561,13 +2549,13 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2594,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2603,14 +2591,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>182</v>
+      <c r="R21" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2620,25 +2608,25 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2">
         <v>50</v>
       </c>
       <c r="G22">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>1004</v>
@@ -2662,14 +2650,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2679,25 +2667,25 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2">
         <v>50</v>
       </c>
       <c r="G23">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H23">
         <v>1004</v>
@@ -2712,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M23">
         <v>3</v>
@@ -2721,14 +2709,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2738,40 +2726,40 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2">
         <v>50</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H24">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2780,14 +2768,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="7" t="s">
-        <v>185</v>
+      <c r="R24" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2797,40 +2785,40 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2">
         <v>50</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H25">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2839,14 +2827,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2856,34 +2844,34 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2">
         <v>50</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2898,14 +2886,14 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>187</v>
+      <c r="R26" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2915,40 +2903,40 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
         <v>50</v>
       </c>
       <c r="G27">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H27">
+        <v>1003</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
         <v>1004</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>1001</v>
-      </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2957,14 +2945,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2974,13 +2962,13 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3007,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -3016,14 +3004,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3033,25 +3021,25 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2">
         <v>50</v>
       </c>
       <c r="G29">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H29">
         <v>1004</v>
@@ -3075,14 +3063,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="7" t="s">
-        <v>189</v>
+      <c r="R29" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3092,25 +3080,25 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2">
         <v>50</v>
       </c>
       <c r="G30">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H30">
         <v>1004</v>
@@ -3125,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -3134,14 +3122,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3151,40 +3139,40 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2">
         <v>50</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H31">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -3193,14 +3181,14 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>191</v>
+      <c r="R31" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3210,40 +3198,40 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2">
         <v>50</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H32">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3252,14 +3240,14 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3269,34 +3257,34 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2">
         <v>50</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I33">
         <v>3</v>
       </c>
       <c r="J33">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3311,14 +3299,14 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3328,40 +3316,40 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H34">
+        <v>1003</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
         <v>1004</v>
       </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>1001</v>
-      </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -3370,14 +3358,14 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="7" t="s">
-        <v>194</v>
+      <c r="R34" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3387,13 +3375,13 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3420,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3429,14 +3417,14 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3446,25 +3434,25 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F36" s="2">
         <v>50</v>
       </c>
       <c r="G36">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H36">
         <v>1004</v>
@@ -3488,14 +3476,14 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>196</v>
+      <c r="R36" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3505,25 +3493,25 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F37" s="2">
         <v>50</v>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H37">
         <v>1004</v>
@@ -3538,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="L37">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -3547,14 +3535,14 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3564,40 +3552,40 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2">
         <v>50</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H38">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -3606,14 +3594,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3623,40 +3611,40 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2">
         <v>50</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H39">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
       <c r="J39">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M39">
         <v>3</v>
@@ -3665,14 +3653,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="7" t="s">
-        <v>189</v>
+      <c r="R39" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3682,34 +3670,34 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
         <v>50</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3724,14 +3712,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3741,40 +3729,40 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2">
         <v>50</v>
       </c>
       <c r="G41">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H41">
+        <v>1003</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
         <v>1004</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>1001</v>
-      </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M41">
         <v>3</v>
@@ -3783,14 +3771,14 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1" t="s">
-        <v>200</v>
+      <c r="R41" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3800,13 +3788,13 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3833,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M42">
         <v>3</v>
@@ -3842,14 +3830,14 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3859,25 +3847,25 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2">
         <v>50</v>
       </c>
       <c r="G43">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H43">
         <v>1004</v>
@@ -3901,14 +3889,14 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3918,25 +3906,25 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2">
         <v>50</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H44">
         <v>1004</v>
@@ -3951,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -3960,14 +3948,14 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="7" t="s">
-        <v>203</v>
+      <c r="R44" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3977,40 +3965,40 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2">
         <v>50</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H45">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -4019,14 +4007,14 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4036,40 +4024,40 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2">
         <v>50</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H46">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M46">
         <v>3</v>
@@ -4078,14 +4066,14 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1" t="s">
-        <v>205</v>
+      <c r="R46" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4095,34 +4083,34 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2">
         <v>50</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I47">
         <v>3</v>
       </c>
       <c r="J47">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4137,14 +4125,14 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4154,40 +4142,40 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2">
         <v>50</v>
       </c>
       <c r="G48">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H48">
+        <v>1003</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
         <v>1004</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>1001</v>
-      </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M48">
         <v>3</v>
@@ -4196,14 +4184,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4213,13 +4201,13 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -4246,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="L49">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -4255,14 +4243,14 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q49" s="1"/>
-      <c r="R49" s="7" t="s">
-        <v>189</v>
+      <c r="R49" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4272,25 +4260,25 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2">
         <v>50</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H50">
         <v>1004</v>
@@ -4314,14 +4302,14 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4331,25 +4319,25 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2">
         <v>50</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H51">
         <v>1004</v>
@@ -4364,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="L51">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M51">
         <v>3</v>
@@ -4373,14 +4361,14 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1" t="s">
-        <v>209</v>
+      <c r="R51" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4390,40 +4378,40 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F52" s="2">
         <v>50</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H52">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -4432,14 +4420,14 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4449,40 +4437,40 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2">
         <v>50</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H53">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -4491,14 +4479,14 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4508,34 +4496,34 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2">
         <v>50</v>
       </c>
       <c r="G54">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -4550,14 +4538,14 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="7" t="s">
-        <v>212</v>
+      <c r="R54" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4567,40 +4555,40 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2">
         <v>50</v>
       </c>
       <c r="G55">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H55">
+        <v>1003</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
         <v>1004</v>
       </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <v>1001</v>
-      </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -4609,14 +4597,14 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4626,13 +4614,13 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -4659,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M56">
         <v>3</v>
@@ -4668,14 +4656,14 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1" t="s">
-        <v>214</v>
+      <c r="R56" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4685,25 +4673,25 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2">
         <v>50</v>
       </c>
       <c r="G57">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <v>1004</v>
@@ -4727,14 +4715,14 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4744,25 +4732,25 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C58">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2">
         <v>50</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H58">
         <v>1004</v>
@@ -4777,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -4786,14 +4774,14 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4803,25 +4791,25 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2">
         <v>50</v>
       </c>
       <c r="G59">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59">
         <v>1004</v>
@@ -4836,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="L59">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M59">
         <v>3</v>
@@ -4845,14 +4833,14 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="7" t="s">
-        <v>217</v>
+      <c r="R59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -4862,82 +4850,128 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3001</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
+        <v>1048</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60">
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2">
         <v>50</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H60">
+        <v>1004</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>1001</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
         <v>1006</v>
       </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>3002</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
+        <v>1049</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2">
         <v>50</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H61">
+        <v>1004</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>1001</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
         <v>1006</v>
       </c>
-      <c r="I61">
-        <v>5</v>
-      </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="R61" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -4965,15 +4999,15 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -5001,15 +5035,15 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -5042,10 +5076,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -5078,10 +5112,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -5114,10 +5148,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -5150,10 +5184,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -5186,10 +5220,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -5222,10 +5256,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -5258,10 +5292,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -5294,10 +5328,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -5330,10 +5364,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -5366,10 +5400,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -5402,10 +5436,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -5438,10 +5472,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -5474,10 +5508,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -5510,10 +5544,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -5546,10 +5580,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -5582,10 +5616,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5618,10 +5652,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -5654,10 +5688,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -5690,10 +5724,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -5726,10 +5760,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -5762,10 +5796,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5798,10 +5832,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -5834,10 +5868,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -5870,10 +5904,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="B88">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -5906,10 +5940,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="B89">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -5942,10 +5976,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="B90">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -5978,10 +6012,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="B91">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -6014,10 +6048,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="B92">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -6050,10 +6084,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="B93">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -6086,10 +6120,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="B94">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -6122,10 +6156,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B95">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -6158,10 +6192,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B96">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -6194,10 +6228,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="B97">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -6230,10 +6264,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="B98">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6266,10 +6300,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B99">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -6302,10 +6336,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="B100">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -6338,10 +6372,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="B101">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -6374,10 +6408,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="B102">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -6410,10 +6444,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="B103">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -6446,10 +6480,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="B104">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6482,10 +6516,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="B105">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -6518,10 +6552,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -6554,10 +6588,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="B107">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -6590,10 +6624,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="B108">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -6626,10 +6660,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="B109">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -6662,10 +6696,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="B110">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -6698,10 +6732,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B111">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -6734,10 +6768,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="B112">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -6770,10 +6804,10 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="B113">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -6806,13 +6840,13 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>5000</v>
-      </c>
-      <c r="B114" t="s">
-        <v>45</v>
+        <v>3053</v>
+      </c>
+      <c r="B114">
+        <v>53</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E114">
         <v>50</v>
@@ -6824,30 +6858,14 @@
         <v>50</v>
       </c>
       <c r="H114">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114">
-        <v>1001</v>
-      </c>
-      <c r="K114">
-        <v>3</v>
-      </c>
-      <c r="L114">
-        <v>1006</v>
-      </c>
-      <c r="M114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N114" s="1"/>
-      <c r="O114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -6857,23 +6875,92 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="A115">
+        <v>3054</v>
+      </c>
+      <c r="B115">
+        <v>54</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>50</v>
+      </c>
+      <c r="F115" s="2">
+        <v>50</v>
+      </c>
+      <c r="G115">
+        <v>50</v>
+      </c>
+      <c r="H115">
+        <v>1006</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>5000</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>50</v>
+      </c>
+      <c r="F116" s="2">
+        <v>50</v>
+      </c>
+      <c r="G116">
+        <v>50</v>
+      </c>
+      <c r="H116">
+        <v>1004</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>1001</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>1006</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
       <c r="N116" s="1"/>
+      <c r="O116" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDDBFF-9842-4755-B91B-B43150E89735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988F6CC-97BE-433A-BB24-4FDD77ED37F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2352" yWindow="924" windowWidth="17784" windowHeight="10032" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -141,10 +141,6 @@
     <t>7F</t>
   </si>
   <si>
-    <t>104,203,303,501</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
@@ -152,30 +148,6 @@
   </si>
   <si>
     <t>1006</t>
-  </si>
-  <si>
-    <t>104,203,303,502,601</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,204,304,504,603,702</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108,204,304,504,604,703,801</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,202,302,506,606,704,801</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109,205,307,507,607,706,803</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110,210,310,510,608,708,805,902</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1000,1001</t>
@@ -224,10 +196,6 @@
   </si>
   <si>
     <t>9999</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2100,2101,2102</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -954,6 +922,122 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2100,2101,2102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2103,2104,2105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2106,2107,2108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2109,2110,2111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2112,2113,2114</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1469,26 +1553,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="O117" sqref="O117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.75" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1496,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1511,22 +1595,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
@@ -1541,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -1553,12 +1637,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>99</v>
@@ -1585,19 +1669,19 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1636,11 +1720,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
@@ -1653,12 +1737,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1682,7 +1766,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1695,12 +1779,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
@@ -1737,7 +1821,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1752,12 +1836,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
@@ -1784,29 +1868,29 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -1833,29 +1917,29 @@
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1879,7 +1963,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
@@ -1892,12 +1976,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1932,12 +2016,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1959,10 +2043,10 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1976,12 +2060,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2010,13 +2094,13 @@
         <v>14</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2060,14 +2144,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2075,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2119,14 +2203,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2134,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2178,14 +2262,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2193,7 +2277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2237,22 +2321,22 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2296,22 +2380,22 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2355,22 +2439,22 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2414,27 +2498,27 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1007</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2473,27 +2557,27 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1008</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -2532,27 +2616,27 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1009</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -2591,27 +2675,27 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1010</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -2650,27 +2734,27 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1011</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -2709,27 +2793,27 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1012</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -2768,27 +2852,27 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1013</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -2827,27 +2911,27 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1014</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -2886,27 +2970,27 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1015</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -2945,27 +3029,27 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1016</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -3004,27 +3088,27 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1017</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -3063,27 +3147,27 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C30">
         <v>19</v>
@@ -3122,27 +3206,27 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1019</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -3181,27 +3265,27 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1020</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>21</v>
@@ -3240,27 +3324,27 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1021</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -3299,27 +3383,27 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1022</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>23</v>
@@ -3358,27 +3442,27 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1023</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>24</v>
@@ -3417,27 +3501,27 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1024</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -3476,27 +3560,27 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1025</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>26</v>
@@ -3535,27 +3619,27 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1026</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C38">
         <v>27</v>
@@ -3594,27 +3678,27 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1027</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -3653,27 +3737,27 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1028</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>29</v>
@@ -3712,27 +3796,27 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1029</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>30</v>
@@ -3771,27 +3855,27 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1030</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>31</v>
@@ -3830,27 +3914,27 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>32</v>
@@ -3889,27 +3973,27 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1032</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C44">
         <v>33</v>
@@ -3948,27 +4032,27 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1033</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>34</v>
@@ -4007,27 +4091,27 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1034</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>35</v>
@@ -4066,27 +4150,27 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1035</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>36</v>
@@ -4125,27 +4209,27 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1036</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C48">
         <v>37</v>
@@ -4184,27 +4268,27 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1037</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -4243,27 +4327,27 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1038</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>39</v>
@@ -4302,27 +4386,27 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1039</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>40</v>
@@ -4361,27 +4445,27 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1040</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>41</v>
@@ -4420,27 +4504,27 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1041</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -4479,27 +4563,27 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1042</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>43</v>
@@ -4538,27 +4622,27 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1043</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <v>44</v>
@@ -4597,27 +4681,27 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1044</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -4656,27 +4740,27 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1045</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C57">
         <v>46</v>
@@ -4715,27 +4799,27 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1046</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C58">
         <v>47</v>
@@ -4774,27 +4858,27 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1047</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C59">
         <v>48</v>
@@ -4833,27 +4917,27 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1048</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C60">
         <v>49</v>
@@ -4892,27 +4976,27 @@
         <v>6</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1049</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -4951,22 +5035,22 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3001</v>
       </c>
@@ -5002,7 +5086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3002</v>
       </c>
@@ -5038,7 +5122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3003</v>
       </c>
@@ -5071,10 +5155,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>3004</v>
       </c>
@@ -5107,10 +5191,10 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3005</v>
       </c>
@@ -5143,10 +5227,10 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3006</v>
       </c>
@@ -5179,10 +5263,10 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3007</v>
       </c>
@@ -5215,10 +5299,10 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>3008</v>
       </c>
@@ -5251,10 +5335,10 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>3009</v>
       </c>
@@ -5287,10 +5371,10 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>3010</v>
       </c>
@@ -5323,10 +5407,10 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3011</v>
       </c>
@@ -5359,10 +5443,10 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3012</v>
       </c>
@@ -5395,10 +5479,10 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3013</v>
       </c>
@@ -5431,10 +5515,10 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3014</v>
       </c>
@@ -5467,10 +5551,10 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3015</v>
       </c>
@@ -5503,10 +5587,10 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3016</v>
       </c>
@@ -5539,10 +5623,10 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3017</v>
       </c>
@@ -5575,10 +5659,10 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3018</v>
       </c>
@@ -5611,10 +5695,10 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3019</v>
       </c>
@@ -5647,10 +5731,10 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3020</v>
       </c>
@@ -5683,10 +5767,10 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3021</v>
       </c>
@@ -5719,10 +5803,10 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3022</v>
       </c>
@@ -5755,10 +5839,10 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3023</v>
       </c>
@@ -5791,10 +5875,10 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3024</v>
       </c>
@@ -5827,10 +5911,10 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3025</v>
       </c>
@@ -5863,10 +5947,10 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3026</v>
       </c>
@@ -5899,10 +5983,10 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3027</v>
       </c>
@@ -5935,10 +6019,10 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3028</v>
       </c>
@@ -5971,10 +6055,10 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3029</v>
       </c>
@@ -6007,10 +6091,10 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3030</v>
       </c>
@@ -6043,10 +6127,10 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3031</v>
       </c>
@@ -6079,10 +6163,10 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3032</v>
       </c>
@@ -6115,10 +6199,10 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3033</v>
       </c>
@@ -6151,10 +6235,10 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3034</v>
       </c>
@@ -6187,10 +6271,10 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3035</v>
       </c>
@@ -6223,10 +6307,10 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3036</v>
       </c>
@@ -6259,10 +6343,10 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3037</v>
       </c>
@@ -6295,10 +6379,10 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3038</v>
       </c>
@@ -6331,10 +6415,10 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>3039</v>
       </c>
@@ -6367,10 +6451,10 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>3040</v>
       </c>
@@ -6403,10 +6487,10 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3041</v>
       </c>
@@ -6439,10 +6523,10 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3042</v>
       </c>
@@ -6475,10 +6559,10 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3043</v>
       </c>
@@ -6511,10 +6595,10 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3044</v>
       </c>
@@ -6547,10 +6631,10 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3045</v>
       </c>
@@ -6583,10 +6667,10 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>3046</v>
       </c>
@@ -6619,10 +6703,10 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3047</v>
       </c>
@@ -6655,10 +6739,10 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>3048</v>
       </c>
@@ -6691,10 +6775,10 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3049</v>
       </c>
@@ -6727,10 +6811,10 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3050</v>
       </c>
@@ -6763,10 +6847,10 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3051</v>
       </c>
@@ -6799,10 +6883,10 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>3052</v>
       </c>
@@ -6835,10 +6919,10 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>3053</v>
       </c>
@@ -6871,10 +6955,10 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>3054</v>
       </c>
@@ -6907,15 +6991,15 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5000</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -6949,17 +7033,17 @@
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6980,124 +7064,124 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7115,57 +7199,57 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988F6CC-97BE-433A-BB24-4FDD77ED37F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FCF8A-DB97-4018-B392-DBB70639D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="924" windowWidth="17784" windowHeight="10032" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4110" yWindow="2790" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,10 +876,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計図ガイド</t>
     <rPh sb="0" eb="3">
       <t>セッケイズ</t>
@@ -1038,6 +1034,10 @@
   </si>
   <si>
     <t>2112,2113,2114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1553,26 +1553,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O117" sqref="O117"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1648,13 +1648,13 @@
         <v>99</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>100</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>1001</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>37</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1934,12 +1934,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1963,7 +1963,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
@@ -1976,12 +1976,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2016,12 +2016,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2043,10 +2043,10 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2060,12 +2060,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2094,13 +2094,13 @@
         <v>14</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
@@ -2218,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>26</v>
@@ -2277,7 +2277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>27</v>
@@ -2336,7 +2336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>77</v>
@@ -2395,7 +2395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
@@ -2454,7 +2454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>121</v>
@@ -2513,7 +2513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>122</v>
@@ -2572,7 +2572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1008</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>123</v>
@@ -2631,7 +2631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1009</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>124</v>
@@ -2690,7 +2690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1010</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>125</v>
@@ -2749,7 +2749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1011</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>126</v>
@@ -2808,7 +2808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1012</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>127</v>
@@ -2867,7 +2867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1013</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>128</v>
@@ -2926,7 +2926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1014</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>129</v>
@@ -2985,7 +2985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1015</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>130</v>
@@ -3044,7 +3044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1016</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>131</v>
@@ -3103,7 +3103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>132</v>
@@ -3162,7 +3162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1018</v>
       </c>
@@ -3206,14 +3206,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>133</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3221,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1019</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>134</v>
@@ -3280,7 +3280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1020</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>135</v>
@@ -3339,7 +3339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>136</v>
@@ -3398,7 +3398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>137</v>
@@ -3457,7 +3457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>138</v>
@@ -3516,7 +3516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>139</v>
@@ -3575,7 +3575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>140</v>
@@ -3634,7 +3634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>141</v>
@@ -3693,7 +3693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1027</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>142</v>
@@ -3752,7 +3752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1028</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>143</v>
@@ -3811,7 +3811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1029</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>144</v>
@@ -3870,7 +3870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1030</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>145</v>
@@ -3929,7 +3929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1031</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>146</v>
@@ -3988,7 +3988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1032</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>147</v>
@@ -4047,7 +4047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1033</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>148</v>
@@ -4106,7 +4106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1034</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>149</v>
@@ -4165,7 +4165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1035</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>150</v>
@@ -4224,7 +4224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1036</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>151</v>
@@ -4283,7 +4283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1037</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>152</v>
@@ -4342,7 +4342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1038</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>153</v>
@@ -4401,7 +4401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1039</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>154</v>
@@ -4460,7 +4460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1040</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>155</v>
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1041</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>156</v>
@@ -4578,7 +4578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1042</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>157</v>
@@ -4637,7 +4637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1043</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>158</v>
@@ -4696,7 +4696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1044</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>159</v>
@@ -4755,7 +4755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1045</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>160</v>
@@ -4814,7 +4814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1046</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>161</v>
@@ -4873,7 +4873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1047</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>162</v>
@@ -4932,7 +4932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1048</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>163</v>
@@ -4991,7 +4991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1049</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>11</v>
@@ -5050,7 +5050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3001</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3002</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3003</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3004</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3005</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3006</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3007</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3008</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3009</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3010</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3011</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3012</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3013</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3014</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3015</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3016</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3017</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3018</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3019</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3020</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3021</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3022</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3023</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3024</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3025</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3026</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3027</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3028</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3029</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3030</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3031</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3032</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>3033</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>3034</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3035</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>3036</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>3037</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>3038</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>3039</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>3040</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>3041</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>3042</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>3043</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>3044</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>3045</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>3046</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>3047</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>3048</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>3049</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>3050</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>3051</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>3052</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>3053</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>3054</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>5000</v>
       </c>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>40</v>
@@ -7064,122 +7064,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7199,12 +7199,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FCF8A-DB97-4018-B392-DBB70639D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D4964-6DFB-4351-8729-85C30F6503E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2790" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2148" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1005</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -692,74 +688,14 @@
     <t>1049</t>
   </si>
   <si>
-    <t>2,2,2,200,200,200,200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,3,3,201,201,201,201</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5,5,5,203,203,203,10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10,10,10,10,10,10,10,10,10,10,10,10,10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100,100,100,209,209,209,209,309</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>218,218,218,312</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>414,414,414,315</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>512,512,512,512,512</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20,119,218,317,416,515</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>23,23,23,23,23,23,23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>25,25,25,223,223,223,223</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>27,27,27,225,225,225,225</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>29,29,29,231,231,231,33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>33,33,33,33,33,33,33,33,33,33,33,33</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>133,133,133,233,233,233,233,333</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>233,233,233,333</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>429,429,429,329</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199,199</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,18 +724,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>41,140,239,338,437,536</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>42,42,42,240,240,240,240</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>537,537,537,537,537,537,537,537</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50,50,50,50,50,50,50</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,10 +745,6 @@
   </si>
   <si>
     <t>545,545,545,545,545,545,545</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>51,150,249,348,447,546</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -891,10 +811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>530,530,530,530,530</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>装備ガイド</t>
     <rPh sb="0" eb="2">
       <t>ソウビ</t>
@@ -1038,6 +954,90 @@
   </si>
   <si>
     <t>10000,10001,10002,10003,10004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,595</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,2,2,200,200,200,200,596</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,3,3,201,201,201,201,597</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,5,5,203,203,203,10,598</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,100,100,209,209,209,209,309,599</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>218,218,218,312,600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>414,414,414,315,601</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512,512,512,512,512,602</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20,119,218,317,416,515,603</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23,23,23,23,23,23,23,604</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25,25,25,223,223,223,223,605</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27,27,27,225,225,225,225,606</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29,29,29,231,231,231,33,607</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>133,133,133,233,233,233,233,333,608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>233,233,233,333,609</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>429,429,429,329,610</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>530,530,530,530,530,611</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>41,140,239,338,437,536,620</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42,42,42,240,240,240,240,621</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>537,537,537,537,537,537,537,537,622</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51,150,249,348,447,546,640</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1553,26 +1553,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.75" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>37</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1934,12 +1934,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1963,7 +1963,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
@@ -1976,12 +1976,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2016,12 +2016,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2043,10 +2043,10 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2060,12 +2060,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2094,13 +2094,13 @@
         <v>14</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2144,14 +2144,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2159,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2203,14 +2203,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2218,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2262,14 +2262,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2277,7 +2277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2321,14 +2321,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2336,7 +2336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2380,14 +2380,14 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2395,7 +2395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2439,14 +2439,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2454,7 +2454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2498,14 +2498,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2513,12 +2513,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1007</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2557,14 +2557,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2572,12 +2572,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1008</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -2616,14 +2616,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2631,12 +2631,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1009</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -2675,14 +2675,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="7" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2690,12 +2690,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1010</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -2734,14 +2734,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2749,12 +2749,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1011</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -2793,14 +2793,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2808,12 +2808,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1012</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -2852,14 +2852,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2867,12 +2867,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1013</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -2911,14 +2911,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2926,12 +2926,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1014</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -2970,14 +2970,14 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2985,12 +2985,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1015</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -3029,14 +3029,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3044,12 +3044,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1016</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -3088,14 +3088,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3103,12 +3103,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1017</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -3147,14 +3147,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3162,12 +3162,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>19</v>
@@ -3206,14 +3206,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3221,12 +3221,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1019</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -3265,14 +3265,14 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3280,12 +3280,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1020</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>21</v>
@@ -3324,14 +3324,14 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3339,12 +3339,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1021</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -3383,14 +3383,14 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3398,12 +3398,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1022</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <v>23</v>
@@ -3442,14 +3442,14 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3457,12 +3457,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1023</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>24</v>
@@ -3501,14 +3501,14 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3516,12 +3516,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1024</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -3560,14 +3560,14 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3575,12 +3575,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1025</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>26</v>
@@ -3619,14 +3619,14 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3634,12 +3634,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1026</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>27</v>
@@ -3678,14 +3678,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3693,12 +3693,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1027</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -3737,14 +3737,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3752,12 +3752,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1028</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40">
         <v>29</v>
@@ -3796,14 +3796,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3811,12 +3811,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1029</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>30</v>
@@ -3855,14 +3855,14 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3870,12 +3870,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1030</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>31</v>
@@ -3914,14 +3914,14 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3929,12 +3929,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1031</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>32</v>
@@ -3973,14 +3973,14 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3988,12 +3988,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1032</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>33</v>
@@ -4032,14 +4032,14 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -4047,12 +4047,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1033</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>34</v>
@@ -4091,14 +4091,14 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4106,12 +4106,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1034</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>35</v>
@@ -4150,14 +4150,14 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4165,12 +4165,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1035</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>36</v>
@@ -4209,14 +4209,14 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4224,12 +4224,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1036</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48">
         <v>37</v>
@@ -4268,14 +4268,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4283,12 +4283,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1037</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -4327,14 +4327,14 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4342,12 +4342,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1038</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>39</v>
@@ -4386,14 +4386,14 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4401,12 +4401,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1039</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>40</v>
@@ -4445,14 +4445,14 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4460,12 +4460,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1040</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>41</v>
@@ -4504,14 +4504,14 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4519,12 +4519,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1041</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -4563,14 +4563,14 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4578,12 +4578,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1042</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>43</v>
@@ -4622,14 +4622,14 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -4637,12 +4637,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1043</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55">
         <v>44</v>
@@ -4681,14 +4681,14 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -4696,12 +4696,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1044</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -4740,14 +4740,14 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4755,12 +4755,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1045</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57">
         <v>46</v>
@@ -4799,14 +4799,14 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4814,12 +4814,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1046</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58">
         <v>47</v>
@@ -4858,14 +4858,14 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4873,12 +4873,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1047</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59">
         <v>48</v>
@@ -4917,14 +4917,14 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -4932,12 +4932,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1048</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>49</v>
@@ -4976,14 +4976,14 @@
         <v>6</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
@@ -4991,12 +4991,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1049</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -5035,14 +5035,14 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -5050,7 +5050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3001</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3002</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3003</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>3004</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3005</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3006</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3007</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>3008</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>3009</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>3010</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3011</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3012</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3013</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3014</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3015</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3016</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3017</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3018</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3019</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3020</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3021</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3022</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3023</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3024</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3025</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3026</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3027</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3028</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3029</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3030</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3031</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3032</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3033</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3034</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3035</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3036</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3037</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3038</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>3039</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>3040</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3041</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3042</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3043</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3044</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3045</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>3046</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3047</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>3048</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3049</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3050</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3051</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>3052</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>3053</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>3054</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5000</v>
       </c>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>40</v>
@@ -7064,122 +7064,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7199,12 +7199,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D4964-6DFB-4351-8729-85C30F6503E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E791531A-8705-429E-9522-9A7BFFCA6D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="250">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1038,6 +1038,10 @@
   </si>
   <si>
     <t>51,150,249,348,447,546,640</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,911,2100,2101,2102</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1553,26 +1557,26 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R63" sqref="R63"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>105</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>106</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>107</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>108</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
@@ -2159,7 +2163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1008</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1009</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1010</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1011</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1012</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1013</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1014</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1015</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1016</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1018</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1019</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1020</v>
       </c>
@@ -3339,7 +3343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1027</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1028</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1029</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1030</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1031</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1032</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1033</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1034</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1035</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1036</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1037</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1038</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1039</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1040</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1041</v>
       </c>
@@ -4578,7 +4582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1042</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1043</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1044</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1045</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1046</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1047</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1048</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1049</v>
       </c>
@@ -5050,7 +5054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3001</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3002</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3003</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3004</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3005</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3006</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3007</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3008</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3009</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3010</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3011</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3012</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3013</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3014</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3015</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3016</v>
       </c>
@@ -5626,7 +5630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3017</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3018</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3019</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3020</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3021</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3022</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3023</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3024</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3025</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3026</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3027</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3028</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3029</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3030</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3031</v>
       </c>
@@ -6166,7 +6170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3032</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>3033</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>3034</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3035</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>3036</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>3037</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>3038</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>3039</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>3040</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>3041</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>3042</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>3043</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>3044</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>3045</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>3046</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>3047</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>3048</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>3049</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>3050</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>3051</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>3052</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>3053</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>3054</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>5000</v>
       </c>
@@ -7064,122 +7068,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7199,12 +7203,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E791531A-8705-429E-9522-9A7BFFCA6D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7F812-D164-42A6-AF21-4073CD7841B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="250">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -837,118 +837,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>104,203,303,501,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,502,601,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,204,304,504,603,702,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108,204,304,504,604,703,801,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,202,302,506,606,704,801,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109,205,307,507,607,706,803,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110,210,310,510,608,708,805,902,2100,2101,2102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,202,302,506,606,704,801,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109,205,307,507,607,706,803,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110,210,310,510,608,708,805,902,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,501,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,502,601,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,204,304,504,603,702,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108,204,304,504,604,703,801,2103,2104,2105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,502,601,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,204,304,504,603,702,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108,204,304,504,604,703,801,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,202,302,506,606,704,801,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109,205,307,507,607,706,803,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110,210,310,510,608,708,805,902,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,501,2106,2107,2108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108,204,304,504,604,703,801,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,202,302,506,606,704,801,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109,205,307,507,607,706,803,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>110,210,310,510,608,708,805,902,2109,2110,2111</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>104,203,303,501,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,203,303,502,601,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,204,304,504,603,702,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2112,2113,2114</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1041,7 +933,115 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>104,203,303,501,911,2100,2101,2102</t>
+    <t>104,203,303,502,601,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2100,2101,2102,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2103,2104,2105,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2106,2107,2108,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,204,304,504,604,703,801,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,202,302,506,606,704,801,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,205,307,507,607,706,803,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110,210,310,510,608,708,805,902,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,501,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,203,303,502,601,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,204,304,504,603,702,2109,2110,2111,911</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1557,10 +1557,10 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>37</v>
@@ -2148,14 +2148,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2207,14 +2207,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2266,14 +2266,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2325,14 +2325,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2384,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>76</v>
@@ -2443,14 +2443,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2502,14 +2502,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2561,14 +2561,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>121</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2620,14 +2620,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>122</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2679,14 +2679,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>123</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2738,14 +2738,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2797,14 +2797,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2856,14 +2856,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2915,14 +2915,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>127</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2974,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>128</v>
@@ -3033,14 +3033,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>129</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3092,14 +3092,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3151,14 +3151,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3210,14 +3210,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>132</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3269,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>133</v>
@@ -3328,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>134</v>
@@ -3387,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>135</v>
@@ -3446,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>136</v>
@@ -3505,7 +3505,7 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>137</v>
@@ -3564,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>138</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>139</v>
@@ -3682,14 +3682,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>140</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3741,14 +3741,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>141</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3800,14 +3800,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>142</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3859,7 +3859,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>143</v>
@@ -3918,7 +3918,7 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>144</v>
@@ -3977,7 +3977,7 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>145</v>
@@ -4036,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>146</v>
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>147</v>
@@ -4154,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>148</v>
@@ -4213,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>149</v>
@@ -4272,14 +4272,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>150</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4331,7 +4331,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>151</v>
@@ -4390,7 +4390,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>152</v>
@@ -4449,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>153</v>
@@ -4508,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>154</v>
@@ -4567,7 +4567,7 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>155</v>
@@ -4626,7 +4626,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>156</v>
@@ -4685,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>157</v>
@@ -4744,7 +4744,7 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>158</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>159</v>
@@ -4862,7 +4862,7 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>160</v>
@@ -4921,7 +4921,7 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>161</v>
@@ -4980,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>162</v>
@@ -5039,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>11</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>40</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7F812-D164-42A6-AF21-4073CD7841B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0904FA3-9404-436B-B9BE-4AE32D37F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="269">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -837,10 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>110,210,310,510,608,708,805,902,2109,2110,2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2112,2113,2114</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1042,6 +1038,70 @@
   </si>
   <si>
     <t>107,204,304,504,603,702,2109,2110,2111,911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント1F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント2F</t>
+  </si>
+  <si>
+    <t>イベント3F</t>
+  </si>
+  <si>
+    <t>イベント4F</t>
+  </si>
+  <si>
+    <t>イベント5F</t>
+  </si>
+  <si>
+    <t>イベント6F</t>
+  </si>
+  <si>
+    <t>イベント7F</t>
+  </si>
+  <si>
+    <t>イベント8F</t>
+  </si>
+  <si>
+    <t>イベント9F</t>
+  </si>
+  <si>
+    <t>イベント10F</t>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1228,8 +1288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U116" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U116" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U126" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U126" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1554,17 +1614,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:U116"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y43" sqref="Y43"/>
+      <selection pane="bottomRight" activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
@@ -1673,7 +1734,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>37</v>
@@ -2148,14 +2209,14 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2207,14 +2268,14 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2266,14 +2327,14 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2325,14 +2386,14 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2384,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>76</v>
@@ -2443,14 +2504,14 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2502,14 +2563,14 @@
         <v>6</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2561,14 +2622,14 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>121</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2620,14 +2681,14 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>122</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2679,14 +2740,14 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>123</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2738,14 +2799,14 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2797,14 +2858,14 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2856,14 +2917,14 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2915,14 +2976,14 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>127</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2974,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>128</v>
@@ -3033,14 +3094,14 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>129</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3092,14 +3153,14 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3151,14 +3212,14 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3210,14 +3271,14 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>132</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3269,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>133</v>
@@ -3328,7 +3389,7 @@
         <v>6</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>134</v>
@@ -3387,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>135</v>
@@ -3446,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>136</v>
@@ -3505,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>137</v>
@@ -3564,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>138</v>
@@ -3623,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>139</v>
@@ -3682,14 +3743,14 @@
         <v>6</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>140</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3741,14 +3802,14 @@
         <v>6</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>141</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3800,14 +3861,14 @@
         <v>6</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>142</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3859,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>143</v>
@@ -3918,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>144</v>
@@ -3977,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>145</v>
@@ -4036,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>146</v>
@@ -4095,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>147</v>
@@ -4154,7 +4215,7 @@
         <v>6</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>148</v>
@@ -4213,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>149</v>
@@ -4272,14 +4333,14 @@
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>150</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4331,7 +4392,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>151</v>
@@ -4390,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>152</v>
@@ -4449,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>153</v>
@@ -4508,7 +4569,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>154</v>
@@ -4567,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>155</v>
@@ -4626,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>156</v>
@@ -4685,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>157</v>
@@ -4744,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>158</v>
@@ -4803,7 +4864,7 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>159</v>
@@ -4862,7 +4923,7 @@
         <v>6</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>160</v>
@@ -4921,7 +4982,7 @@
         <v>6</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>161</v>
@@ -4980,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>162</v>
@@ -5039,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>11</v>
@@ -5056,13 +5117,16 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>3001</v>
-      </c>
-      <c r="B62">
+        <v>2000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>50</v>
@@ -5074,16 +5138,36 @@
         <v>50</v>
       </c>
       <c r="H62">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I62">
-        <v>5</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>1003</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>1005</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1" t="s">
@@ -5092,13 +5176,16 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3002</v>
-      </c>
-      <c r="B63">
+        <v>2001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>50</v>
@@ -5110,16 +5197,36 @@
         <v>50</v>
       </c>
       <c r="H63">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>1004</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1005</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="R63" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1" t="s">
@@ -5128,70 +5235,116 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>3003</v>
-      </c>
-      <c r="B64">
+        <v>2002</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2">
         <v>50</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H64">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>1001</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>1005</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="R64" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3004</v>
-      </c>
-      <c r="B65">
+        <v>2003</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F65" s="2">
         <v>50</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H65">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I65">
-        <v>5</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>1001</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>1008</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
+      <c r="R65" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1" t="s">
@@ -5200,34 +5353,57 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3005</v>
-      </c>
-      <c r="B66">
+        <v>2004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2">
         <v>50</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H66">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>1001</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1008</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="R66" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1" t="s">
@@ -5236,34 +5412,57 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3006</v>
-      </c>
-      <c r="B67">
+        <v>2005</v>
+      </c>
+      <c r="B67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2">
         <v>50</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H67">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>1001</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>1008</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1" t="s">
@@ -5272,34 +5471,57 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3007</v>
-      </c>
-      <c r="B68">
+        <v>2006</v>
+      </c>
+      <c r="B68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68">
         <v>7</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2">
         <v>50</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H68">
+        <v>1004</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>1001</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
         <v>1006</v>
       </c>
-      <c r="I68">
-        <v>5</v>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
+      <c r="R68" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1" t="s">
@@ -5308,13 +5530,16 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3008</v>
-      </c>
-      <c r="B69">
+        <v>2007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>50</v>
@@ -5326,16 +5551,36 @@
         <v>50</v>
       </c>
       <c r="H69">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I69">
-        <v>5</v>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>1003</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>1005</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="R69" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
@@ -5344,13 +5589,16 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3009</v>
-      </c>
-      <c r="B70">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70">
         <v>9</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>50</v>
@@ -5362,16 +5610,36 @@
         <v>50</v>
       </c>
       <c r="H70">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I70">
-        <v>5</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>1004</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1005</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="R70" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1" t="s">
@@ -5380,34 +5648,57 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>3010</v>
-      </c>
-      <c r="B71">
+        <v>2009</v>
+      </c>
+      <c r="B71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2">
         <v>50</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H71">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I71">
-        <v>5</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>1001</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>1005</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="R71" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1" t="s">
@@ -5416,10 +5707,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -5447,15 +5738,15 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -5483,15 +5774,15 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -5524,10 +5815,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -5560,10 +5851,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -5596,10 +5887,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -5632,10 +5923,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -5668,10 +5959,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -5704,10 +5995,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5740,10 +6031,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -5776,10 +6067,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -5812,10 +6103,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>3022</v>
+        <v>3012</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -5848,10 +6139,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>3023</v>
+        <v>3013</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -5884,10 +6175,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>3024</v>
+        <v>3014</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5920,10 +6211,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -5956,10 +6247,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3026</v>
+        <v>3016</v>
       </c>
       <c r="B87">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -5992,10 +6283,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3027</v>
+        <v>3017</v>
       </c>
       <c r="B88">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -6028,10 +6319,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3028</v>
+        <v>3018</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -6064,10 +6355,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -6100,10 +6391,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -6136,10 +6427,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="B92">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -6172,10 +6463,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="B93">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -6208,10 +6499,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="B94">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -6244,10 +6535,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="B95">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -6280,10 +6571,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="B96">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -6316,10 +6607,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="B97">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -6352,10 +6643,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="B98">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -6388,10 +6679,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="B99">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -6424,10 +6715,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="B100">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -6460,10 +6751,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="B101">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -6496,10 +6787,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="B102">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -6532,10 +6823,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="B103">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -6568,10 +6859,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="B104">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6604,10 +6895,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="B105">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -6640,10 +6931,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>3045</v>
+        <v>3035</v>
       </c>
       <c r="B106">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -6676,10 +6967,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="B107">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -6712,10 +7003,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>3047</v>
+        <v>3037</v>
       </c>
       <c r="B108">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -6748,10 +7039,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="B109">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -6784,10 +7075,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="B110">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -6820,10 +7111,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B111">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -6856,10 +7147,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B112">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -6892,10 +7183,10 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="B113">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -6928,10 +7219,10 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="B114">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -6964,10 +7255,10 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="B115">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -7000,13 +7291,13 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>5000</v>
-      </c>
-      <c r="B116" t="s">
-        <v>38</v>
+        <v>3045</v>
+      </c>
+      <c r="B116">
+        <v>45</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -7018,35 +7309,395 @@
         <v>50</v>
       </c>
       <c r="H116">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I116">
-        <v>3</v>
-      </c>
-      <c r="J116">
-        <v>1001</v>
-      </c>
-      <c r="K116">
-        <v>3</v>
-      </c>
-      <c r="L116">
-        <v>1006</v>
-      </c>
-      <c r="M116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N116" s="1"/>
-      <c r="O116" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>3046</v>
+      </c>
+      <c r="B117">
+        <v>46</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>50</v>
+      </c>
+      <c r="F117" s="2">
+        <v>50</v>
+      </c>
+      <c r="G117">
+        <v>50</v>
+      </c>
+      <c r="H117">
+        <v>1006</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>3047</v>
+      </c>
+      <c r="B118">
+        <v>47</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118" s="2">
+        <v>50</v>
+      </c>
+      <c r="G118">
+        <v>50</v>
+      </c>
+      <c r="H118">
+        <v>1006</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>3048</v>
+      </c>
+      <c r="B119">
+        <v>48</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>50</v>
+      </c>
+      <c r="F119" s="2">
+        <v>50</v>
+      </c>
+      <c r="G119">
+        <v>50</v>
+      </c>
+      <c r="H119">
+        <v>1006</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>3049</v>
+      </c>
+      <c r="B120">
+        <v>49</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>50</v>
+      </c>
+      <c r="F120" s="2">
+        <v>50</v>
+      </c>
+      <c r="G120">
+        <v>50</v>
+      </c>
+      <c r="H120">
+        <v>1006</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>3050</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121" s="2">
+        <v>50</v>
+      </c>
+      <c r="G121">
+        <v>50</v>
+      </c>
+      <c r="H121">
+        <v>1006</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>3051</v>
+      </c>
+      <c r="B122">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122" s="2">
+        <v>50</v>
+      </c>
+      <c r="G122">
+        <v>50</v>
+      </c>
+      <c r="H122">
+        <v>1006</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>3052</v>
+      </c>
+      <c r="B123">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>50</v>
+      </c>
+      <c r="F123" s="2">
+        <v>50</v>
+      </c>
+      <c r="G123">
+        <v>50</v>
+      </c>
+      <c r="H123">
+        <v>1006</v>
+      </c>
+      <c r="I123">
+        <v>5</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>3053</v>
+      </c>
+      <c r="B124">
+        <v>53</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>50</v>
+      </c>
+      <c r="F124" s="2">
+        <v>50</v>
+      </c>
+      <c r="G124">
+        <v>50</v>
+      </c>
+      <c r="H124">
+        <v>1006</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>3054</v>
+      </c>
+      <c r="B125">
+        <v>54</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>50</v>
+      </c>
+      <c r="F125" s="2">
+        <v>50</v>
+      </c>
+      <c r="G125">
+        <v>50</v>
+      </c>
+      <c r="H125">
+        <v>1006</v>
+      </c>
+      <c r="I125">
+        <v>5</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>5000</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" s="2">
+        <v>50</v>
+      </c>
+      <c r="G126">
+        <v>50</v>
+      </c>
+      <c r="H126">
+        <v>1004</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>1001</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>1006</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7197,10 +7848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47310B-9803-49F4-9FFA-CC1E88415CEA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7256,6 +7907,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0904FA3-9404-436B-B9BE-4AE32D37F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108E1C1-C1A4-410C-9A62-852766D7E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17364" windowHeight="10524" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="279">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1102,6 +1102,46 @@
   </si>
   <si>
     <t>2002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2109,2110,2111,2000,2001,2002,2003,2004,2005,2006,2007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>698,698,698,698,797,797,797,797</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>703,703,703,703,802,802,802,802</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>708,708,708,708,807,807,807,807,515,515,515</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>713,713,713,713,812,812,812,812,520,520,520</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793,793</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>730,730,730,730,829,829,829,829,537,537,537</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>735,735,735,735,834,834,834,834,542,542,542</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>740,740,740,740,839,839,839,839,547,547,547</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>745,745,745,745,844,844,844,844,552,552,552</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1617,27 +1657,27 @@
   <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P65" sqref="P65"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.75" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1746,7 +1786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1802,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1844,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1901,7 +1941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1950,7 +1990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1999,7 +2039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>105</v>
       </c>
@@ -2041,7 +2081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>106</v>
       </c>
@@ -2081,7 +2121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>107</v>
       </c>
@@ -2125,7 +2165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>108</v>
       </c>
@@ -2165,7 +2205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2224,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2283,7 +2323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2342,7 +2382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2401,7 +2441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2460,7 +2500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2519,7 +2559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2578,7 +2618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -2637,7 +2677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1008</v>
       </c>
@@ -2696,7 +2736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1009</v>
       </c>
@@ -2755,7 +2795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1010</v>
       </c>
@@ -2814,7 +2854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1011</v>
       </c>
@@ -2873,7 +2913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1012</v>
       </c>
@@ -2932,7 +2972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1013</v>
       </c>
@@ -2991,7 +3031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1014</v>
       </c>
@@ -3050,7 +3090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1015</v>
       </c>
@@ -3109,7 +3149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1016</v>
       </c>
@@ -3168,7 +3208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -3227,7 +3267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1018</v>
       </c>
@@ -3286,7 +3326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1019</v>
       </c>
@@ -3345,7 +3385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1020</v>
       </c>
@@ -3404,7 +3444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -3463,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -3522,7 +3562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -3581,7 +3621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -3640,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -3699,7 +3739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -3758,7 +3798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1027</v>
       </c>
@@ -3817,7 +3857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1028</v>
       </c>
@@ -3876,7 +3916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1029</v>
       </c>
@@ -3935,7 +3975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1030</v>
       </c>
@@ -3994,7 +4034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1031</v>
       </c>
@@ -4053,7 +4093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1032</v>
       </c>
@@ -4112,7 +4152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1033</v>
       </c>
@@ -4171,7 +4211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1034</v>
       </c>
@@ -4230,7 +4270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1035</v>
       </c>
@@ -4289,7 +4329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1036</v>
       </c>
@@ -4348,7 +4388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1037</v>
       </c>
@@ -4407,7 +4447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1038</v>
       </c>
@@ -4466,7 +4506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1039</v>
       </c>
@@ -4525,7 +4565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1040</v>
       </c>
@@ -4584,7 +4624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1041</v>
       </c>
@@ -4643,7 +4683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1042</v>
       </c>
@@ -4702,7 +4742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1043</v>
       </c>
@@ -4761,7 +4801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1044</v>
       </c>
@@ -4820,7 +4860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1045</v>
       </c>
@@ -4879,7 +4919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1046</v>
       </c>
@@ -4938,7 +4978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1047</v>
       </c>
@@ -4997,7 +5037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1048</v>
       </c>
@@ -5056,7 +5096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1049</v>
       </c>
@@ -5115,7 +5155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -5138,19 +5178,19 @@
         <v>50</v>
       </c>
       <c r="H62">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M62">
         <v>3</v>
@@ -5159,14 +5199,14 @@
         <v>6</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>260</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -5174,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2001</v>
       </c>
@@ -5197,19 +5237,19 @@
         <v>50</v>
       </c>
       <c r="H63">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="I63">
         <v>3</v>
       </c>
       <c r="J63">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M63">
         <v>3</v>
@@ -5218,14 +5258,14 @@
         <v>6</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>268</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -5233,7 +5273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -5256,19 +5296,19 @@
         <v>60</v>
       </c>
       <c r="H64">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M64">
         <v>3</v>
@@ -5277,14 +5317,14 @@
         <v>6</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>261</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -5292,7 +5332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2003</v>
       </c>
@@ -5315,19 +5355,19 @@
         <v>65</v>
       </c>
       <c r="H65">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="M65">
         <v>3</v>
@@ -5336,14 +5376,14 @@
         <v>6</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>262</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -5351,7 +5391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2004</v>
       </c>
@@ -5374,19 +5414,19 @@
         <v>60</v>
       </c>
       <c r="H66">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I66">
         <v>3</v>
       </c>
       <c r="J66">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="M66">
         <v>3</v>
@@ -5395,14 +5435,14 @@
         <v>6</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="7" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -5410,7 +5450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -5433,19 +5473,19 @@
         <v>80</v>
       </c>
       <c r="H67">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I67">
         <v>3</v>
       </c>
       <c r="J67">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="M67">
         <v>3</v>
@@ -5454,14 +5494,14 @@
         <v>6</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -5469,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -5492,19 +5532,19 @@
         <v>90</v>
       </c>
       <c r="H68">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
       <c r="J68">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="M68">
         <v>3</v>
@@ -5513,14 +5553,14 @@
         <v>6</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>265</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -5528,7 +5568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2007</v>
       </c>
@@ -5551,19 +5591,19 @@
         <v>50</v>
       </c>
       <c r="H69">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="I69">
         <v>3</v>
       </c>
       <c r="J69">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -5572,14 +5612,14 @@
         <v>6</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>266</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -5587,7 +5627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2008</v>
       </c>
@@ -5610,19 +5650,19 @@
         <v>50</v>
       </c>
       <c r="H70">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="I70">
         <v>3</v>
       </c>
       <c r="J70">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -5631,14 +5671,14 @@
         <v>6</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>267</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -5646,7 +5686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2009</v>
       </c>
@@ -5669,19 +5709,19 @@
         <v>60</v>
       </c>
       <c r="H71">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M71">
         <v>3</v>
@@ -5690,14 +5730,14 @@
         <v>6</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="7" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -5705,7 +5745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3001</v>
       </c>
@@ -5741,7 +5781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3002</v>
       </c>
@@ -5777,7 +5817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3003</v>
       </c>
@@ -5813,7 +5853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3004</v>
       </c>
@@ -5849,7 +5889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3005</v>
       </c>
@@ -5885,7 +5925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3006</v>
       </c>
@@ -5921,7 +5961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3007</v>
       </c>
@@ -5957,7 +5997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3008</v>
       </c>
@@ -5993,7 +6033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3009</v>
       </c>
@@ -6029,7 +6069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3010</v>
       </c>
@@ -6065,7 +6105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3011</v>
       </c>
@@ -6101,7 +6141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3012</v>
       </c>
@@ -6137,7 +6177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3013</v>
       </c>
@@ -6173,7 +6213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3014</v>
       </c>
@@ -6209,7 +6249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3015</v>
       </c>
@@ -6245,7 +6285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3016</v>
       </c>
@@ -6281,7 +6321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3017</v>
       </c>
@@ -6317,7 +6357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3018</v>
       </c>
@@ -6353,7 +6393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3019</v>
       </c>
@@ -6389,7 +6429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3020</v>
       </c>
@@ -6425,7 +6465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3021</v>
       </c>
@@ -6461,7 +6501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3022</v>
       </c>
@@ -6497,7 +6537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3023</v>
       </c>
@@ -6533,7 +6573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3024</v>
       </c>
@@ -6569,7 +6609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3025</v>
       </c>
@@ -6605,7 +6645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3026</v>
       </c>
@@ -6641,7 +6681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3027</v>
       </c>
@@ -6677,7 +6717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3028</v>
       </c>
@@ -6713,7 +6753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>3029</v>
       </c>
@@ -6749,7 +6789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>3030</v>
       </c>
@@ -6785,7 +6825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3031</v>
       </c>
@@ -6821,7 +6861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>3032</v>
       </c>
@@ -6857,7 +6897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3033</v>
       </c>
@@ -6893,7 +6933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>3034</v>
       </c>
@@ -6929,7 +6969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>3035</v>
       </c>
@@ -6965,7 +7005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>3036</v>
       </c>
@@ -7001,7 +7041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>3037</v>
       </c>
@@ -7037,7 +7077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>3038</v>
       </c>
@@ -7073,7 +7113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3039</v>
       </c>
@@ -7109,7 +7149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3040</v>
       </c>
@@ -7145,7 +7185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>3041</v>
       </c>
@@ -7181,7 +7221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>3042</v>
       </c>
@@ -7217,7 +7257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>3043</v>
       </c>
@@ -7253,7 +7293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>3044</v>
       </c>
@@ -7289,7 +7329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>3045</v>
       </c>
@@ -7325,7 +7365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>3046</v>
       </c>
@@ -7361,7 +7401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>3047</v>
       </c>
@@ -7397,7 +7437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>3048</v>
       </c>
@@ -7433,7 +7473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>3049</v>
       </c>
@@ -7469,7 +7509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>3050</v>
       </c>
@@ -7505,7 +7545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>3051</v>
       </c>
@@ -7541,7 +7581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>3052</v>
       </c>
@@ -7577,7 +7617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>3053</v>
       </c>
@@ -7613,7 +7653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>3054</v>
       </c>
@@ -7649,7 +7689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5000</v>
       </c>
@@ -7719,122 +7759,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7854,12 +7894,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7867,7 +7907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7875,7 +7915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7883,7 +7923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7891,7 +7931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7899,7 +7939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7907,7 +7947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108E1C1-C1A4-410C-9A62-852766D7E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BCDFF-6A52-421A-9E79-3EEBB792FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17364" windowHeight="10524" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19356" windowHeight="10200" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1105,10 +1105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2109,2110,2111,2000,2001,2002,2003,2004,2005,2006,2007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>698,698,698,698,797,797,797,797</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1142,6 +1138,10 @@
   </si>
   <si>
     <t>745,745,745,745,844,844,844,844,552,552,552</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2109,2110,2111,101,201,301,501,601,701,801,901</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1657,10 +1657,10 @@
   <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5199,14 +5199,14 @@
         <v>6</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>260</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -5258,14 +5258,14 @@
         <v>6</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>268</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -5317,14 +5317,14 @@
         <v>6</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>261</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -5376,14 +5376,14 @@
         <v>6</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>262</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -5435,14 +5435,14 @@
         <v>6</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -5494,14 +5494,14 @@
         <v>6</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -5553,14 +5553,14 @@
         <v>6</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>265</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -5612,14 +5612,14 @@
         <v>6</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>266</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -5671,14 +5671,14 @@
         <v>6</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>267</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -5730,14 +5730,14 @@
         <v>6</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BCDFF-6A52-421A-9E79-3EEBB792FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544BA7F-A0B9-4388-B196-647847725D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19356" windowHeight="10200" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1141,7 +1141,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2109,2110,2111,101,201,301,501,601,701,801,901</t>
+    <t>2109,2110,2111,101,201,301,501,601,701,801,901,912</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1657,10 +1657,10 @@
   <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544BA7F-A0B9-4388-B196-647847725D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73B3E7-0BA0-427B-B421-D5C59B0D9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="281">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1143,6 +1143,13 @@
   <si>
     <t>2109,2110,2111,101,201,301,501,601,701,801,901,912</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001</t>
   </si>
 </sst>
 </file>
@@ -1657,27 +1664,27 @@
   <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72:G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" customWidth="1"/>
+    <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>101</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>105</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>106</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>107</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>108</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2264,7 +2271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2382,7 +2389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2618,7 +2625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1008</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1009</v>
       </c>
@@ -2795,7 +2802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1010</v>
       </c>
@@ -2854,7 +2861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1011</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1012</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1013</v>
       </c>
@@ -3031,7 +3038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1014</v>
       </c>
@@ -3090,7 +3097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1015</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1016</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -3267,7 +3274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1018</v>
       </c>
@@ -3326,7 +3333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1019</v>
       </c>
@@ -3385,7 +3392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1020</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1021</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1022</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1023</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1025</v>
       </c>
@@ -3739,7 +3746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1026</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1027</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1028</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1029</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1030</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1031</v>
       </c>
@@ -4093,7 +4100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1032</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1033</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1034</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1035</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1036</v>
       </c>
@@ -4388,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1037</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1038</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1039</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1040</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1041</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1042</v>
       </c>
@@ -4742,7 +4749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1043</v>
       </c>
@@ -4801,7 +4808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1044</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1045</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1046</v>
       </c>
@@ -4978,7 +4985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1047</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1048</v>
       </c>
@@ -5096,7 +5103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1049</v>
       </c>
@@ -5155,7 +5162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -5214,7 +5221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2001</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2003</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2004</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -5509,7 +5516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2007</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2008</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2009</v>
       </c>
@@ -5745,7 +5752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3001</v>
       </c>
@@ -5756,13 +5763,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F72" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1006</v>
@@ -5770,7 +5777,9 @@
       <c r="I72">
         <v>5</v>
       </c>
-      <c r="N72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -5781,7 +5790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3002</v>
       </c>
@@ -5792,13 +5801,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F73" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1006</v>
@@ -5806,7 +5815,9 @@
       <c r="I73">
         <v>5</v>
       </c>
-      <c r="N73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -5817,7 +5828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3003</v>
       </c>
@@ -5828,13 +5839,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1006</v>
@@ -5842,7 +5853,9 @@
       <c r="I74">
         <v>5</v>
       </c>
-      <c r="N74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -5853,7 +5866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3004</v>
       </c>
@@ -5864,13 +5877,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1006</v>
@@ -5878,7 +5891,9 @@
       <c r="I75">
         <v>5</v>
       </c>
-      <c r="N75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -5889,7 +5904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3005</v>
       </c>
@@ -5900,13 +5915,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F76" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1006</v>
@@ -5914,7 +5929,9 @@
       <c r="I76">
         <v>5</v>
       </c>
-      <c r="N76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -5925,7 +5942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3006</v>
       </c>
@@ -5936,13 +5953,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1006</v>
@@ -5950,7 +5967,9 @@
       <c r="I77">
         <v>5</v>
       </c>
-      <c r="N77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -5961,7 +5980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3007</v>
       </c>
@@ -5972,13 +5991,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F78" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1006</v>
@@ -5986,7 +6005,9 @@
       <c r="I78">
         <v>5</v>
       </c>
-      <c r="N78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -5997,7 +6018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3008</v>
       </c>
@@ -6008,13 +6029,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1006</v>
@@ -6022,7 +6043,9 @@
       <c r="I79">
         <v>5</v>
       </c>
-      <c r="N79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -6033,7 +6056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3009</v>
       </c>
@@ -6044,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F80" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1006</v>
@@ -6058,7 +6081,9 @@
       <c r="I80">
         <v>5</v>
       </c>
-      <c r="N80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -6069,7 +6094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3010</v>
       </c>
@@ -6080,13 +6105,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F81" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1006</v>
@@ -6094,7 +6119,9 @@
       <c r="I81">
         <v>5</v>
       </c>
-      <c r="N81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -6105,7 +6132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3011</v>
       </c>
@@ -6116,13 +6143,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F82" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1006</v>
@@ -6130,7 +6157,9 @@
       <c r="I82">
         <v>5</v>
       </c>
-      <c r="N82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -6141,7 +6170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3012</v>
       </c>
@@ -6152,13 +6181,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F83" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>1006</v>
@@ -6166,7 +6195,9 @@
       <c r="I83">
         <v>5</v>
       </c>
-      <c r="N83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -6177,7 +6208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3013</v>
       </c>
@@ -6188,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1006</v>
@@ -6202,7 +6233,9 @@
       <c r="I84">
         <v>5</v>
       </c>
-      <c r="N84" s="1"/>
+      <c r="N84" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -6213,7 +6246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3014</v>
       </c>
@@ -6224,13 +6257,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F85" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1006</v>
@@ -6238,7 +6271,9 @@
       <c r="I85">
         <v>5</v>
       </c>
-      <c r="N85" s="1"/>
+      <c r="N85" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -6249,7 +6284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3015</v>
       </c>
@@ -6260,13 +6295,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1006</v>
@@ -6274,7 +6309,9 @@
       <c r="I86">
         <v>5</v>
       </c>
-      <c r="N86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -6285,7 +6322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3016</v>
       </c>
@@ -6296,13 +6333,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1006</v>
@@ -6310,7 +6347,9 @@
       <c r="I87">
         <v>5</v>
       </c>
-      <c r="N87" s="1"/>
+      <c r="N87" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -6321,7 +6360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3017</v>
       </c>
@@ -6332,13 +6371,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F88" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1006</v>
@@ -6346,7 +6385,9 @@
       <c r="I88">
         <v>5</v>
       </c>
-      <c r="N88" s="1"/>
+      <c r="N88" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -6357,7 +6398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3018</v>
       </c>
@@ -6368,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>1006</v>
@@ -6382,7 +6423,9 @@
       <c r="I89">
         <v>5</v>
       </c>
-      <c r="N89" s="1"/>
+      <c r="N89" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -6393,7 +6436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3019</v>
       </c>
@@ -6404,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1006</v>
@@ -6418,7 +6461,9 @@
       <c r="I90">
         <v>5</v>
       </c>
-      <c r="N90" s="1"/>
+      <c r="N90" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -6429,7 +6474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3020</v>
       </c>
@@ -6440,13 +6485,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F91" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1006</v>
@@ -6454,7 +6499,9 @@
       <c r="I91">
         <v>5</v>
       </c>
-      <c r="N91" s="1"/>
+      <c r="N91" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -6465,7 +6512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3021</v>
       </c>
@@ -6476,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1006</v>
@@ -6490,7 +6537,9 @@
       <c r="I92">
         <v>5</v>
       </c>
-      <c r="N92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -6501,7 +6550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3022</v>
       </c>
@@ -6512,13 +6561,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1006</v>
@@ -6526,7 +6575,9 @@
       <c r="I93">
         <v>5</v>
       </c>
-      <c r="N93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -6537,7 +6588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>3023</v>
       </c>
@@ -6548,13 +6599,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1006</v>
@@ -6562,7 +6613,9 @@
       <c r="I94">
         <v>5</v>
       </c>
-      <c r="N94" s="1"/>
+      <c r="N94" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -6573,7 +6626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>3024</v>
       </c>
@@ -6584,13 +6637,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1006</v>
@@ -6598,7 +6651,9 @@
       <c r="I95">
         <v>5</v>
       </c>
-      <c r="N95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -6609,7 +6664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3025</v>
       </c>
@@ -6620,13 +6675,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1006</v>
@@ -6634,7 +6689,9 @@
       <c r="I96">
         <v>5</v>
       </c>
-      <c r="N96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -6645,7 +6702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>3026</v>
       </c>
@@ -6656,13 +6713,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1006</v>
@@ -6670,7 +6727,9 @@
       <c r="I97">
         <v>5</v>
       </c>
-      <c r="N97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6681,7 +6740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>3027</v>
       </c>
@@ -6692,13 +6751,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1006</v>
@@ -6706,7 +6765,9 @@
       <c r="I98">
         <v>5</v>
       </c>
-      <c r="N98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6717,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>3028</v>
       </c>
@@ -6728,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>1006</v>
@@ -6742,7 +6803,9 @@
       <c r="I99">
         <v>5</v>
       </c>
-      <c r="N99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -6753,7 +6816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>3029</v>
       </c>
@@ -6764,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F100" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1006</v>
@@ -6778,7 +6841,9 @@
       <c r="I100">
         <v>5</v>
       </c>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -6789,7 +6854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>3030</v>
       </c>
@@ -6800,13 +6865,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G101">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1006</v>
@@ -6814,7 +6879,9 @@
       <c r="I101">
         <v>5</v>
       </c>
-      <c r="N101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -6825,7 +6892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>3031</v>
       </c>
@@ -6836,13 +6903,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G102">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1006</v>
@@ -6850,7 +6917,9 @@
       <c r="I102">
         <v>5</v>
       </c>
-      <c r="N102" s="1"/>
+      <c r="N102" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -6861,7 +6930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>3032</v>
       </c>
@@ -6872,13 +6941,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1006</v>
@@ -6886,7 +6955,9 @@
       <c r="I103">
         <v>5</v>
       </c>
-      <c r="N103" s="1"/>
+      <c r="N103" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -6897,7 +6968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>3033</v>
       </c>
@@ -6908,13 +6979,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1006</v>
@@ -6922,7 +6993,9 @@
       <c r="I104">
         <v>5</v>
       </c>
-      <c r="N104" s="1"/>
+      <c r="N104" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -6933,7 +7006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>3034</v>
       </c>
@@ -6944,13 +7017,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F105" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1006</v>
@@ -6958,7 +7031,9 @@
       <c r="I105">
         <v>5</v>
       </c>
-      <c r="N105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -6969,7 +7044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>3035</v>
       </c>
@@ -6980,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G106">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1006</v>
@@ -6994,7 +7069,9 @@
       <c r="I106">
         <v>5</v>
       </c>
-      <c r="N106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -7005,7 +7082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>3036</v>
       </c>
@@ -7016,13 +7093,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1006</v>
@@ -7030,7 +7107,9 @@
       <c r="I107">
         <v>5</v>
       </c>
-      <c r="N107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -7041,7 +7120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>3037</v>
       </c>
@@ -7052,13 +7131,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1006</v>
@@ -7066,7 +7145,9 @@
       <c r="I108">
         <v>5</v>
       </c>
-      <c r="N108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -7077,7 +7158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>3038</v>
       </c>
@@ -7088,13 +7169,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G109">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1006</v>
@@ -7102,7 +7183,9 @@
       <c r="I109">
         <v>5</v>
       </c>
-      <c r="N109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -7113,7 +7196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>3039</v>
       </c>
@@ -7124,13 +7207,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F110" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>1006</v>
@@ -7138,7 +7221,9 @@
       <c r="I110">
         <v>5</v>
       </c>
-      <c r="N110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -7149,7 +7234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>3040</v>
       </c>
@@ -7160,13 +7245,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F111" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1006</v>
@@ -7174,7 +7259,9 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="N111" s="1"/>
+      <c r="N111" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -7185,7 +7272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>3041</v>
       </c>
@@ -7196,13 +7283,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F112" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1006</v>
@@ -7210,7 +7297,9 @@
       <c r="I112">
         <v>5</v>
       </c>
-      <c r="N112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -7221,7 +7310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>3042</v>
       </c>
@@ -7232,13 +7321,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F113" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1006</v>
@@ -7246,7 +7335,9 @@
       <c r="I113">
         <v>5</v>
       </c>
-      <c r="N113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -7257,7 +7348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>3043</v>
       </c>
@@ -7268,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G114">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1006</v>
@@ -7282,7 +7373,9 @@
       <c r="I114">
         <v>5</v>
       </c>
-      <c r="N114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -7293,7 +7386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>3044</v>
       </c>
@@ -7304,13 +7397,13 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G115">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1006</v>
@@ -7318,7 +7411,9 @@
       <c r="I115">
         <v>5</v>
       </c>
-      <c r="N115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -7329,7 +7424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>3045</v>
       </c>
@@ -7340,13 +7435,13 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F116" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G116">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1006</v>
@@ -7354,7 +7449,9 @@
       <c r="I116">
         <v>5</v>
       </c>
-      <c r="N116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -7365,7 +7462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>3046</v>
       </c>
@@ -7376,13 +7473,13 @@
         <v>6</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G117">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>1006</v>
@@ -7390,7 +7487,9 @@
       <c r="I117">
         <v>5</v>
       </c>
-      <c r="N117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -7401,7 +7500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>3047</v>
       </c>
@@ -7412,13 +7511,13 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F118" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G118">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>1006</v>
@@ -7426,7 +7525,9 @@
       <c r="I118">
         <v>5</v>
       </c>
-      <c r="N118" s="1"/>
+      <c r="N118" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -7437,7 +7538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>3048</v>
       </c>
@@ -7448,13 +7549,13 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G119">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1006</v>
@@ -7462,7 +7563,9 @@
       <c r="I119">
         <v>5</v>
       </c>
-      <c r="N119" s="1"/>
+      <c r="N119" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -7473,7 +7576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>3049</v>
       </c>
@@ -7484,13 +7587,13 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F120" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>1006</v>
@@ -7498,7 +7601,9 @@
       <c r="I120">
         <v>5</v>
       </c>
-      <c r="N120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -7509,7 +7614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>3050</v>
       </c>
@@ -7520,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F121" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1006</v>
@@ -7534,7 +7639,9 @@
       <c r="I121">
         <v>5</v>
       </c>
-      <c r="N121" s="1"/>
+      <c r="N121" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -7545,7 +7652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>3051</v>
       </c>
@@ -7556,13 +7663,13 @@
         <v>6</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G122">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1006</v>
@@ -7570,7 +7677,9 @@
       <c r="I122">
         <v>5</v>
       </c>
-      <c r="N122" s="1"/>
+      <c r="N122" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -7581,7 +7690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>3052</v>
       </c>
@@ -7592,13 +7701,13 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F123" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G123">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>1006</v>
@@ -7606,7 +7715,9 @@
       <c r="I123">
         <v>5</v>
       </c>
-      <c r="N123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -7617,7 +7728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>3053</v>
       </c>
@@ -7628,13 +7739,13 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F124" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1006</v>
@@ -7642,7 +7753,9 @@
       <c r="I124">
         <v>5</v>
       </c>
-      <c r="N124" s="1"/>
+      <c r="N124" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -7653,7 +7766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>3054</v>
       </c>
@@ -7664,13 +7777,13 @@
         <v>6</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1006</v>
@@ -7678,7 +7791,9 @@
       <c r="I125">
         <v>5</v>
       </c>
-      <c r="N125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -7689,7 +7804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>5000</v>
       </c>
@@ -7703,7 +7818,7 @@
         <v>50</v>
       </c>
       <c r="F126" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G126">
         <v>50</v>
@@ -7759,122 +7874,122 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7894,12 +8009,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7907,7 +8022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7915,7 +8030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7923,7 +8038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7931,7 +8046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7939,7 +8054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7947,7 +8062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73B3E7-0BA0-427B-B421-D5C59B0D9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6C010-56E0-4ABC-B79F-9B5C7A5FED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -1667,7 +1667,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72:G125"/>
+      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5763,13 +5763,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2">
         <v>100</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H72">
         <v>1006</v>
@@ -5801,13 +5801,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2">
         <v>100</v>
       </c>
       <c r="G73">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H73">
         <v>1006</v>
@@ -5839,13 +5839,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2">
         <v>100</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H74">
         <v>1006</v>
@@ -5877,13 +5877,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2">
         <v>100</v>
       </c>
       <c r="G75">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H75">
         <v>1006</v>
@@ -5915,13 +5915,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H76">
         <v>1006</v>
@@ -5953,13 +5953,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H77">
         <v>1006</v>
@@ -5991,13 +5991,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H78">
         <v>1006</v>
@@ -6029,13 +6029,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H79">
         <v>1006</v>
@@ -6067,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H80">
         <v>1006</v>
@@ -6105,13 +6105,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2">
         <v>100</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H81">
         <v>1006</v>
@@ -6143,13 +6143,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H82">
         <v>1006</v>
@@ -6181,13 +6181,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2">
         <v>100</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H83">
         <v>1006</v>
@@ -6219,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2">
         <v>100</v>
       </c>
       <c r="G84">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H84">
         <v>1006</v>
@@ -6257,13 +6257,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2">
         <v>100</v>
       </c>
       <c r="G85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H85">
         <v>1006</v>
@@ -6295,13 +6295,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2">
         <v>100</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H86">
         <v>1006</v>
@@ -6333,13 +6333,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2">
         <v>100</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H87">
         <v>1006</v>
@@ -6371,13 +6371,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2">
         <v>100</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H88">
         <v>1006</v>
@@ -6409,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2">
         <v>100</v>
       </c>
       <c r="G89">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H89">
         <v>1006</v>
@@ -6447,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2">
         <v>100</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H90">
         <v>1006</v>
@@ -6485,13 +6485,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2">
         <v>100</v>
       </c>
       <c r="G91">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H91">
         <v>1006</v>
@@ -6523,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H92">
         <v>1006</v>
@@ -6561,13 +6561,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2">
         <v>100</v>
       </c>
       <c r="G93">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H93">
         <v>1006</v>
@@ -6599,13 +6599,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2">
         <v>100</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H94">
         <v>1006</v>
@@ -6637,13 +6637,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2">
         <v>100</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H95">
         <v>1006</v>
@@ -6675,13 +6675,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2">
         <v>100</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H96">
         <v>1006</v>
@@ -6713,13 +6713,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2">
         <v>100</v>
       </c>
       <c r="G97">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H97">
         <v>1006</v>
@@ -6751,13 +6751,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2">
         <v>100</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H98">
         <v>1006</v>
@@ -6789,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2">
         <v>100</v>
       </c>
       <c r="G99">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H99">
         <v>1006</v>
@@ -6827,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2">
         <v>100</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H100">
         <v>1006</v>
@@ -6865,13 +6865,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2">
         <v>100</v>
       </c>
       <c r="G101">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H101">
         <v>1006</v>
@@ -6903,13 +6903,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2">
         <v>100</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H102">
         <v>1006</v>
@@ -6941,13 +6941,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2">
         <v>100</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H103">
         <v>1006</v>
@@ -6979,13 +6979,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2">
         <v>100</v>
       </c>
       <c r="G104">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H104">
         <v>1006</v>
@@ -7017,13 +7017,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H105">
         <v>1006</v>
@@ -7055,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H106">
         <v>1006</v>
@@ -7093,13 +7093,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2">
         <v>100</v>
       </c>
       <c r="G107">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H107">
         <v>1006</v>
@@ -7131,13 +7131,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2">
         <v>100</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H108">
         <v>1006</v>
@@ -7169,13 +7169,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2">
         <v>100</v>
       </c>
       <c r="G109">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H109">
         <v>1006</v>
@@ -7207,13 +7207,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2">
         <v>100</v>
       </c>
       <c r="G110">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H110">
         <v>1006</v>
@@ -7245,13 +7245,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2">
         <v>100</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H111">
         <v>1006</v>
@@ -7283,13 +7283,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2">
         <v>100</v>
       </c>
       <c r="G112">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H112">
         <v>1006</v>
@@ -7321,13 +7321,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2">
         <v>100</v>
       </c>
       <c r="G113">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H113">
         <v>1006</v>
@@ -7359,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2">
         <v>100</v>
       </c>
       <c r="G114">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H114">
         <v>1006</v>
@@ -7397,13 +7397,13 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2">
         <v>100</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H115">
         <v>1006</v>
@@ -7435,13 +7435,13 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2">
         <v>100</v>
       </c>
       <c r="G116">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H116">
         <v>1006</v>
@@ -7473,13 +7473,13 @@
         <v>6</v>
       </c>
       <c r="E117">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2">
         <v>100</v>
       </c>
       <c r="G117">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H117">
         <v>1006</v>
@@ -7511,13 +7511,13 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2">
         <v>100</v>
       </c>
       <c r="G118">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H118">
         <v>1006</v>
@@ -7549,13 +7549,13 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2">
         <v>100</v>
       </c>
       <c r="G119">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H119">
         <v>1006</v>
@@ -7587,13 +7587,13 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2">
         <v>100</v>
       </c>
       <c r="G120">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H120">
         <v>1006</v>
@@ -7625,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F121" s="2">
         <v>100</v>
       </c>
       <c r="G121">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H121">
         <v>1006</v>
@@ -7663,13 +7663,13 @@
         <v>6</v>
       </c>
       <c r="E122">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2">
         <v>100</v>
       </c>
       <c r="G122">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H122">
         <v>1006</v>
@@ -7701,13 +7701,13 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2">
         <v>100</v>
       </c>
       <c r="G123">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H123">
         <v>1006</v>
@@ -7739,13 +7739,13 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2">
         <v>100</v>
       </c>
       <c r="G124">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H124">
         <v>1006</v>
@@ -7777,13 +7777,13 @@
         <v>6</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2">
         <v>100</v>
       </c>
       <c r="G125">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H125">
         <v>1006</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6C010-56E0-4ABC-B79F-9B5C7A5FED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA4AF7-51B7-46C5-9995-BBD36A29C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -1664,10 +1664,10 @@
   <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5763,13 +5763,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F72" s="2">
         <v>100</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1006</v>
@@ -5801,13 +5801,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F73" s="2">
         <v>100</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1006</v>
@@ -5839,13 +5839,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2">
         <v>100</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1006</v>
@@ -5877,13 +5877,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2">
         <v>100</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1006</v>
@@ -5915,13 +5915,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1006</v>
@@ -5953,13 +5953,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1006</v>
@@ -5991,13 +5991,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1006</v>
@@ -6029,13 +6029,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1006</v>
@@ -6067,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F80" s="2">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1006</v>
@@ -6105,13 +6105,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F81" s="2">
         <v>100</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1006</v>
@@ -6143,13 +6143,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F82" s="2">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1006</v>
@@ -6181,13 +6181,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F83" s="2">
         <v>100</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>1006</v>
@@ -6219,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2">
         <v>100</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1006</v>
@@ -6257,13 +6257,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F85" s="2">
         <v>100</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1006</v>
@@ -6295,13 +6295,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2">
         <v>100</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1006</v>
@@ -6333,13 +6333,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2">
         <v>100</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1006</v>
@@ -6371,13 +6371,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F88" s="2">
         <v>100</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1006</v>
@@ -6409,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2">
         <v>100</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>1006</v>
@@ -6447,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2">
         <v>100</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1006</v>
@@ -6485,13 +6485,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F91" s="2">
         <v>100</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1006</v>
@@ -6523,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1006</v>
@@ -6561,13 +6561,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2">
         <v>100</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1006</v>
@@ -6599,13 +6599,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2">
         <v>100</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1006</v>
@@ -6637,13 +6637,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2">
         <v>100</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1006</v>
@@ -6675,13 +6675,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2">
         <v>100</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1006</v>
@@ -6713,13 +6713,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2">
         <v>100</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1006</v>
@@ -6751,13 +6751,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2">
         <v>100</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1006</v>
@@ -6789,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2">
         <v>100</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>1006</v>
@@ -6827,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F100" s="2">
         <v>100</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1006</v>
@@ -6865,13 +6865,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2">
         <v>100</v>
       </c>
       <c r="G101">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1006</v>
@@ -6903,13 +6903,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2">
         <v>100</v>
       </c>
       <c r="G102">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1006</v>
@@ -6941,13 +6941,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2">
         <v>100</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1006</v>
@@ -6979,13 +6979,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2">
         <v>100</v>
       </c>
       <c r="G104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1006</v>
@@ -7017,13 +7017,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
       </c>
       <c r="G105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1006</v>
@@ -7055,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
       </c>
       <c r="G106">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1006</v>
@@ -7093,13 +7093,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2">
         <v>100</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1006</v>
@@ -7131,13 +7131,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2">
         <v>100</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1006</v>
@@ -7169,13 +7169,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2">
         <v>100</v>
       </c>
       <c r="G109">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1006</v>
@@ -7207,13 +7207,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F110" s="2">
         <v>100</v>
       </c>
       <c r="G110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>1006</v>
@@ -7245,13 +7245,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F111" s="2">
         <v>100</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1006</v>
@@ -7283,13 +7283,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F112" s="2">
         <v>100</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1006</v>
@@ -7321,13 +7321,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F113" s="2">
         <v>100</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1006</v>
@@ -7359,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2">
         <v>100</v>
       </c>
       <c r="G114">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1006</v>
@@ -7397,13 +7397,13 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2">
         <v>100</v>
       </c>
       <c r="G115">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1006</v>
@@ -7435,13 +7435,13 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F116" s="2">
         <v>100</v>
       </c>
       <c r="G116">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1006</v>
@@ -7473,13 +7473,13 @@
         <v>6</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2">
         <v>100</v>
       </c>
       <c r="G117">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>1006</v>
@@ -7511,13 +7511,13 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F118" s="2">
         <v>100</v>
       </c>
       <c r="G118">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>1006</v>
@@ -7549,13 +7549,13 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2">
         <v>100</v>
       </c>
       <c r="G119">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1006</v>
@@ -7587,13 +7587,13 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F120" s="2">
         <v>100</v>
       </c>
       <c r="G120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>1006</v>
@@ -7625,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F121" s="2">
         <v>100</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1006</v>
@@ -7663,13 +7663,13 @@
         <v>6</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F122" s="2">
         <v>100</v>
       </c>
       <c r="G122">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1006</v>
@@ -7701,13 +7701,13 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F123" s="2">
         <v>100</v>
       </c>
       <c r="G123">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>1006</v>
@@ -7739,13 +7739,13 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F124" s="2">
         <v>100</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1006</v>
@@ -7777,13 +7777,13 @@
         <v>6</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2">
         <v>100</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1006</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA4AF7-51B7-46C5-9995-BBD36A29C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB0002-77C5-4F46-9F0E-78119B13B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="5040" yWindow="225" windowWidth="23175" windowHeight="15075" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="333">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1145,11 +1145,166 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3001</t>
+    <t>4005,4006</t>
+  </si>
+  <si>
+    <t>21,47,48</t>
+  </si>
+  <si>
+    <t>4001,5014,5013,5012,5011,5010,5009,5008,5007,5006,5005,5004,5003,5001</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>4001,5014,5013,5012,5011,5010,5009,5002</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22,27</t>
+  </si>
+  <si>
+    <t>23,31</t>
+  </si>
+  <si>
+    <t>4001,4003</t>
+  </si>
+  <si>
+    <t>10000,10001,10002</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4001,4004</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>10003,10004,10005</t>
+  </si>
+  <si>
+    <t>19,36,37</t>
+  </si>
+  <si>
+    <t>4001,4002,4002</t>
+  </si>
+  <si>
+    <t>20,36,37</t>
+  </si>
+  <si>
+    <t>10002,10003</t>
+  </si>
+  <si>
+    <t>21,43,44</t>
+  </si>
+  <si>
+    <t>22,25</t>
+  </si>
+  <si>
+    <t>23,29</t>
+  </si>
+  <si>
+    <t>4001,4003,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>4001,4004,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>4001,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>4001,4002,4002,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>18,36,37</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11500,11501,11502,11503,11504,11505,11506,11507,11508,11509,11000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18,40</t>
+  </si>
+  <si>
+    <t>19,40</t>
+  </si>
+  <si>
+    <t>22,49</t>
+  </si>
+  <si>
+    <t>23,33</t>
+  </si>
+  <si>
+    <t>20,40</t>
+  </si>
+  <si>
+    <t>21,49</t>
+  </si>
+  <si>
+    <t>22,29</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11500</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11501</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11502</t>
+  </si>
+  <si>
+    <t>20,34,35</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11503</t>
+  </si>
+  <si>
+    <t>18,34,35</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11504</t>
+  </si>
+  <si>
+    <t>23,41,42</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11505</t>
+  </si>
+  <si>
+    <t>21,24</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11506</t>
+  </si>
+  <si>
+    <t>18,38,39</t>
+  </si>
+  <si>
+    <t>19,38,39</t>
+  </si>
+  <si>
+    <t>23,45,46</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>21,26</t>
+  </si>
+  <si>
+    <t>22,30</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U126" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U126" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U115" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U115" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1661,13 +1816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="A72:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5772,17 +5927,31 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>1005</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>1019</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>279</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -5810,17 +5979,31 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>1005</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>1019</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -5848,17 +6031,31 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>1005</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>1019</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="Q74" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -5886,17 +6083,29 @@
         <v>30</v>
       </c>
       <c r="H75">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I75">
-        <v>5</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>1005</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>1019</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="Q75" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -5924,17 +6133,29 @@
         <v>30</v>
       </c>
       <c r="H76">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I76">
-        <v>5</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <v>1005</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1019</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="Q76" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -5962,17 +6183,33 @@
         <v>30</v>
       </c>
       <c r="H77">
+        <v>1001</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>1005</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77">
         <v>1006</v>
       </c>
-      <c r="I77">
-        <v>5</v>
+      <c r="M77">
+        <v>1</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O77" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -6000,17 +6237,33 @@
         <v>30</v>
       </c>
       <c r="H78">
+        <v>1001</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>1005</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78">
         <v>1006</v>
       </c>
-      <c r="I78">
-        <v>5</v>
+      <c r="M78">
+        <v>1</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O78" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="Q78" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -6038,17 +6291,33 @@
         <v>30</v>
       </c>
       <c r="H79">
+        <v>1001</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>1005</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+      <c r="L79">
         <v>1006</v>
       </c>
-      <c r="I79">
-        <v>5</v>
+      <c r="M79">
+        <v>1</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O79" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -6076,17 +6345,33 @@
         <v>30</v>
       </c>
       <c r="H80">
+        <v>1001</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>1005</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+      <c r="L80">
         <v>1006</v>
       </c>
-      <c r="I80">
-        <v>5</v>
+      <c r="M80">
+        <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O80" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="Q80" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -6114,17 +6399,33 @@
         <v>30</v>
       </c>
       <c r="H81">
+        <v>1001</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>1005</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+      <c r="L81">
         <v>1006</v>
       </c>
-      <c r="I81">
-        <v>5</v>
+      <c r="M81">
+        <v>1</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O81" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="Q81" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -6152,17 +6453,31 @@
         <v>30</v>
       </c>
       <c r="H82">
+        <v>1001</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>1005</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+      <c r="L82">
         <v>1006</v>
       </c>
-      <c r="I82">
-        <v>5</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O82" s="1"/>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="Q82" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -6190,17 +6505,31 @@
         <v>30</v>
       </c>
       <c r="H83">
+        <v>1001</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>1005</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+      <c r="L83">
         <v>1006</v>
       </c>
-      <c r="I83">
-        <v>5</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O83" s="1"/>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="Q83" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -6228,17 +6557,33 @@
         <v>30</v>
       </c>
       <c r="H84">
+        <v>1001</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>1005</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+      <c r="L84">
         <v>1006</v>
       </c>
-      <c r="I84">
-        <v>5</v>
+      <c r="M84">
+        <v>1</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O84" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="Q84" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -6266,17 +6611,33 @@
         <v>30</v>
       </c>
       <c r="H85">
+        <v>1001</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+      <c r="J85">
+        <v>1005</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+      <c r="L85">
         <v>1006</v>
       </c>
-      <c r="I85">
-        <v>5</v>
+      <c r="M85">
+        <v>1</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O85" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -6304,17 +6665,33 @@
         <v>30</v>
       </c>
       <c r="H86">
+        <v>1001</v>
+      </c>
+      <c r="I86">
+        <v>8</v>
+      </c>
+      <c r="J86">
+        <v>1005</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+      <c r="L86">
         <v>1006</v>
       </c>
-      <c r="I86">
-        <v>5</v>
+      <c r="M86">
+        <v>1</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O86" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="Q86" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -6342,17 +6719,33 @@
         <v>30</v>
       </c>
       <c r="H87">
+        <v>1001</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>1005</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+      <c r="L87">
         <v>1006</v>
       </c>
-      <c r="I87">
-        <v>5</v>
+      <c r="M87">
+        <v>1</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O87" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -6380,17 +6773,33 @@
         <v>30</v>
       </c>
       <c r="H88">
+        <v>1001</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>1005</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
         <v>1006</v>
       </c>
-      <c r="I88">
-        <v>5</v>
+      <c r="M88">
+        <v>1</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O88" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="Q88" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -6418,17 +6827,25 @@
         <v>30</v>
       </c>
       <c r="H89">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>1013</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="Q89" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -6456,17 +6873,25 @@
         <v>30</v>
       </c>
       <c r="H90">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>1013</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="Q90" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -6494,17 +6919,25 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>1013</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="Q91" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -6532,17 +6965,25 @@
         <v>30</v>
       </c>
       <c r="H92">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>1013</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="Q92" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -6570,17 +7011,25 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <v>1013</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="Q93" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -6608,17 +7057,23 @@
         <v>30</v>
       </c>
       <c r="H94">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I94">
-        <v>5</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <v>1013</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="Q94" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -6646,17 +7101,25 @@
         <v>30</v>
       </c>
       <c r="H95">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>1008</v>
+      </c>
+      <c r="K95">
+        <v>7</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="Q95" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -6684,17 +7147,25 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>1008</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="Q96" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -6722,17 +7193,25 @@
         <v>30</v>
       </c>
       <c r="H97">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>1008</v>
+      </c>
+      <c r="K97">
+        <v>7</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="Q97" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -6760,17 +7239,25 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <v>1008</v>
+      </c>
+      <c r="K98">
+        <v>7</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+      <c r="Q98" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -6798,17 +7285,25 @@
         <v>30</v>
       </c>
       <c r="H99">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J99">
+        <v>1008</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="Q99" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
@@ -6836,17 +7331,23 @@
         <v>30</v>
       </c>
       <c r="H100">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I100">
-        <v>5</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J100">
+        <v>1008</v>
+      </c>
+      <c r="K100">
+        <v>7</v>
+      </c>
+      <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="Q100" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
@@ -6874,17 +7375,33 @@
         <v>30</v>
       </c>
       <c r="H101">
+        <v>1001</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101">
+        <v>1005</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+      <c r="L101">
         <v>1006</v>
       </c>
-      <c r="I101">
-        <v>5</v>
+      <c r="M101">
+        <v>1</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O101" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="Q101" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -6912,17 +7429,33 @@
         <v>30</v>
       </c>
       <c r="H102">
+        <v>1001</v>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <v>1005</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="L102">
         <v>1006</v>
       </c>
-      <c r="I102">
-        <v>5</v>
+      <c r="M102">
+        <v>1</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O102" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="Q102" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -6950,17 +7483,33 @@
         <v>30</v>
       </c>
       <c r="H103">
+        <v>1001</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <v>1005</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+      <c r="L103">
         <v>1006</v>
       </c>
-      <c r="I103">
-        <v>5</v>
+      <c r="M103">
+        <v>1</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O103" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+      <c r="Q103" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -6988,17 +7537,33 @@
         <v>30</v>
       </c>
       <c r="H104">
+        <v>1001</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <v>1005</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+      <c r="L104">
         <v>1006</v>
       </c>
-      <c r="I104">
-        <v>5</v>
+      <c r="M104">
+        <v>1</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O104" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="Q104" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
@@ -7026,17 +7591,33 @@
         <v>30</v>
       </c>
       <c r="H105">
+        <v>1001</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <v>1005</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+      <c r="L105">
         <v>1006</v>
       </c>
-      <c r="I105">
-        <v>5</v>
+      <c r="M105">
+        <v>1</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O105" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+      <c r="Q105" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
@@ -7064,17 +7645,31 @@
         <v>30</v>
       </c>
       <c r="H106">
+        <v>1001</v>
+      </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
+      <c r="J106">
+        <v>1005</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+      <c r="L106">
         <v>1006</v>
       </c>
-      <c r="I106">
-        <v>5</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O106" s="1"/>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
+      <c r="Q106" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
@@ -7102,17 +7697,31 @@
         <v>30</v>
       </c>
       <c r="H107">
+        <v>1001</v>
+      </c>
+      <c r="I107">
+        <v>8</v>
+      </c>
+      <c r="J107">
+        <v>1005</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="L107">
         <v>1006</v>
       </c>
-      <c r="I107">
-        <v>5</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O107" s="1"/>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+      <c r="Q107" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -7140,17 +7749,31 @@
         <v>30</v>
       </c>
       <c r="H108">
+        <v>1001</v>
+      </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
+      <c r="J108">
+        <v>1005</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+      <c r="L108">
         <v>1006</v>
       </c>
-      <c r="I108">
-        <v>5</v>
+      <c r="M108">
+        <v>1</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="Q108" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
@@ -7178,17 +7801,31 @@
         <v>30</v>
       </c>
       <c r="H109">
+        <v>1001</v>
+      </c>
+      <c r="I109">
+        <v>8</v>
+      </c>
+      <c r="J109">
+        <v>1005</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109">
         <v>1006</v>
       </c>
-      <c r="I109">
-        <v>5</v>
+      <c r="M109">
+        <v>1</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
+      <c r="Q109" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
@@ -7216,17 +7853,31 @@
         <v>30</v>
       </c>
       <c r="H110">
+        <v>1001</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>1005</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110">
         <v>1006</v>
       </c>
-      <c r="I110">
-        <v>5</v>
+      <c r="M110">
+        <v>1</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+      <c r="Q110" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
@@ -7254,17 +7905,31 @@
         <v>30</v>
       </c>
       <c r="H111">
+        <v>1001</v>
+      </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>1005</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
         <v>1006</v>
       </c>
-      <c r="I111">
-        <v>5</v>
+      <c r="M111">
+        <v>1</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+      <c r="Q111" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
@@ -7292,17 +7957,31 @@
         <v>30</v>
       </c>
       <c r="H112">
+        <v>1001</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112">
+        <v>1005</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+      <c r="L112">
         <v>1006</v>
       </c>
-      <c r="I112">
-        <v>5</v>
+      <c r="M112">
+        <v>1</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+      <c r="Q112" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -7330,17 +8009,31 @@
         <v>30</v>
       </c>
       <c r="H113">
+        <v>1001</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>1005</v>
+      </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
+      <c r="L113">
         <v>1006</v>
       </c>
-      <c r="I113">
-        <v>5</v>
+      <c r="M113">
+        <v>1</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+      <c r="Q113" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -7368,17 +8061,29 @@
         <v>30</v>
       </c>
       <c r="H114">
+        <v>1001</v>
+      </c>
+      <c r="I114">
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <v>1005</v>
+      </c>
+      <c r="K114">
+        <v>6</v>
+      </c>
+      <c r="L114">
         <v>1006</v>
       </c>
-      <c r="I114">
-        <v>5</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+      <c r="Q114" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -7388,471 +8093,53 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>3044</v>
-      </c>
-      <c r="B115">
-        <v>44</v>
+        <v>5000</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2">
         <v>100</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H115">
+        <v>1004</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>1001</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
         <v>1006</v>
       </c>
-      <c r="I115">
-        <v>5</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>3045</v>
-      </c>
-      <c r="B116">
-        <v>45</v>
-      </c>
-      <c r="D116">
-        <v>6</v>
-      </c>
-      <c r="E116">
-        <v>30</v>
-      </c>
-      <c r="F116" s="2">
-        <v>100</v>
-      </c>
-      <c r="G116">
-        <v>30</v>
-      </c>
-      <c r="H116">
-        <v>1006</v>
-      </c>
-      <c r="I116">
-        <v>5</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>3046</v>
-      </c>
-      <c r="B117">
-        <v>46</v>
-      </c>
-      <c r="D117">
-        <v>6</v>
-      </c>
-      <c r="E117">
-        <v>30</v>
-      </c>
-      <c r="F117" s="2">
-        <v>100</v>
-      </c>
-      <c r="G117">
-        <v>30</v>
-      </c>
-      <c r="H117">
-        <v>1006</v>
-      </c>
-      <c r="I117">
-        <v>5</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>3047</v>
-      </c>
-      <c r="B118">
-        <v>47</v>
-      </c>
-      <c r="D118">
-        <v>6</v>
-      </c>
-      <c r="E118">
-        <v>30</v>
-      </c>
-      <c r="F118" s="2">
-        <v>100</v>
-      </c>
-      <c r="G118">
-        <v>30</v>
-      </c>
-      <c r="H118">
-        <v>1006</v>
-      </c>
-      <c r="I118">
-        <v>5</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>3048</v>
-      </c>
-      <c r="B119">
-        <v>48</v>
-      </c>
-      <c r="D119">
-        <v>6</v>
-      </c>
-      <c r="E119">
-        <v>30</v>
-      </c>
-      <c r="F119" s="2">
-        <v>100</v>
-      </c>
-      <c r="G119">
-        <v>30</v>
-      </c>
-      <c r="H119">
-        <v>1006</v>
-      </c>
-      <c r="I119">
-        <v>5</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>3049</v>
-      </c>
-      <c r="B120">
-        <v>49</v>
-      </c>
-      <c r="D120">
-        <v>6</v>
-      </c>
-      <c r="E120">
-        <v>30</v>
-      </c>
-      <c r="F120" s="2">
-        <v>100</v>
-      </c>
-      <c r="G120">
-        <v>30</v>
-      </c>
-      <c r="H120">
-        <v>1006</v>
-      </c>
-      <c r="I120">
-        <v>5</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>3050</v>
-      </c>
-      <c r="B121">
-        <v>50</v>
-      </c>
-      <c r="D121">
-        <v>6</v>
-      </c>
-      <c r="E121">
-        <v>30</v>
-      </c>
-      <c r="F121" s="2">
-        <v>100</v>
-      </c>
-      <c r="G121">
-        <v>30</v>
-      </c>
-      <c r="H121">
-        <v>1006</v>
-      </c>
-      <c r="I121">
-        <v>5</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>3051</v>
-      </c>
-      <c r="B122">
-        <v>51</v>
-      </c>
-      <c r="D122">
-        <v>6</v>
-      </c>
-      <c r="E122">
-        <v>30</v>
-      </c>
-      <c r="F122" s="2">
-        <v>100</v>
-      </c>
-      <c r="G122">
-        <v>30</v>
-      </c>
-      <c r="H122">
-        <v>1006</v>
-      </c>
-      <c r="I122">
-        <v>5</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>3052</v>
-      </c>
-      <c r="B123">
-        <v>52</v>
-      </c>
-      <c r="D123">
-        <v>6</v>
-      </c>
-      <c r="E123">
-        <v>30</v>
-      </c>
-      <c r="F123" s="2">
-        <v>100</v>
-      </c>
-      <c r="G123">
-        <v>30</v>
-      </c>
-      <c r="H123">
-        <v>1006</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>3053</v>
-      </c>
-      <c r="B124">
-        <v>53</v>
-      </c>
-      <c r="D124">
-        <v>6</v>
-      </c>
-      <c r="E124">
-        <v>30</v>
-      </c>
-      <c r="F124" s="2">
-        <v>100</v>
-      </c>
-      <c r="G124">
-        <v>30</v>
-      </c>
-      <c r="H124">
-        <v>1006</v>
-      </c>
-      <c r="I124">
-        <v>5</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>3054</v>
-      </c>
-      <c r="B125">
-        <v>54</v>
-      </c>
-      <c r="D125">
-        <v>6</v>
-      </c>
-      <c r="E125">
-        <v>30</v>
-      </c>
-      <c r="F125" s="2">
-        <v>100</v>
-      </c>
-      <c r="G125">
-        <v>30</v>
-      </c>
-      <c r="H125">
-        <v>1006</v>
-      </c>
-      <c r="I125">
-        <v>5</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>5000</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126">
-        <v>50</v>
-      </c>
-      <c r="F126" s="2">
-        <v>100</v>
-      </c>
-      <c r="G126">
-        <v>50</v>
-      </c>
-      <c r="H126">
-        <v>1004</v>
-      </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>1001</v>
-      </c>
-      <c r="K126">
-        <v>3</v>
-      </c>
-      <c r="L126">
-        <v>1006</v>
-      </c>
-      <c r="M126">
-        <v>3</v>
-      </c>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB0002-77C5-4F46-9F0E-78119B13B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9B28E-298E-4349-AE6A-8CDB8E838C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="225" windowWidth="23175" windowHeight="15075" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="1950" yWindow="1125" windowWidth="10365" windowHeight="15075" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="349">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1145,166 +1147,214 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22,27</t>
+  </si>
+  <si>
+    <t>23,31</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10002,10003</t>
+  </si>
+  <si>
+    <t>22,25</t>
+  </si>
+  <si>
+    <t>23,29</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18,40</t>
+  </si>
+  <si>
+    <t>19,40</t>
+  </si>
+  <si>
+    <t>23,33</t>
+  </si>
+  <si>
+    <t>22,29</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11505</t>
+  </si>
+  <si>
+    <t>21,24</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11506</t>
+  </si>
+  <si>
+    <t>21,26</t>
+  </si>
+  <si>
+    <t>22,30</t>
+  </si>
+  <si>
+    <t>10000,903</t>
+  </si>
+  <si>
+    <t>10000,703</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11500,11501,11502,11503,11504,11505,11506,11507,11508,11509,11000,2105</t>
+  </si>
+  <si>
+    <t>304,2105</t>
+  </si>
+  <si>
+    <t>304,2104</t>
+  </si>
+  <si>
+    <t>304,2103</t>
+  </si>
+  <si>
+    <t>305,2103</t>
+  </si>
+  <si>
+    <t>5015</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11500,2105</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11501,2105,2104</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11502,2104,2104</t>
+  </si>
+  <si>
+    <t>10005,10006,10007,10008,10009,11503,2104,2103</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,10003,10004,11504,2103,2103</t>
+  </si>
+  <si>
+    <t>23,36,37</t>
+  </si>
+  <si>
+    <t>21,36,37</t>
+  </si>
+  <si>
+    <t>22,40</t>
+  </si>
+  <si>
+    <t>23,40</t>
+  </si>
+  <si>
+    <t>21,34,35</t>
+  </si>
+  <si>
+    <t>22,38,39</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>21,47,48</t>
+  </si>
+  <si>
+    <t>4001,5014,5013,5012,5011,5010,5009,5008,5007,5006,5005,5004,5003,5001</t>
+  </si>
+  <si>
+    <t>4001,5014,5013,5012,5011,5010,5009,5002</t>
+  </si>
+  <si>
+    <t>4001,4003</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,902,2103,11000</t>
+  </si>
+  <si>
+    <t>10000,10001,10002,802,2103,11000</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>10003,10004,10005,702,2103,11000</t>
+  </si>
+  <si>
+    <t>19,36,37</t>
+  </si>
+  <si>
+    <t>10003,10004,10005,602,2103,11000</t>
+  </si>
+  <si>
     <t>4005,4006</t>
   </si>
   <si>
-    <t>21,47,48</t>
-  </si>
-  <si>
-    <t>4001,5014,5013,5012,5011,5010,5009,5008,5007,5006,5005,5004,5003,5001</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>4001,5014,5013,5012,5011,5010,5009,5002</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22,27</t>
-  </si>
-  <si>
-    <t>23,31</t>
-  </si>
-  <si>
-    <t>4001,4003</t>
-  </si>
-  <si>
-    <t>10000,10001,10002</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>4001,4004</t>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>10003,10004,10005</t>
-  </si>
-  <si>
-    <t>19,36,37</t>
-  </si>
-  <si>
-    <t>4001,4002,4002</t>
+    <t>10002,10003,502,2103,11000</t>
+  </si>
+  <si>
+    <t>21,43,44</t>
+  </si>
+  <si>
+    <t>4001,4003,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>4006,4008,4009</t>
+  </si>
+  <si>
+    <t>4001,4007,4008,4009</t>
+  </si>
+  <si>
+    <t>10003,803,11000</t>
   </si>
   <si>
     <t>20,36,37</t>
   </si>
   <si>
-    <t>10002,10003</t>
-  </si>
-  <si>
-    <t>21,43,44</t>
-  </si>
-  <si>
-    <t>22,25</t>
-  </si>
-  <si>
-    <t>23,29</t>
-  </si>
-  <si>
-    <t>4001,4003,4007,4008,4009</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>4001,4004,4007,4008,4009</t>
-  </si>
-  <si>
-    <t>4001,4007,4008,4009</t>
-  </si>
-  <si>
-    <t>10003</t>
-  </si>
-  <si>
-    <t>4001,4002,4002,4007,4008,4009</t>
-  </si>
-  <si>
-    <t>18,36,37</t>
-  </si>
-  <si>
-    <t>10000,10001,10002,10003,10004,10005,10006,10007,10008,10009,11500,11501,11502,11503,11504,11505,11506,11507,11508,11509,11000</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>18,40</t>
-  </si>
-  <si>
-    <t>19,40</t>
+    <t>4005,4008,4009</t>
+  </si>
+  <si>
+    <t>10003,603,503,11000</t>
+  </si>
+  <si>
+    <t>4005,4005</t>
   </si>
   <si>
     <t>22,49</t>
   </si>
   <si>
-    <t>23,33</t>
-  </si>
-  <si>
-    <t>20,40</t>
-  </si>
-  <si>
     <t>21,49</t>
   </si>
   <si>
-    <t>22,29</t>
-  </si>
-  <si>
-    <t>10000,10001,10002,10003,10004,11500</t>
-  </si>
-  <si>
-    <t>10005,10006,10007,10008,10009,11501</t>
-  </si>
-  <si>
-    <t>10000,10001,10002,10003,10004,11502</t>
-  </si>
-  <si>
     <t>20,34,35</t>
   </si>
   <si>
-    <t>10005,10006,10007,10008,10009,11503</t>
-  </si>
-  <si>
-    <t>18,34,35</t>
-  </si>
-  <si>
-    <t>10000,10001,10002,10003,10004,11504</t>
-  </si>
-  <si>
     <t>23,41,42</t>
   </si>
   <si>
-    <t>10005,10006,10007,10008,10009,11505</t>
-  </si>
-  <si>
-    <t>21,24</t>
-  </si>
-  <si>
-    <t>10000,10001,10002,10003,10004,11506</t>
+    <t>911,2105,11000</t>
+  </si>
+  <si>
+    <t>911,2104,11000</t>
   </si>
   <si>
     <t>18,38,39</t>
   </si>
   <si>
-    <t>19,38,39</t>
+    <t>911,2103,11000</t>
   </si>
   <si>
     <t>23,45,46</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>21,26</t>
-  </si>
-  <si>
-    <t>22,30</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1439,6 +1489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1819,10 +1871,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A114" sqref="A72:A114"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72:Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1835,7 +1887,7 @@
     <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.25" customWidth="1"/>
     <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="47" customWidth="1"/>
     <col min="16" max="18" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5926,31 +5978,33 @@
       <c r="G72">
         <v>30</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="10">
         <v>1001</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="10">
         <v>8</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="10">
         <v>1005</v>
       </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
+      <c r="K72" s="10">
+        <v>3</v>
+      </c>
+      <c r="L72" s="10">
         <v>1019</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="10">
         <v>4</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1" t="s">
-        <v>280</v>
+      <c r="N72" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -5978,31 +6032,31 @@
       <c r="G73">
         <v>30</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="10">
         <v>1001</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="10">
         <v>8</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="10">
         <v>1005</v>
       </c>
-      <c r="K73">
-        <v>3</v>
-      </c>
-      <c r="L73">
+      <c r="K73" s="10">
+        <v>3</v>
+      </c>
+      <c r="L73" s="10">
         <v>1019</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="10">
         <v>4</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1" t="s">
-        <v>282</v>
+      <c r="N73" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="O73" s="11"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6030,31 +6084,31 @@
       <c r="G74">
         <v>30</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="10">
         <v>1001</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="10">
         <v>8</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="10">
         <v>1005</v>
       </c>
-      <c r="K74">
-        <v>3</v>
-      </c>
-      <c r="L74">
+      <c r="K74" s="10">
+        <v>3</v>
+      </c>
+      <c r="L74" s="10">
         <v>1019</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="10">
         <v>4</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1" t="s">
-        <v>284</v>
+      <c r="N74" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O74" s="11"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="11">
+        <v>22</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6082,29 +6136,29 @@
       <c r="G75">
         <v>30</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="10">
         <v>1001</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="10">
         <v>8</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="10">
         <v>1005</v>
       </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75">
+      <c r="K75" s="10">
+        <v>3</v>
+      </c>
+      <c r="L75" s="10">
         <v>1019</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="10">
         <v>4</v>
       </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1" t="s">
-        <v>285</v>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -6132,29 +6186,29 @@
       <c r="G76">
         <v>30</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="10">
         <v>1001</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="10">
         <v>8</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="10">
         <v>1005</v>
       </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="L76">
+      <c r="K76" s="10">
+        <v>3</v>
+      </c>
+      <c r="L76" s="10">
         <v>1019</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="10">
         <v>4</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1" t="s">
-        <v>286</v>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -6182,33 +6236,33 @@
       <c r="G77">
         <v>30</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="10">
         <v>1001</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="10">
         <v>8</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="10">
         <v>1005</v>
       </c>
-      <c r="K77">
-        <v>6</v>
-      </c>
-      <c r="L77">
+      <c r="K77" s="10">
+        <v>6</v>
+      </c>
+      <c r="L77" s="10">
         <v>1006</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="10">
         <v>1</v>
       </c>
-      <c r="N77" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1" t="s">
-        <v>289</v>
+      <c r="N77" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -6236,33 +6290,33 @@
       <c r="G78">
         <v>30</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="10">
         <v>1001</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="10">
         <v>8</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="10">
         <v>1005</v>
       </c>
-      <c r="K78">
-        <v>6</v>
-      </c>
-      <c r="L78">
+      <c r="K78" s="10">
+        <v>6</v>
+      </c>
+      <c r="L78" s="10">
         <v>1006</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="10">
         <v>1</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1" t="s">
-        <v>282</v>
+      <c r="N78" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="11">
+        <v>21</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -6290,33 +6344,33 @@
       <c r="G79">
         <v>30</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="10">
         <v>1001</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="10">
         <v>8</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="10">
         <v>1005</v>
       </c>
-      <c r="K79">
-        <v>6</v>
-      </c>
-      <c r="L79">
+      <c r="K79" s="10">
+        <v>6</v>
+      </c>
+      <c r="L79" s="10">
         <v>1006</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="10">
         <v>1</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1" t="s">
-        <v>293</v>
+      <c r="N79" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -6344,33 +6398,33 @@
       <c r="G80">
         <v>30</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="10">
         <v>1001</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="10">
         <v>8</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="10">
         <v>1005</v>
       </c>
-      <c r="K80">
-        <v>6</v>
-      </c>
-      <c r="L80">
+      <c r="K80" s="10">
+        <v>6</v>
+      </c>
+      <c r="L80" s="10">
         <v>1006</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="10">
         <v>1</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1" t="s">
-        <v>295</v>
+      <c r="N80" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -6398,33 +6452,33 @@
       <c r="G81">
         <v>30</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="10">
         <v>1001</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="10">
         <v>8</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="10">
         <v>1005</v>
       </c>
-      <c r="K81">
-        <v>6</v>
-      </c>
-      <c r="L81">
+      <c r="K81" s="10">
+        <v>6</v>
+      </c>
+      <c r="L81" s="10">
         <v>1006</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="10">
         <v>1</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1" t="s">
-        <v>297</v>
+      <c r="N81" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -6452,31 +6506,31 @@
       <c r="G82">
         <v>30</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="10">
         <v>1001</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="10">
         <v>8</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="10">
         <v>1005</v>
       </c>
-      <c r="K82">
-        <v>6</v>
-      </c>
-      <c r="L82">
+      <c r="K82" s="10">
+        <v>6</v>
+      </c>
+      <c r="L82" s="10">
         <v>1006</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="10">
         <v>1</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1" t="s">
-        <v>298</v>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -6504,31 +6558,31 @@
       <c r="G83">
         <v>30</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="10">
         <v>1001</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="10">
         <v>8</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="10">
         <v>1005</v>
       </c>
-      <c r="K83">
-        <v>6</v>
-      </c>
-      <c r="L83">
+      <c r="K83" s="10">
+        <v>6</v>
+      </c>
+      <c r="L83" s="10">
         <v>1006</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="10">
         <v>1</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1" t="s">
-        <v>299</v>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -6556,33 +6610,33 @@
       <c r="G84">
         <v>30</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="10">
         <v>1001</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="10">
         <v>8</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="10">
         <v>1005</v>
       </c>
-      <c r="K84">
-        <v>6</v>
-      </c>
-      <c r="L84">
+      <c r="K84" s="10">
+        <v>6</v>
+      </c>
+      <c r="L84" s="10">
         <v>1006</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="10">
         <v>1</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1" t="s">
-        <v>282</v>
+      <c r="N84" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -6610,33 +6664,33 @@
       <c r="G85">
         <v>30</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="10">
         <v>1001</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="10">
         <v>8</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="10">
         <v>1005</v>
       </c>
-      <c r="K85">
-        <v>6</v>
-      </c>
-      <c r="L85">
+      <c r="K85" s="10">
+        <v>6</v>
+      </c>
+      <c r="L85" s="10">
         <v>1006</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="10">
         <v>1</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1" t="s">
-        <v>284</v>
+      <c r="N85" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="11">
+        <v>22</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -6664,33 +6718,33 @@
       <c r="G86">
         <v>30</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="10">
         <v>1001</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="10">
         <v>8</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="10">
         <v>1005</v>
       </c>
-      <c r="K86">
-        <v>6</v>
-      </c>
-      <c r="L86">
+      <c r="K86" s="10">
+        <v>6</v>
+      </c>
+      <c r="L86" s="10">
         <v>1006</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="10">
         <v>1</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1" t="s">
-        <v>295</v>
+      <c r="N86" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -6718,33 +6772,33 @@
       <c r="G87">
         <v>30</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="10">
         <v>1001</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="10">
         <v>8</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="10">
         <v>1005</v>
       </c>
-      <c r="K87">
-        <v>6</v>
-      </c>
-      <c r="L87">
+      <c r="K87" s="10">
+        <v>6</v>
+      </c>
+      <c r="L87" s="10">
         <v>1006</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="10">
         <v>1</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1" t="s">
-        <v>306</v>
+      <c r="N87" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -6772,33 +6826,33 @@
       <c r="G88">
         <v>30</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="10">
         <v>1001</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="10">
         <v>8</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="10">
         <v>1005</v>
       </c>
-      <c r="K88">
-        <v>6</v>
-      </c>
-      <c r="L88">
+      <c r="K88" s="10">
+        <v>6</v>
+      </c>
+      <c r="L88" s="10">
         <v>1006</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="10">
         <v>1</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1" t="s">
-        <v>308</v>
+      <c r="N88" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -6826,25 +6880,29 @@
       <c r="G89">
         <v>30</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="10">
         <v>1001</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="10">
         <v>8</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="10">
         <v>1013</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="10">
         <v>7</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1" t="s">
-        <v>284</v>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -6872,25 +6930,29 @@
       <c r="G90">
         <v>30</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="10">
         <v>1001</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="10">
         <v>8</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="10">
         <v>1013</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="10">
         <v>7</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1" t="s">
-        <v>289</v>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="11">
+        <v>23</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -6918,25 +6980,29 @@
       <c r="G91">
         <v>30</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="10">
         <v>1001</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="10">
         <v>8</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="10">
         <v>1013</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="10">
         <v>7</v>
       </c>
-      <c r="N91" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1" t="s">
-        <v>309</v>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -6964,25 +7030,29 @@
       <c r="G92">
         <v>30</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="10">
         <v>1001</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="10">
         <v>8</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="10">
         <v>1013</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="10">
         <v>7</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1" t="s">
-        <v>310</v>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -7010,25 +7080,29 @@
       <c r="G93">
         <v>30</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="10">
         <v>1001</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="10">
         <v>8</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="10">
         <v>1013</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="10">
         <v>7</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1" t="s">
-        <v>311</v>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -7056,23 +7130,25 @@
       <c r="G94">
         <v>30</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="10">
         <v>1001</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="10">
         <v>8</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="10">
         <v>1013</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="10">
         <v>7</v>
       </c>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1" t="s">
-        <v>312</v>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -7100,25 +7176,33 @@
       <c r="G95">
         <v>30</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="10">
         <v>1001</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="10">
         <v>8</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K95" s="10">
+        <v>1</v>
+      </c>
+      <c r="L95" s="10">
         <v>1008</v>
       </c>
-      <c r="K95">
-        <v>7</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1" t="s">
-        <v>289</v>
+      <c r="M95" s="10">
+        <v>6</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -7146,25 +7230,33 @@
       <c r="G96">
         <v>30</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="10">
         <v>1001</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="10">
         <v>8</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K96" s="10">
+        <v>1</v>
+      </c>
+      <c r="L96" s="10">
         <v>1008</v>
       </c>
-      <c r="K96">
-        <v>7</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1" t="s">
-        <v>282</v>
+      <c r="M96" s="10">
+        <v>6</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="11">
+        <v>21</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -7192,25 +7284,33 @@
       <c r="G97">
         <v>30</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="10">
         <v>1001</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="10">
         <v>8</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K97" s="10">
+        <v>1</v>
+      </c>
+      <c r="L97" s="10">
         <v>1008</v>
       </c>
-      <c r="K97">
-        <v>7</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1" t="s">
-        <v>310</v>
+      <c r="M97" s="10">
+        <v>6</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O97" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -7238,25 +7338,33 @@
       <c r="G98">
         <v>30</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="10">
         <v>1001</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="10">
         <v>8</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1</v>
+      </c>
+      <c r="L98" s="10">
         <v>1008</v>
       </c>
-      <c r="K98">
-        <v>7</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1" t="s">
-        <v>313</v>
+      <c r="M98" s="10">
+        <v>6</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="O98" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -7284,25 +7392,33 @@
       <c r="G99">
         <v>30</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="10">
         <v>1001</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="10">
         <v>8</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1</v>
+      </c>
+      <c r="L99" s="10">
         <v>1008</v>
       </c>
-      <c r="K99">
-        <v>7</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1" t="s">
-        <v>314</v>
+      <c r="M99" s="10">
+        <v>6</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -7330,23 +7446,29 @@
       <c r="G100">
         <v>30</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="10">
         <v>1001</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="10">
         <v>8</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K100" s="10">
+        <v>1</v>
+      </c>
+      <c r="L100" s="10">
         <v>1008</v>
       </c>
-      <c r="K100">
-        <v>7</v>
-      </c>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1" t="s">
-        <v>315</v>
+      <c r="M100" s="10">
+        <v>6</v>
+      </c>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -7374,33 +7496,33 @@
       <c r="G101">
         <v>30</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="10">
         <v>1001</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="10">
         <v>8</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="10">
         <v>1005</v>
       </c>
-      <c r="K101">
-        <v>6</v>
-      </c>
-      <c r="L101">
+      <c r="K101" s="10">
+        <v>6</v>
+      </c>
+      <c r="L101" s="10">
         <v>1006</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="10">
         <v>1</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1" t="s">
-        <v>282</v>
+      <c r="N101" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="O101" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -7428,33 +7550,33 @@
       <c r="G102">
         <v>30</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="10">
         <v>1001</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="10">
         <v>8</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="10">
         <v>1005</v>
       </c>
-      <c r="K102">
-        <v>6</v>
-      </c>
-      <c r="L102">
+      <c r="K102" s="10">
+        <v>6</v>
+      </c>
+      <c r="L102" s="10">
         <v>1006</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="10">
         <v>1</v>
       </c>
-      <c r="N102" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1" t="s">
-        <v>284</v>
+      <c r="N102" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="11">
+        <v>22</v>
       </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -7482,33 +7604,33 @@
       <c r="G103">
         <v>30</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="10">
         <v>1001</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="10">
         <v>8</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="10">
         <v>1005</v>
       </c>
-      <c r="K103">
-        <v>6</v>
-      </c>
-      <c r="L103">
+      <c r="K103" s="10">
+        <v>6</v>
+      </c>
+      <c r="L103" s="10">
         <v>1006</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="10">
         <v>1</v>
       </c>
-      <c r="N103" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1" t="s">
-        <v>319</v>
+      <c r="N103" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O103" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -7536,33 +7658,33 @@
       <c r="G104">
         <v>30</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="10">
         <v>1001</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="10">
         <v>8</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="10">
         <v>1005</v>
       </c>
-      <c r="K104">
-        <v>6</v>
-      </c>
-      <c r="L104">
+      <c r="K104" s="10">
+        <v>6</v>
+      </c>
+      <c r="L104" s="10">
         <v>1006</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="10">
         <v>1</v>
       </c>
-      <c r="N104" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1" t="s">
-        <v>321</v>
+      <c r="N104" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -7590,33 +7712,33 @@
       <c r="G105">
         <v>30</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="10">
         <v>1001</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="10">
         <v>8</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="10">
         <v>1005</v>
       </c>
-      <c r="K105">
-        <v>6</v>
-      </c>
-      <c r="L105">
+      <c r="K105" s="10">
+        <v>6</v>
+      </c>
+      <c r="L105" s="10">
         <v>1006</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="10">
         <v>1</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1" t="s">
-        <v>323</v>
+      <c r="N105" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O105" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -7644,31 +7766,31 @@
       <c r="G106">
         <v>30</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="10">
         <v>1001</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="10">
         <v>8</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="10">
         <v>1005</v>
       </c>
-      <c r="K106">
-        <v>6</v>
-      </c>
-      <c r="L106">
+      <c r="K106" s="10">
+        <v>6</v>
+      </c>
+      <c r="L106" s="10">
         <v>1006</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="10">
         <v>1</v>
       </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1" t="s">
-        <v>325</v>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -7696,31 +7818,31 @@
       <c r="G107">
         <v>30</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="10">
         <v>1001</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="10">
         <v>8</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="10">
         <v>1005</v>
       </c>
-      <c r="K107">
-        <v>6</v>
-      </c>
-      <c r="L107">
+      <c r="K107" s="10">
+        <v>6</v>
+      </c>
+      <c r="L107" s="10">
         <v>1006</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="10">
         <v>1</v>
       </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1" t="s">
-        <v>298</v>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -7748,31 +7870,33 @@
       <c r="G108">
         <v>30</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="10">
         <v>1001</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="10">
         <v>8</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="10">
         <v>1005</v>
       </c>
-      <c r="K108">
-        <v>6</v>
-      </c>
-      <c r="L108">
+      <c r="K108" s="10">
+        <v>6</v>
+      </c>
+      <c r="L108" s="10">
         <v>1006</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="10">
         <v>1</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1" t="s">
-        <v>284</v>
+      <c r="N108" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -7800,31 +7924,33 @@
       <c r="G109">
         <v>30</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="10">
         <v>1001</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="10">
         <v>8</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="10">
         <v>1005</v>
       </c>
-      <c r="K109">
-        <v>6</v>
-      </c>
-      <c r="L109">
+      <c r="K109" s="10">
+        <v>6</v>
+      </c>
+      <c r="L109" s="10">
         <v>1006</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="10">
         <v>1</v>
       </c>
-      <c r="N109" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1" t="s">
-        <v>289</v>
+      <c r="N109" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="11">
+        <v>23</v>
       </c>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -7852,31 +7978,33 @@
       <c r="G110">
         <v>30</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="10">
         <v>1001</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="10">
         <v>8</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="10">
         <v>1005</v>
       </c>
-      <c r="K110">
-        <v>6</v>
-      </c>
-      <c r="L110">
+      <c r="K110" s="10">
+        <v>6</v>
+      </c>
+      <c r="L110" s="10">
         <v>1006</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="10">
         <v>1</v>
       </c>
-      <c r="N110" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1" t="s">
-        <v>327</v>
+      <c r="N110" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -7904,31 +8032,33 @@
       <c r="G111">
         <v>30</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="10">
         <v>1001</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="10">
         <v>8</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="10">
         <v>1005</v>
       </c>
-      <c r="K111">
-        <v>6</v>
-      </c>
-      <c r="L111">
+      <c r="K111" s="10">
+        <v>6</v>
+      </c>
+      <c r="L111" s="10">
         <v>1006</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="10">
         <v>1</v>
       </c>
-      <c r="N111" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1" t="s">
-        <v>328</v>
+      <c r="N111" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -7956,31 +8086,33 @@
       <c r="G112">
         <v>30</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="10">
         <v>1001</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="10">
         <v>8</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="10">
         <v>1005</v>
       </c>
-      <c r="K112">
-        <v>6</v>
-      </c>
-      <c r="L112">
+      <c r="K112" s="10">
+        <v>6</v>
+      </c>
+      <c r="L112" s="10">
         <v>1006</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="10">
         <v>1</v>
       </c>
-      <c r="N112" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1" t="s">
+      <c r="N112" s="11" t="s">
         <v>329</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -8008,31 +8140,29 @@
       <c r="G113">
         <v>30</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="10">
         <v>1001</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="10">
         <v>8</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="10">
         <v>1005</v>
       </c>
-      <c r="K113">
-        <v>6</v>
-      </c>
-      <c r="L113">
+      <c r="K113" s="10">
+        <v>6</v>
+      </c>
+      <c r="L113" s="10">
         <v>1006</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="10">
         <v>1</v>
       </c>
-      <c r="N113" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1" t="s">
-        <v>331</v>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -8060,29 +8190,29 @@
       <c r="G114">
         <v>30</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="10">
         <v>1001</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="10">
         <v>8</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="10">
         <v>1005</v>
       </c>
-      <c r="K114">
-        <v>6</v>
-      </c>
-      <c r="L114">
+      <c r="K114" s="10">
+        <v>6</v>
+      </c>
+      <c r="L114" s="10">
         <v>1006</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="10">
         <v>1</v>
       </c>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1" t="s">
-        <v>332</v>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9B28E-298E-4349-AE6A-8CDB8E838C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB3264-E91D-422B-8508-BF65C398A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1125" windowWidth="10365" windowHeight="15075" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="6075" yWindow="105" windowWidth="22395" windowHeight="14325" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="347">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1174,12 +1174,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>18,40</t>
-  </si>
-  <si>
-    <t>19,40</t>
-  </si>
-  <si>
     <t>23,33</t>
   </si>
   <si>
@@ -1249,12 +1243,6 @@
     <t>21,36,37</t>
   </si>
   <si>
-    <t>22,40</t>
-  </si>
-  <si>
-    <t>23,40</t>
-  </si>
-  <si>
     <t>21,34,35</t>
   </si>
   <si>
@@ -1330,12 +1318,6 @@
     <t>4005,4005</t>
   </si>
   <si>
-    <t>22,49</t>
-  </si>
-  <si>
-    <t>21,49</t>
-  </si>
-  <si>
     <t>20,34,35</t>
   </si>
   <si>
@@ -1355,6 +1337,22 @@
   </si>
   <si>
     <t>23,45,46</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1871,10 +1869,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72:Q114"/>
+      <selection pane="bottomRight" activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5997,14 +5995,14 @@
         <v>4</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6051,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="10"/>
@@ -6103,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O74" s="11"/>
       <c r="P74" s="10"/>
@@ -6255,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P77" s="10"/>
       <c r="Q77" s="11" t="s">
@@ -6309,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P78" s="10"/>
       <c r="Q78" s="11">
@@ -6363,14 +6361,14 @@
         <v>1</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P79" s="10"/>
       <c r="Q79" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -6417,14 +6415,14 @@
         <v>1</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -6471,14 +6469,14 @@
         <v>1</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P81" s="10"/>
       <c r="Q81" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -6629,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P84" s="10"/>
       <c r="Q84" s="11" t="s">
@@ -6683,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P85" s="10"/>
       <c r="Q85" s="11">
@@ -6737,14 +6735,14 @@
         <v>1</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P86" s="10"/>
       <c r="Q86" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -6791,14 +6789,14 @@
         <v>1</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P87" s="10"/>
       <c r="Q87" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -6845,10 +6843,10 @@
         <v>1</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P88" s="10"/>
       <c r="Q88" s="11" t="s">
@@ -6895,10 +6893,10 @@
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O89" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="11" t="s">
@@ -6945,10 +6943,10 @@
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="11">
@@ -6995,14 +6993,14 @@
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P91" s="10"/>
       <c r="Q91" s="11" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -7045,14 +7043,14 @@
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O92" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="11" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -7095,14 +7093,14 @@
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P93" s="10"/>
       <c r="Q93" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -7148,7 +7146,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -7195,10 +7193,10 @@
         <v>6</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P95" s="10"/>
       <c r="Q95" s="11" t="s">
@@ -7249,10 +7247,10 @@
         <v>6</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O96" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P96" s="10"/>
       <c r="Q96" s="11">
@@ -7303,14 +7301,14 @@
         <v>6</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O97" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P97" s="10"/>
       <c r="Q97" s="11" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -7357,14 +7355,14 @@
         <v>6</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="11" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -7411,14 +7409,14 @@
         <v>6</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O99" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P99" s="10"/>
       <c r="Q99" s="11" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -7468,7 +7466,7 @@
       <c r="O100" s="11"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -7515,10 +7513,10 @@
         <v>1</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O101" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P101" s="10"/>
       <c r="Q101" s="11" t="s">
@@ -7569,10 +7567,10 @@
         <v>1</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O102" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P102" s="10"/>
       <c r="Q102" s="11">
@@ -7623,14 +7621,14 @@
         <v>1</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O103" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P103" s="10"/>
       <c r="Q103" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -7677,14 +7675,14 @@
         <v>1</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P104" s="10"/>
       <c r="Q104" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -7731,14 +7729,14 @@
         <v>1</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O105" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P105" s="10"/>
       <c r="Q105" s="11" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -7786,11 +7784,11 @@
       </c>
       <c r="N106" s="11"/>
       <c r="O106" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P106" s="10"/>
       <c r="Q106" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -7838,7 +7836,7 @@
       </c>
       <c r="N107" s="11"/>
       <c r="O107" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P107" s="10"/>
       <c r="Q107" s="11" t="s">
@@ -7889,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O108" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P108" s="10"/>
       <c r="Q108" s="11" t="s">
@@ -7943,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P109" s="10"/>
       <c r="Q109" s="11">
@@ -7997,14 +7995,14 @@
         <v>1</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P110" s="10"/>
       <c r="Q110" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -8051,14 +8049,14 @@
         <v>1</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O111" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P111" s="10"/>
       <c r="Q111" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -8105,14 +8103,14 @@
         <v>1</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -8162,7 +8160,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -8212,7 +8210,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB3264-E91D-422B-8508-BF65C398A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4873E2-A441-4BC0-B50C-32DD8EB78C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="105" windowWidth="22395" windowHeight="14325" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="23205" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1869,10 +1869,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q94" sqref="Q94"/>
+      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5968,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2">
         <v>100</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H72" s="10">
         <v>1001</v>
@@ -6022,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2">
         <v>100</v>
       </c>
       <c r="G73">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H73" s="10">
         <v>1001</v>
@@ -6074,13 +6074,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2">
         <v>100</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H74" s="10">
         <v>1001</v>
@@ -6126,13 +6126,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2">
         <v>100</v>
       </c>
       <c r="G75">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H75" s="10">
         <v>1001</v>
@@ -6176,13 +6176,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H76" s="10">
         <v>1001</v>
@@ -6226,13 +6226,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H77" s="10">
         <v>1001</v>
@@ -6280,13 +6280,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H78" s="10">
         <v>1001</v>
@@ -6334,13 +6334,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H79" s="10">
         <v>1001</v>
@@ -6388,13 +6388,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H80" s="10">
         <v>1001</v>
@@ -6442,13 +6442,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2">
         <v>100</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H81" s="10">
         <v>1001</v>
@@ -6496,13 +6496,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H82" s="10">
         <v>1001</v>
@@ -6548,13 +6548,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2">
         <v>100</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H83" s="10">
         <v>1001</v>
@@ -6600,13 +6600,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2">
         <v>100</v>
       </c>
       <c r="G84">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H84" s="10">
         <v>1001</v>
@@ -6654,13 +6654,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2">
         <v>100</v>
       </c>
       <c r="G85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H85" s="10">
         <v>1001</v>
@@ -6708,13 +6708,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2">
         <v>100</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H86" s="10">
         <v>1001</v>
@@ -6762,13 +6762,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2">
         <v>100</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H87" s="10">
         <v>1001</v>
@@ -6816,13 +6816,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2">
         <v>100</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H88" s="10">
         <v>1001</v>
@@ -6870,13 +6870,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2">
         <v>100</v>
       </c>
       <c r="G89">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H89" s="10">
         <v>1001</v>
@@ -6920,13 +6920,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2">
         <v>100</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H90" s="10">
         <v>1001</v>
@@ -6970,13 +6970,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2">
         <v>100</v>
       </c>
       <c r="G91">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H91" s="10">
         <v>1001</v>
@@ -7020,13 +7020,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H92" s="10">
         <v>1001</v>
@@ -7070,13 +7070,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2">
         <v>100</v>
       </c>
       <c r="G93">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H93" s="10">
         <v>1001</v>
@@ -7120,13 +7120,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2">
         <v>100</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H94" s="10">
         <v>1001</v>
@@ -7166,13 +7166,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2">
         <v>100</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H95" s="10">
         <v>1001</v>
@@ -7220,13 +7220,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2">
         <v>100</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H96" s="10">
         <v>1001</v>
@@ -7274,13 +7274,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2">
         <v>100</v>
       </c>
       <c r="G97">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H97" s="10">
         <v>1001</v>
@@ -7328,13 +7328,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2">
         <v>100</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H98" s="10">
         <v>1001</v>
@@ -7382,13 +7382,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2">
         <v>100</v>
       </c>
       <c r="G99">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H99" s="10">
         <v>1001</v>
@@ -7436,13 +7436,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2">
         <v>100</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H100" s="10">
         <v>1001</v>
@@ -7486,13 +7486,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2">
         <v>100</v>
       </c>
       <c r="G101">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H101" s="10">
         <v>1001</v>
@@ -7540,13 +7540,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2">
         <v>100</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H102" s="10">
         <v>1001</v>
@@ -7594,13 +7594,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2">
         <v>100</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H103" s="10">
         <v>1001</v>
@@ -7648,13 +7648,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2">
         <v>100</v>
       </c>
       <c r="G104">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H104" s="10">
         <v>1001</v>
@@ -7702,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H105" s="10">
         <v>1001</v>
@@ -7756,13 +7756,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H106" s="10">
         <v>1001</v>
@@ -7808,13 +7808,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2">
         <v>100</v>
       </c>
       <c r="G107">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H107" s="10">
         <v>1001</v>
@@ -7860,13 +7860,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2">
         <v>100</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H108" s="10">
         <v>1001</v>
@@ -7914,13 +7914,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2">
         <v>100</v>
       </c>
       <c r="G109">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H109" s="10">
         <v>1001</v>
@@ -7968,13 +7968,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2">
         <v>100</v>
       </c>
       <c r="G110">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H110" s="10">
         <v>1001</v>
@@ -8022,13 +8022,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2">
         <v>100</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H111" s="10">
         <v>1001</v>
@@ -8076,13 +8076,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2">
         <v>100</v>
       </c>
       <c r="G112">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H112" s="10">
         <v>1001</v>
@@ -8130,13 +8130,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2">
         <v>100</v>
       </c>
       <c r="G113">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H113" s="10">
         <v>1001</v>
@@ -8180,13 +8180,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2">
         <v>100</v>
       </c>
       <c r="G114">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H114" s="10">
         <v>1001</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4873E2-A441-4BC0-B50C-32DD8EB78C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D15FC-25C4-473A-ABB5-16EBC318100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1230" windowWidth="23205" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
@@ -1869,10 +1869,10 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5968,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2">
         <v>100</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72" s="10">
         <v>1001</v>
@@ -6022,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2">
         <v>100</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H73" s="10">
         <v>1001</v>
@@ -6074,13 +6074,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2">
         <v>100</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H74" s="10">
         <v>1001</v>
@@ -6126,13 +6126,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2">
         <v>100</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H75" s="10">
         <v>1001</v>
@@ -6176,13 +6176,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H76" s="10">
         <v>1001</v>
@@ -6226,13 +6226,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H77" s="10">
         <v>1001</v>
@@ -6280,13 +6280,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H78" s="10">
         <v>1001</v>
@@ -6334,13 +6334,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" s="10">
         <v>1001</v>
@@ -6388,13 +6388,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H80" s="10">
         <v>1001</v>
@@ -6442,13 +6442,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2">
         <v>100</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H81" s="10">
         <v>1001</v>
@@ -6496,13 +6496,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H82" s="10">
         <v>1001</v>
@@ -6548,13 +6548,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F83" s="2">
         <v>100</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H83" s="10">
         <v>1001</v>
@@ -6600,13 +6600,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F84" s="2">
         <v>100</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H84" s="10">
         <v>1001</v>
@@ -6654,13 +6654,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2">
         <v>100</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H85" s="10">
         <v>1001</v>
@@ -6708,13 +6708,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" s="2">
         <v>100</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H86" s="10">
         <v>1001</v>
@@ -6762,13 +6762,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F87" s="2">
         <v>100</v>
       </c>
       <c r="G87">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H87" s="10">
         <v>1001</v>
@@ -6816,13 +6816,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F88" s="2">
         <v>100</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H88" s="10">
         <v>1001</v>
@@ -6870,13 +6870,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F89" s="2">
         <v>100</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H89" s="10">
         <v>1001</v>
@@ -6920,13 +6920,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2">
         <v>100</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H90" s="10">
         <v>1001</v>
@@ -6970,13 +6970,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F91" s="2">
         <v>100</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H91" s="10">
         <v>1001</v>
@@ -7020,13 +7020,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H92" s="10">
         <v>1001</v>
@@ -7070,13 +7070,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F93" s="2">
         <v>100</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H93" s="10">
         <v>1001</v>
@@ -7120,13 +7120,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2">
         <v>100</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H94" s="10">
         <v>1001</v>
@@ -7166,13 +7166,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2">
         <v>100</v>
       </c>
       <c r="G95">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H95" s="10">
         <v>1001</v>
@@ -7220,13 +7220,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" s="2">
         <v>100</v>
       </c>
       <c r="G96">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H96" s="10">
         <v>1001</v>
@@ -7274,13 +7274,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F97" s="2">
         <v>100</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H97" s="10">
         <v>1001</v>
@@ -7328,13 +7328,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2">
         <v>100</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H98" s="10">
         <v>1001</v>
@@ -7382,13 +7382,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F99" s="2">
         <v>100</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H99" s="10">
         <v>1001</v>
@@ -7436,13 +7436,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F100" s="2">
         <v>100</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H100" s="10">
         <v>1001</v>
@@ -7486,13 +7486,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2">
         <v>100</v>
       </c>
       <c r="G101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H101" s="10">
         <v>1001</v>
@@ -7540,13 +7540,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F102" s="2">
         <v>100</v>
       </c>
       <c r="G102">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H102" s="10">
         <v>1001</v>
@@ -7594,13 +7594,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F103" s="2">
         <v>100</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H103" s="10">
         <v>1001</v>
@@ -7648,13 +7648,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F104" s="2">
         <v>100</v>
       </c>
       <c r="G104">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H104" s="10">
         <v>1001</v>
@@ -7702,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
       </c>
       <c r="G105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H105" s="10">
         <v>1001</v>
@@ -7756,13 +7756,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
       </c>
       <c r="G106">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H106" s="10">
         <v>1001</v>
@@ -7808,13 +7808,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2">
         <v>100</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H107" s="10">
         <v>1001</v>
@@ -7860,13 +7860,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F108" s="2">
         <v>100</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H108" s="10">
         <v>1001</v>
@@ -7914,13 +7914,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F109" s="2">
         <v>100</v>
       </c>
       <c r="G109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H109" s="10">
         <v>1001</v>
@@ -7968,13 +7968,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F110" s="2">
         <v>100</v>
       </c>
       <c r="G110">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H110" s="10">
         <v>1001</v>
@@ -8022,13 +8022,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F111" s="2">
         <v>100</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H111" s="10">
         <v>1001</v>
@@ -8076,13 +8076,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2">
         <v>100</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H112" s="10">
         <v>1001</v>
@@ -8130,13 +8130,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F113" s="2">
         <v>100</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H113" s="10">
         <v>1001</v>
@@ -8180,13 +8180,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F114" s="2">
         <v>100</v>
       </c>
       <c r="G114">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H114" s="10">
         <v>1001</v>

--- a/Config/Excel/Map.xlsx
+++ b/Config/Excel/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D15FC-25C4-473A-ABB5-16EBC318100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B6C18-0BB0-4F8F-A7A5-573DFF3E3DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="23205" windowHeight="12525" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9A64541-549F-497B-AE10-2979928A5C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ID">Sheet1!$A:$A</definedName>
     <definedName name="Name">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="347">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1540,8 +1540,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U115" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:U115" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{392E39CD-AED6-496E-B647-8C309096DB5F}" name="テーブル3" displayName="テーブル3" ref="A1:U158" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:U158" xr:uid="{81C9576F-7911-4E69-8934-F4E43663C5A3}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{691A178D-90B4-473A-AC25-DC92C7B35091}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3BCB212-9792-4EBC-9DE9-0D031011D9BF}" name="Name"/>
@@ -1866,13 +1866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B4C9-2FD1-4EEB-8FFF-F708A1927261}">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5968,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="E72">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F72" s="2">
         <v>100</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H72" s="10">
         <v>1001</v>
@@ -6022,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F73" s="2">
         <v>100</v>
       </c>
       <c r="G73">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73" s="10">
         <v>1001</v>
@@ -6074,13 +6074,13 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2">
         <v>100</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H74" s="10">
         <v>1001</v>
@@ -6126,13 +6126,13 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2">
         <v>100</v>
       </c>
       <c r="G75">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H75" s="10">
         <v>1001</v>
@@ -6176,13 +6176,13 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
       </c>
       <c r="G76">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76" s="10">
         <v>1001</v>
@@ -6226,13 +6226,13 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H77" s="10">
         <v>1001</v>
@@ -6280,13 +6280,13 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
       </c>
       <c r="G78">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78" s="10">
         <v>1001</v>
@@ -6334,13 +6334,13 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2">
         <v>100</v>
       </c>
       <c r="G79">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H79" s="10">
         <v>1001</v>
@@ -6388,13 +6388,13 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F80" s="2">
         <v>100</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H80" s="10">
         <v>1001</v>
@@ -6442,13 +6442,13 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F81" s="2">
         <v>100</v>
       </c>
       <c r="G81">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H81" s="10">
         <v>1001</v>
@@ -6496,13 +6496,13 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F82" s="2">
         <v>100</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H82" s="10">
         <v>1001</v>
@@ -6548,13 +6548,13 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F83" s="2">
         <v>100</v>
       </c>
       <c r="G83">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H83" s="10">
         <v>1001</v>
@@ -6600,13 +6600,13 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2">
         <v>100</v>
       </c>
       <c r="G84">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H84" s="10">
         <v>1001</v>
@@ -6654,13 +6654,13 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F85" s="2">
         <v>100</v>
       </c>
       <c r="G85">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H85" s="10">
         <v>1001</v>
@@ -6708,13 +6708,13 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2">
         <v>100</v>
       </c>
       <c r="G86">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H86" s="10">
         <v>1001</v>
@@ -6762,13 +6762,13 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2">
         <v>100</v>
       </c>
       <c r="G87">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87" s="10">
         <v>1001</v>
@@ -6816,13 +6816,13 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F88" s="2">
         <v>100</v>
       </c>
       <c r="G88">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H88" s="10">
         <v>1001</v>
@@ -6870,13 +6870,13 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2">
         <v>100</v>
       </c>
       <c r="G89">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H89" s="10">
         <v>1001</v>
@@ -6920,13 +6920,13 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2">
         <v>100</v>
       </c>
       <c r="G90">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H90" s="10">
         <v>1001</v>
@@ -6970,13 +6970,13 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F91" s="2">
         <v>100</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H91" s="10">
         <v>1001</v>
@@ -7020,13 +7020,13 @@
         <v>6</v>
       </c>
       <c r="E92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2">
         <v>100</v>
       </c>
       <c r="G92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H92" s="10">
         <v>1001</v>
@@ -7070,13 +7070,13 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2">
         <v>100</v>
       </c>
       <c r="G93">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H93" s="10">
         <v>1001</v>
@@ -7120,13 +7120,13 @@
         <v>6</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2">
         <v>100</v>
       </c>
       <c r="G94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H94" s="10">
         <v>1001</v>
@@ -7166,13 +7166,13 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2">
         <v>100</v>
       </c>
       <c r="G95">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H95" s="10">
         <v>1001</v>
@@ -7220,13 +7220,13 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2">
         <v>100</v>
       </c>
       <c r="G96">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H96" s="10">
         <v>1001</v>
@@ -7274,13 +7274,13 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2">
         <v>100</v>
       </c>
       <c r="G97">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H97" s="10">
         <v>1001</v>
@@ -7328,13 +7328,13 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2">
         <v>100</v>
       </c>
       <c r="G98">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98" s="10">
         <v>1001</v>
@@ -7382,13 +7382,13 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2">
         <v>100</v>
       </c>
       <c r="G99">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H99" s="10">
         <v>1001</v>
@@ -7436,13 +7436,13 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F100" s="2">
         <v>100</v>
       </c>
       <c r="G100">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100" s="10">
         <v>1001</v>
@@ -7486,13 +7486,13 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2">
         <v>100</v>
       </c>
       <c r="G101">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H101" s="10">
         <v>1001</v>
@@ -7540,13 +7540,13 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2">
         <v>100</v>
       </c>
       <c r="G102">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102" s="10">
         <v>1001</v>
@@ -7594,13 +7594,13 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2">
         <v>100</v>
       </c>
       <c r="G103">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H103" s="10">
         <v>1001</v>
@@ -7648,13 +7648,13 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2">
         <v>100</v>
       </c>
       <c r="G104">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H104" s="10">
         <v>1001</v>
@@ -7702,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
       </c>
       <c r="G105">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H105" s="10">
         <v>1001</v>
@@ -7756,13 +7756,13 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
       </c>
       <c r="G106">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H106" s="10">
         <v>1001</v>
@@ -7808,13 +7808,13 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2">
         <v>100</v>
       </c>
       <c r="G107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H107" s="10">
         <v>1001</v>
@@ -7860,13 +7860,13 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2">
         <v>100</v>
       </c>
       <c r="G108">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H108" s="10">
         <v>1001</v>
@@ -7914,13 +7914,13 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2">
         <v>100</v>
       </c>
       <c r="G109">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H109" s="10">
         <v>1001</v>
@@ -7968,13 +7968,13 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F110" s="2">
         <v>100</v>
       </c>
       <c r="G110">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H110" s="10">
         <v>1001</v>
@@ -8022,13 +8022,13 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F111" s="2">
         <v>100</v>
       </c>
       <c r="G111">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H111" s="10">
         <v>1001</v>
@@ -8076,13 +8076,13 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F112" s="2">
         <v>100</v>
       </c>
       <c r="G112">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112" s="10">
         <v>1001</v>
@@ -8130,13 +8130,13 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F113" s="2">
         <v>100</v>
       </c>
       <c r="G113">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113" s="10">
         <v>1001</v>
@@ -8180,13 +8180,13 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2">
         <v>100</v>
       </c>
       <c r="G114">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H114" s="10">
         <v>1001</v>
@@ -8221,53 +8221,2315 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>5000</v>
-      </c>
-      <c r="B115" t="s">
-        <v>38</v>
+        <v>13001</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F115" s="2">
         <v>100</v>
       </c>
       <c r="G115">
-        <v>50</v>
-      </c>
-      <c r="H115">
-        <v>1004</v>
-      </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115">
-        <v>1001</v>
-      </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115">
-        <v>1006</v>
-      </c>
-      <c r="M115">
-        <v>3</v>
-      </c>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P115" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q115" s="1"/>
+      <c r="H115" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I115" s="10">
+        <v>8</v>
+      </c>
+      <c r="J115" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K115" s="10">
+        <v>3</v>
+      </c>
+      <c r="L115" s="10">
+        <v>1019</v>
+      </c>
+      <c r="M115" s="10">
+        <v>4</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="O115" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>13002</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+      <c r="F116" s="2">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>40</v>
+      </c>
+      <c r="H116" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I116" s="10">
+        <v>8</v>
+      </c>
+      <c r="J116" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K116" s="10">
+        <v>3</v>
+      </c>
+      <c r="L116" s="10">
+        <v>1019</v>
+      </c>
+      <c r="M116" s="10">
+        <v>4</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="O116" s="11"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>13003</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+      <c r="F117" s="2">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>40</v>
+      </c>
+      <c r="H117" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I117" s="10">
+        <v>8</v>
+      </c>
+      <c r="J117" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K117" s="10">
+        <v>3</v>
+      </c>
+      <c r="L117" s="10">
+        <v>1019</v>
+      </c>
+      <c r="M117" s="10">
+        <v>4</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O117" s="11"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="11">
+        <v>22</v>
+      </c>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>13004</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+      <c r="F118" s="2">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>40</v>
+      </c>
+      <c r="H118" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I118" s="10">
+        <v>8</v>
+      </c>
+      <c r="J118" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K118" s="10">
+        <v>3</v>
+      </c>
+      <c r="L118" s="10">
+        <v>1019</v>
+      </c>
+      <c r="M118" s="10">
+        <v>4</v>
+      </c>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>13005</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+      <c r="F119" s="2">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>40</v>
+      </c>
+      <c r="H119" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I119" s="10">
+        <v>8</v>
+      </c>
+      <c r="J119" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K119" s="10">
+        <v>3</v>
+      </c>
+      <c r="L119" s="10">
+        <v>1019</v>
+      </c>
+      <c r="M119" s="10">
+        <v>4</v>
+      </c>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>13006</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120" s="2">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>40</v>
+      </c>
+      <c r="H120" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I120" s="10">
+        <v>8</v>
+      </c>
+      <c r="J120" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K120" s="10">
+        <v>6</v>
+      </c>
+      <c r="L120" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M120" s="10">
+        <v>1</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O120" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>13007</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+      <c r="F121" s="2">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>40</v>
+      </c>
+      <c r="H121" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I121" s="10">
+        <v>8</v>
+      </c>
+      <c r="J121" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K121" s="10">
+        <v>6</v>
+      </c>
+      <c r="L121" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M121" s="10">
+        <v>1</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="11">
+        <v>21</v>
+      </c>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>13008</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
+      </c>
+      <c r="F122" s="2">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>40</v>
+      </c>
+      <c r="H122" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I122" s="10">
+        <v>8</v>
+      </c>
+      <c r="J122" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K122" s="10">
+        <v>6</v>
+      </c>
+      <c r="L122" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M122" s="10">
+        <v>1</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>13009</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+      <c r="F123" s="2">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>40</v>
+      </c>
+      <c r="H123" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I123" s="10">
+        <v>8</v>
+      </c>
+      <c r="J123" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K123" s="10">
+        <v>6</v>
+      </c>
+      <c r="L123" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M123" s="10">
+        <v>1</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>13010</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>40</v>
+      </c>
+      <c r="F124" s="2">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <v>40</v>
+      </c>
+      <c r="H124" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I124" s="10">
+        <v>8</v>
+      </c>
+      <c r="J124" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K124" s="10">
+        <v>6</v>
+      </c>
+      <c r="L124" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M124" s="10">
+        <v>1</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>13011</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+      <c r="F125" s="2">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>40</v>
+      </c>
+      <c r="H125" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I125" s="10">
+        <v>8</v>
+      </c>
+      <c r="J125" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K125" s="10">
+        <v>6</v>
+      </c>
+      <c r="L125" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M125" s="10">
+        <v>1</v>
+      </c>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>13012</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>40</v>
+      </c>
+      <c r="F126" s="2">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>40</v>
+      </c>
+      <c r="H126" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I126" s="10">
+        <v>8</v>
+      </c>
+      <c r="J126" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K126" s="10">
+        <v>6</v>
+      </c>
+      <c r="L126" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M126" s="10">
+        <v>1</v>
+      </c>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>13013</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>40</v>
+      </c>
+      <c r="F127" s="2">
+        <v>100</v>
+      </c>
+      <c r="G127">
+        <v>40</v>
+      </c>
+      <c r="H127" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I127" s="10">
+        <v>8</v>
+      </c>
+      <c r="J127" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K127" s="10">
+        <v>6</v>
+      </c>
+      <c r="L127" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M127" s="10">
+        <v>1</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>13014</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>40</v>
+      </c>
+      <c r="F128" s="2">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>40</v>
+      </c>
+      <c r="H128" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I128" s="10">
+        <v>8</v>
+      </c>
+      <c r="J128" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K128" s="10">
+        <v>6</v>
+      </c>
+      <c r="L128" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M128" s="10">
+        <v>1</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="11">
+        <v>22</v>
+      </c>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>13015</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>40</v>
+      </c>
+      <c r="F129" s="2">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>40</v>
+      </c>
+      <c r="H129" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I129" s="10">
+        <v>8</v>
+      </c>
+      <c r="J129" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K129" s="10">
+        <v>6</v>
+      </c>
+      <c r="L129" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M129" s="10">
+        <v>1</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>13016</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>40</v>
+      </c>
+      <c r="F130" s="2">
+        <v>100</v>
+      </c>
+      <c r="G130">
+        <v>40</v>
+      </c>
+      <c r="H130" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I130" s="10">
+        <v>8</v>
+      </c>
+      <c r="J130" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K130" s="10">
+        <v>6</v>
+      </c>
+      <c r="L130" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M130" s="10">
+        <v>1</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>13017</v>
+      </c>
+      <c r="B131">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>40</v>
+      </c>
+      <c r="F131" s="2">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>40</v>
+      </c>
+      <c r="H131" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I131" s="10">
+        <v>8</v>
+      </c>
+      <c r="J131" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K131" s="10">
+        <v>6</v>
+      </c>
+      <c r="L131" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M131" s="10">
+        <v>1</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>13018</v>
+      </c>
+      <c r="B132">
+        <v>18</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>40</v>
+      </c>
+      <c r="F132" s="2">
+        <v>100</v>
+      </c>
+      <c r="G132">
+        <v>40</v>
+      </c>
+      <c r="H132" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I132" s="10">
+        <v>8</v>
+      </c>
+      <c r="J132" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K132" s="10">
+        <v>7</v>
+      </c>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>13019</v>
+      </c>
+      <c r="B133">
+        <v>19</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>40</v>
+      </c>
+      <c r="F133" s="2">
+        <v>100</v>
+      </c>
+      <c r="G133">
+        <v>40</v>
+      </c>
+      <c r="H133" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I133" s="10">
+        <v>8</v>
+      </c>
+      <c r="J133" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K133" s="10">
+        <v>7</v>
+      </c>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="11">
+        <v>23</v>
+      </c>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>13020</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>40</v>
+      </c>
+      <c r="F134" s="2">
+        <v>100</v>
+      </c>
+      <c r="G134">
+        <v>40</v>
+      </c>
+      <c r="H134" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I134" s="10">
+        <v>8</v>
+      </c>
+      <c r="J134" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K134" s="10">
+        <v>7</v>
+      </c>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O134" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>13021</v>
+      </c>
+      <c r="B135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>40</v>
+      </c>
+      <c r="F135" s="2">
+        <v>100</v>
+      </c>
+      <c r="G135">
+        <v>40</v>
+      </c>
+      <c r="H135" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I135" s="10">
+        <v>8</v>
+      </c>
+      <c r="J135" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K135" s="10">
+        <v>7</v>
+      </c>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="O135" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>13022</v>
+      </c>
+      <c r="B136">
+        <v>22</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>40</v>
+      </c>
+      <c r="F136" s="2">
+        <v>100</v>
+      </c>
+      <c r="G136">
+        <v>40</v>
+      </c>
+      <c r="H136" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I136" s="10">
+        <v>8</v>
+      </c>
+      <c r="J136" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K136" s="10">
+        <v>7</v>
+      </c>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O136" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>13023</v>
+      </c>
+      <c r="B137">
+        <v>23</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>40</v>
+      </c>
+      <c r="F137" s="2">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>40</v>
+      </c>
+      <c r="H137" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I137" s="10">
+        <v>8</v>
+      </c>
+      <c r="J137" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K137" s="10">
+        <v>7</v>
+      </c>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>13024</v>
+      </c>
+      <c r="B138">
+        <v>24</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>40</v>
+      </c>
+      <c r="F138" s="2">
+        <v>100</v>
+      </c>
+      <c r="G138">
+        <v>40</v>
+      </c>
+      <c r="H138" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I138" s="10">
+        <v>8</v>
+      </c>
+      <c r="J138" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K138" s="10">
+        <v>1</v>
+      </c>
+      <c r="L138" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M138" s="10">
+        <v>6</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O138" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>13025</v>
+      </c>
+      <c r="B139">
+        <v>25</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>40</v>
+      </c>
+      <c r="F139" s="2">
+        <v>100</v>
+      </c>
+      <c r="G139">
+        <v>40</v>
+      </c>
+      <c r="H139" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I139" s="10">
+        <v>8</v>
+      </c>
+      <c r="J139" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K139" s="10">
+        <v>1</v>
+      </c>
+      <c r="L139" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M139" s="10">
+        <v>6</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="O139" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="11">
+        <v>21</v>
+      </c>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>13026</v>
+      </c>
+      <c r="B140">
+        <v>26</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>40</v>
+      </c>
+      <c r="F140" s="2">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <v>40</v>
+      </c>
+      <c r="H140" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I140" s="10">
+        <v>8</v>
+      </c>
+      <c r="J140" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K140" s="10">
+        <v>1</v>
+      </c>
+      <c r="L140" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M140" s="10">
+        <v>6</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>13027</v>
+      </c>
+      <c r="B141">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>40</v>
+      </c>
+      <c r="F141" s="2">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>40</v>
+      </c>
+      <c r="H141" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I141" s="10">
+        <v>8</v>
+      </c>
+      <c r="J141" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K141" s="10">
+        <v>1</v>
+      </c>
+      <c r="L141" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M141" s="10">
+        <v>6</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="O141" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>13028</v>
+      </c>
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>40</v>
+      </c>
+      <c r="F142" s="2">
+        <v>100</v>
+      </c>
+      <c r="G142">
+        <v>40</v>
+      </c>
+      <c r="H142" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I142" s="10">
+        <v>8</v>
+      </c>
+      <c r="J142" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K142" s="10">
+        <v>1</v>
+      </c>
+      <c r="L142" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M142" s="10">
+        <v>6</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O142" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>13029</v>
+      </c>
+      <c r="B143">
+        <v>29</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>40</v>
+      </c>
+      <c r="F143" s="2">
+        <v>100</v>
+      </c>
+      <c r="G143">
+        <v>40</v>
+      </c>
+      <c r="H143" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I143" s="10">
+        <v>8</v>
+      </c>
+      <c r="J143" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K143" s="10">
+        <v>1</v>
+      </c>
+      <c r="L143" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M143" s="10">
+        <v>6</v>
+      </c>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>13030</v>
+      </c>
+      <c r="B144">
+        <v>30</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>40</v>
+      </c>
+      <c r="F144" s="2">
+        <v>100</v>
+      </c>
+      <c r="G144">
+        <v>40</v>
+      </c>
+      <c r="H144" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I144" s="10">
+        <v>8</v>
+      </c>
+      <c r="J144" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K144" s="10">
+        <v>6</v>
+      </c>
+      <c r="L144" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M144" s="10">
+        <v>1</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O144" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>13031</v>
+      </c>
+      <c r="B145">
+        <v>31</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>40</v>
+      </c>
+      <c r="F145" s="2">
+        <v>100</v>
+      </c>
+      <c r="G145">
+        <v>40</v>
+      </c>
+      <c r="H145" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I145" s="10">
+        <v>8</v>
+      </c>
+      <c r="J145" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K145" s="10">
+        <v>6</v>
+      </c>
+      <c r="L145" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M145" s="10">
+        <v>1</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O145" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="11">
+        <v>22</v>
+      </c>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>13032</v>
+      </c>
+      <c r="B146">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>40</v>
+      </c>
+      <c r="F146" s="2">
+        <v>100</v>
+      </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
+      <c r="H146" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I146" s="10">
+        <v>8</v>
+      </c>
+      <c r="J146" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K146" s="10">
+        <v>6</v>
+      </c>
+      <c r="L146" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M146" s="10">
+        <v>1</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O146" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>13033</v>
+      </c>
+      <c r="B147">
+        <v>33</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>40</v>
+      </c>
+      <c r="F147" s="2">
+        <v>100</v>
+      </c>
+      <c r="G147">
+        <v>40</v>
+      </c>
+      <c r="H147" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I147" s="10">
+        <v>8</v>
+      </c>
+      <c r="J147" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K147" s="10">
+        <v>6</v>
+      </c>
+      <c r="L147" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M147" s="10">
+        <v>1</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="O147" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>13034</v>
+      </c>
+      <c r="B148">
+        <v>34</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
+      <c r="F148" s="2">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <v>40</v>
+      </c>
+      <c r="H148" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I148" s="10">
+        <v>8</v>
+      </c>
+      <c r="J148" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K148" s="10">
+        <v>6</v>
+      </c>
+      <c r="L148" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M148" s="10">
+        <v>1</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O148" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>13035</v>
+      </c>
+      <c r="B149">
+        <v>35</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>40</v>
+      </c>
+      <c r="F149" s="2">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <v>40</v>
+      </c>
+      <c r="H149" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I149" s="10">
+        <v>8</v>
+      </c>
+      <c r="J149" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K149" s="10">
+        <v>6</v>
+      </c>
+      <c r="L149" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M149" s="10">
+        <v>1</v>
+      </c>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>13036</v>
+      </c>
+      <c r="B150">
+        <v>36</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>40</v>
+      </c>
+      <c r="F150" s="2">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <v>40</v>
+      </c>
+      <c r="H150" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I150" s="10">
+        <v>8</v>
+      </c>
+      <c r="J150" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K150" s="10">
+        <v>6</v>
+      </c>
+      <c r="L150" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M150" s="10">
+        <v>1</v>
+      </c>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="P150" s="10"/>
+      <c r="Q150" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>13037</v>
+      </c>
+      <c r="B151">
+        <v>37</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>40</v>
+      </c>
+      <c r="F151" s="2">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <v>40</v>
+      </c>
+      <c r="H151" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I151" s="10">
+        <v>8</v>
+      </c>
+      <c r="J151" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K151" s="10">
+        <v>6</v>
+      </c>
+      <c r="L151" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M151" s="10">
+        <v>1</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="O151" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>13038</v>
+      </c>
+      <c r="B152">
+        <v>38</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>40</v>
+      </c>
+      <c r="F152" s="2">
+        <v>100</v>
+      </c>
+      <c r="G152">
+        <v>40</v>
+      </c>
+      <c r="H152" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I152" s="10">
+        <v>8</v>
+      </c>
+      <c r="J152" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K152" s="10">
+        <v>6</v>
+      </c>
+      <c r="L152" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M152" s="10">
+        <v>1</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O152" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="11">
+        <v>23</v>
+      </c>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>13039</v>
+      </c>
+      <c r="B153">
+        <v>39</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+      <c r="F153" s="2">
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>40</v>
+      </c>
+      <c r="H153" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I153" s="10">
+        <v>8</v>
+      </c>
+      <c r="J153" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K153" s="10">
+        <v>6</v>
+      </c>
+      <c r="L153" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M153" s="10">
+        <v>1</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O153" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>13040</v>
+      </c>
+      <c r="B154">
+        <v>40</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>40</v>
+      </c>
+      <c r="F154" s="2">
+        <v>100</v>
+      </c>
+      <c r="G154">
+        <v>40</v>
+      </c>
+      <c r="H154" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I154" s="10">
+        <v>8</v>
+      </c>
+      <c r="J154" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K154" s="10">
+        <v>6</v>
+      </c>
+      <c r="L154" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M154" s="10">
+        <v>1</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>13041</v>
+      </c>
+      <c r="B155">
+        <v>41</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>40</v>
+      </c>
+      <c r="F155" s="2">
+        <v>100</v>
+      </c>
+      <c r="G155">
+        <v>40</v>
+      </c>
+      <c r="H155" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I155" s="10">
+        <v>8</v>
+      </c>
+      <c r="J155" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K155" s="10">
+        <v>6</v>
+      </c>
+      <c r="L155" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M155" s="10">
+        <v>1</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O155" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>13042</v>
+      </c>
+      <c r="B156">
+        <v>42</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>40</v>
+      </c>
+      <c r="F156" s="2">
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <v>40</v>
+      </c>
+      <c r="H156" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I156" s="10">
+        <v>8</v>
+      </c>
+      <c r="J156" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K156" s="10">
+        <v>6</v>
+      </c>
+      <c r="L156" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M156" s="10">
+        <v>1</v>
+      </c>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>13043</v>
+      </c>
+      <c r="B157">
+        <v>43</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>40</v>
+      </c>
+      <c r="F157" s="2">
+        <v>100</v>
+      </c>
+      <c r="G157">
+        <v>40</v>
+      </c>
+      <c r="H157" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I157" s="10">
+        <v>8</v>
+      </c>
+      <c r="J157" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K157" s="10">
+        <v>6</v>
+      </c>
+      <c r="L157" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M157" s="10">
+        <v>1</v>
+      </c>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>5000</v>
+      </c>
+      <c r="B158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>50</v>
+      </c>
+      <c r="F158" s="2">
+        <v>100</v>
+      </c>
+      <c r="G158">
+        <v>50</v>
+      </c>
+      <c r="H158">
+        <v>1004</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <v>1001</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>1006</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1" t="s">
         <v>39</v>
       </c>
     </row>
